--- a/SO SACH - TV/SO SACH/2016/An Lạc TV.xlsx
+++ b/SO SACH - TV/SO SACH/2016/An Lạc TV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="195" windowWidth="14820" windowHeight="8625" tabRatio="878"/>
+    <workbookView xWindow="0" yWindow="255" windowWidth="14820" windowHeight="8565" tabRatio="878" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CDPS" sheetId="15" r:id="rId1"/>
@@ -24,17 +24,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TH!$A$9:$M$1209</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'TH - TT'!$A$4:$M$168</definedName>
     <definedName name="Dong">IF([0]!Loai="x",ROW([0]!Loai)-1,"")</definedName>
-    <definedName name="DSKH">'331'!$B$4:$B$34</definedName>
+    <definedName name="DSKH">'331'!$B$4:$B$40</definedName>
     <definedName name="DSTK">CDPS!$A$10:$D$40</definedName>
     <definedName name="DSTT" localSheetId="6">'HOANG KIM'!$K$5:$K$18</definedName>
-    <definedName name="DSTT">'TH - TT'!$K$7:$K$234</definedName>
+    <definedName name="DSTT">'TH - TT'!$K$7:$K$236</definedName>
     <definedName name="DSTT1" localSheetId="6">'HOANG KIM'!$I$5:$I$18</definedName>
-    <definedName name="DSTT1">'TH - TT'!$I$7:$I$235</definedName>
+    <definedName name="DSTT1">'TH - TT'!$I$7:$I$237</definedName>
     <definedName name="KH">TH!$H$11:$H$1335</definedName>
     <definedName name="KHC">TH!$K$11:$K$1335</definedName>
     <definedName name="KHN">TH!$J$11:$J$1335</definedName>
     <definedName name="Loai">OFFSET(TH!$L$5,,,COUNTA(TH!$L$5:$L$39645))</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'TH - TT'!$195:$206</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'TH - TT'!$197:$208</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'HOANG KIM'!$3:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">'KHANH TRÂN'!$2:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'TH - TT'!$3:$4</definedName>
@@ -53,7 +53,7 @@
     <author>User 1</author>
   </authors>
   <commentList>
-    <comment ref="L241" authorId="0">
+    <comment ref="L243" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6716" uniqueCount="1150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6808" uniqueCount="1169">
   <si>
     <t>Diễn giải</t>
   </si>
@@ -3448,9 +3448,6 @@
     <t>C80</t>
   </si>
   <si>
-    <t>Xét nghiệm mẫu</t>
-  </si>
-  <si>
     <t>Thép 6, thép 18</t>
   </si>
   <si>
@@ -3524,6 +3521,66 @@
   </si>
   <si>
     <t>VAT Hợp đồng giám sát môi trường</t>
+  </si>
+  <si>
+    <t>Bàn Inox 80x230</t>
+  </si>
+  <si>
+    <t>VAT Bàn Inox 80x230</t>
+  </si>
+  <si>
+    <t>La bàn, que hàn</t>
+  </si>
+  <si>
+    <t>VAT La bàn, que hàn</t>
+  </si>
+  <si>
+    <t>Phí dịch vụ bảo vệ T12/2015</t>
+  </si>
+  <si>
+    <t>VAT Phí dịch vụ bảo vệ T12/2015</t>
+  </si>
+  <si>
+    <t>0001956</t>
+  </si>
+  <si>
+    <t>0000216</t>
+  </si>
+  <si>
+    <t>0117416; 0117417; 0116822; 0117418</t>
+  </si>
+  <si>
+    <t>0000019</t>
+  </si>
+  <si>
+    <t>0000029</t>
+  </si>
+  <si>
+    <t>0000111</t>
+  </si>
+  <si>
+    <t>Tiển công trình đường dây trung thế</t>
+  </si>
+  <si>
+    <t>VAT Tiển công trình đường dây trung thế</t>
+  </si>
+  <si>
+    <t>Chi phí nhân công, máy, ván khuông thi công HĐ: 01/2015/HĐKT</t>
+  </si>
+  <si>
+    <t>VAT Chi phí nhân công, máy</t>
+  </si>
+  <si>
+    <t>Lắp đặt hệ thống PCCC</t>
+  </si>
+  <si>
+    <t>VAT Lắp đặt hệ thống PCCC</t>
+  </si>
+  <si>
+    <t>C89</t>
+  </si>
+  <si>
+    <t>0000532</t>
   </si>
 </sst>
 </file>
@@ -4630,7 +4687,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="526">
+  <cellXfs count="528">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5848,6 +5905,12 @@
     <xf numFmtId="164" fontId="35" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="76" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5924,12 +5987,6 @@
     <xf numFmtId="164" fontId="35" fillId="0" borderId="12" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="57" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5942,9 +5999,6 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5952,6 +6006,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5964,6 +6021,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="35" fillId="0" borderId="19" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6038,13 +6101,13 @@
     <xf numFmtId="164" fontId="35" fillId="0" borderId="18" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="32" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="42" fillId="0" borderId="22" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="32" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6552,7 +6615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D43" sqref="D43"/>
       <selection pane="topRight" activeCell="D43" sqref="D43"/>
@@ -6675,11 +6738,11 @@
       </c>
       <c r="F10" s="51">
         <f t="array" ref="F10">SUM(IF(A10=KHC,TH))</f>
-        <v>9658667593</v>
+        <v>9702505585</v>
       </c>
       <c r="G10" s="52">
         <f>MAX(C10+E10-D10-F10,0)</f>
-        <v>1351332407</v>
+        <v>1307494415</v>
       </c>
       <c r="H10" s="52">
         <f>MAX(D10+F10-E10-C10,0)</f>
@@ -6703,11 +6766,11 @@
       </c>
       <c r="F11" s="56">
         <f>F10</f>
-        <v>9658667593</v>
+        <v>9702505585</v>
       </c>
       <c r="G11" s="56">
         <f>G10</f>
-        <v>1351332407</v>
+        <v>1307494415</v>
       </c>
       <c r="H11" s="56">
         <f>H10</f>
@@ -6781,7 +6844,7 @@
       <c r="D14" s="51"/>
       <c r="E14" s="51">
         <f t="array" ref="E14">SUM(IF(A14=KHN,TH))</f>
-        <v>2131396592</v>
+        <v>2266907528</v>
       </c>
       <c r="F14" s="51">
         <f t="array" ref="F14">SUM(IF(A14=KHC,TH))</f>
@@ -6789,7 +6852,7 @@
       </c>
       <c r="G14" s="52">
         <f>MAX(C14+E14-D14-F14,0)</f>
-        <v>452552384</v>
+        <v>588063320</v>
       </c>
       <c r="H14" s="52">
         <f>MAX(D14+F14-E14-C14,0)</f>
@@ -6808,7 +6871,7 @@
       <c r="D15" s="56"/>
       <c r="E15" s="56">
         <f>E14</f>
-        <v>2131396592</v>
+        <v>2266907528</v>
       </c>
       <c r="F15" s="56">
         <f>F14</f>
@@ -6816,7 +6879,7 @@
       </c>
       <c r="G15" s="56">
         <f>G14</f>
-        <v>452552384</v>
+        <v>588063320</v>
       </c>
       <c r="H15" s="56">
         <f>H14</f>
@@ -6889,7 +6952,7 @@
       <c r="D18" s="51"/>
       <c r="E18" s="51">
         <f t="array" ref="E18">SUM(IF(A18=KHN,TH))</f>
-        <v>22598987302</v>
+        <v>23946959081</v>
       </c>
       <c r="F18" s="51">
         <f t="array" ref="F18">SUM(IF(A18=KHC,TH))</f>
@@ -6897,7 +6960,7 @@
       </c>
       <c r="G18" s="52">
         <f t="shared" si="0"/>
-        <v>22598987302</v>
+        <v>23946959081</v>
       </c>
       <c r="H18" s="52">
         <f t="shared" si="1"/>
@@ -6916,7 +6979,7 @@
       <c r="D19" s="56"/>
       <c r="E19" s="56">
         <f>E18</f>
-        <v>22598987302</v>
+        <v>23946959081</v>
       </c>
       <c r="F19" s="56">
         <f>F18</f>
@@ -6924,7 +6987,7 @@
       </c>
       <c r="G19" s="56">
         <f t="shared" si="0"/>
-        <v>22598987302</v>
+        <v>23946959081</v>
       </c>
       <c r="H19" s="56">
         <f t="shared" si="1"/>
@@ -6947,11 +7010,11 @@
       </c>
       <c r="F20" s="139">
         <f t="array" ref="F20">SUM(IF(A20=KHC,TH))</f>
-        <v>22589271026</v>
+        <v>24036234026</v>
       </c>
       <c r="G20" s="56">
         <f t="shared" si="0"/>
-        <v>4916849764</v>
+        <v>3469886764</v>
       </c>
       <c r="H20" s="56">
         <f t="shared" si="1"/>
@@ -7280,7 +7343,7 @@
       <c r="D32" s="51"/>
       <c r="E32" s="51">
         <f t="array" ref="E32">SUM(IF(A32=TH!$J$10:$J$1209,TH!$I$10:$I$1209))</f>
-        <v>583263451</v>
+        <v>590581728</v>
       </c>
       <c r="F32" s="51">
         <f t="array" ref="F32">SUM(IF(A32=TH!$K$10:$K$1209,TH!$I$10:$I$1209))</f>
@@ -7288,7 +7351,7 @@
       </c>
       <c r="G32" s="51">
         <f>MAX(C32+E32-D32-F32,0)</f>
-        <v>583263451</v>
+        <v>590581728</v>
       </c>
       <c r="H32" s="51">
         <f>MAX(D32+F32-E32-C32,0)</f>
@@ -7306,7 +7369,7 @@
       <c r="D33" s="56"/>
       <c r="E33" s="56">
         <f>E32+E31</f>
-        <v>583263451</v>
+        <v>590581728</v>
       </c>
       <c r="F33" s="56">
         <f>F32+F31</f>
@@ -7314,7 +7377,7 @@
       </c>
       <c r="G33" s="56">
         <f>G32+G31</f>
-        <v>583263451</v>
+        <v>590581728</v>
       </c>
       <c r="H33" s="56">
         <f>H32+H31</f>
@@ -7332,11 +7395,11 @@
       <c r="D34" s="56"/>
       <c r="E34" s="139">
         <f t="array" ref="E34">SUM(IF(A34=KHN,TH))</f>
-        <v>2182272</v>
+        <v>1782272</v>
       </c>
       <c r="F34" s="139">
         <f t="array" ref="F34">SUM(IF(A34=KHC,TH))</f>
-        <v>2182272</v>
+        <v>1782272</v>
       </c>
       <c r="G34" s="56"/>
       <c r="H34" s="56"/>
@@ -7380,11 +7443,11 @@
       <c r="D36" s="56"/>
       <c r="E36" s="139">
         <f t="array" ref="E36">SUM(IF(A36=KHN,TH))</f>
-        <v>556025723</v>
+        <v>563344000</v>
       </c>
       <c r="F36" s="139">
         <f t="array" ref="F36">SUM(IF(A36=KHC,TH))</f>
-        <v>556025723</v>
+        <v>563344000</v>
       </c>
       <c r="G36" s="56"/>
       <c r="H36" s="56"/>
@@ -7404,11 +7467,11 @@
       <c r="D37" s="56"/>
       <c r="E37" s="139">
         <f t="array" ref="E37">SUM(IF(A37=KHN,TH))</f>
-        <v>500000</v>
+        <v>900000</v>
       </c>
       <c r="F37" s="139">
         <f t="array" ref="F37">SUM(IF(A37=KHC,TH))</f>
-        <v>500000</v>
+        <v>900000</v>
       </c>
       <c r="G37" s="56"/>
       <c r="H37" s="56"/>
@@ -7476,11 +7539,11 @@
       <c r="D40" s="56"/>
       <c r="E40" s="140">
         <f t="array" ref="E40">SUM(IF(A40=KHN,TH))</f>
-        <v>585945723</v>
+        <v>593264000</v>
       </c>
       <c r="F40" s="140">
         <f t="array" ref="F40">SUM(IF(A40=TH!$K$10:$K$1209,TH!$I$10:$I$1209))</f>
-        <v>585945723</v>
+        <v>593264000</v>
       </c>
       <c r="G40" s="56"/>
       <c r="H40" s="56"/>
@@ -7504,11 +7567,11 @@
       </c>
       <c r="E41" s="62">
         <f t="shared" si="4"/>
-        <v>102497885915</v>
+        <v>104003323461</v>
       </c>
       <c r="F41" s="62">
         <f t="shared" si="4"/>
-        <v>102497885915</v>
+        <v>104003323461</v>
       </c>
       <c r="G41" s="62">
         <f t="shared" si="4"/>
@@ -7557,10 +7620,10 @@
   </sheetPr>
   <dimension ref="A1:M1209"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A1144" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A1153" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="C405" sqref="C405:K1165"/>
+      <selection pane="bottomLeft" activeCell="C1160" sqref="C1160:K1181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7626,30 +7689,30 @@
     <row r="4" spans="1:12" ht="22.5">
       <c r="A4" s="106"/>
       <c r="B4" s="106"/>
-      <c r="C4" s="427" t="s">
+      <c r="C4" s="429" t="s">
         <v>253</v>
       </c>
-      <c r="D4" s="427"/>
-      <c r="E4" s="427"/>
-      <c r="F4" s="427"/>
-      <c r="G4" s="427"/>
-      <c r="H4" s="427"/>
-      <c r="I4" s="427"/>
-      <c r="J4" s="427"/>
-      <c r="K4" s="427"/>
+      <c r="D4" s="429"/>
+      <c r="E4" s="429"/>
+      <c r="F4" s="429"/>
+      <c r="G4" s="429"/>
+      <c r="H4" s="429"/>
+      <c r="I4" s="429"/>
+      <c r="J4" s="429"/>
+      <c r="K4" s="429"/>
     </row>
     <row r="5" spans="1:12" ht="14.25">
       <c r="A5" s="106"/>
       <c r="B5" s="106"/>
-      <c r="C5" s="428"/>
-      <c r="D5" s="428"/>
-      <c r="E5" s="428"/>
-      <c r="F5" s="428"/>
-      <c r="G5" s="428"/>
-      <c r="H5" s="428"/>
-      <c r="I5" s="428"/>
-      <c r="J5" s="428"/>
-      <c r="K5" s="428"/>
+      <c r="C5" s="430"/>
+      <c r="D5" s="430"/>
+      <c r="E5" s="430"/>
+      <c r="F5" s="430"/>
+      <c r="G5" s="430"/>
+      <c r="H5" s="430"/>
+      <c r="I5" s="430"/>
+      <c r="J5" s="430"/>
+      <c r="K5" s="430"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="106"/>
@@ -7666,60 +7729,60 @@
       <c r="L6" s="69"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="423" t="s">
+      <c r="A7" s="425" t="s">
         <v>265</v>
       </c>
-      <c r="B7" s="423" t="s">
+      <c r="B7" s="425" t="s">
         <v>266</v>
       </c>
-      <c r="C7" s="429" t="s">
+      <c r="C7" s="431" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="430" t="s">
+      <c r="D7" s="432" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="431"/>
-      <c r="F7" s="429" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="432" t="s">
+      <c r="E7" s="433"/>
+      <c r="F7" s="431" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="434" t="s">
         <v>512</v>
       </c>
-      <c r="H7" s="425" t="s">
+      <c r="H7" s="427" t="s">
         <v>184</v>
       </c>
-      <c r="I7" s="429" t="s">
+      <c r="I7" s="431" t="s">
         <v>254</v>
       </c>
-      <c r="J7" s="426" t="s">
+      <c r="J7" s="428" t="s">
         <v>255</v>
       </c>
-      <c r="K7" s="426"/>
-      <c r="L7" s="426">
+      <c r="K7" s="428"/>
+      <c r="L7" s="428">
         <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="25.5">
-      <c r="A8" s="424"/>
-      <c r="B8" s="424"/>
-      <c r="C8" s="429"/>
+      <c r="A8" s="426"/>
+      <c r="B8" s="426"/>
+      <c r="C8" s="431"/>
       <c r="D8" s="104" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="429"/>
-      <c r="G8" s="433"/>
-      <c r="H8" s="425"/>
-      <c r="I8" s="429"/>
+      <c r="F8" s="431"/>
+      <c r="G8" s="435"/>
+      <c r="H8" s="427"/>
+      <c r="I8" s="431"/>
       <c r="J8" s="105" t="s">
         <v>52</v>
       </c>
       <c r="K8" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="426"/>
+      <c r="L8" s="428"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="71">
@@ -7784,7 +7847,7 @@
       <c r="H10" s="132"/>
       <c r="I10" s="133">
         <f>MAX(SUMIF(KHN,"911",TH)-SUMIF(KHC,"911",TH),SUMIF(KHC,"911",TH)-SUMIF(KHN,"911",TH))</f>
-        <v>583263451</v>
+        <v>590581728</v>
       </c>
       <c r="J10" s="134" t="s">
         <v>235</v>
@@ -7860,7 +7923,7 @@
       <c r="H12" s="132"/>
       <c r="I12" s="133">
         <f>SUMIF(KHN,"642",TH)</f>
-        <v>556025723</v>
+        <v>563344000</v>
       </c>
       <c r="J12" s="141" t="s">
         <v>250</v>
@@ -7898,7 +7961,7 @@
       <c r="H13" s="142"/>
       <c r="I13" s="133">
         <f>SUMIF(KHC,"515",TH)</f>
-        <v>2182272</v>
+        <v>1782272</v>
       </c>
       <c r="J13" s="134" t="s">
         <v>99</v>
@@ -7936,7 +7999,7 @@
       <c r="H14" s="132"/>
       <c r="I14" s="133">
         <f>SUMIF(KHC,"711",TH)</f>
-        <v>500000</v>
+        <v>900000</v>
       </c>
       <c r="J14" s="134" t="s">
         <v>244</v>
@@ -39121,7 +39184,9 @@
         <v>597</v>
       </c>
       <c r="G825" s="265"/>
-      <c r="H825" s="122"/>
+      <c r="H825" s="122" t="s">
+        <v>431</v>
+      </c>
       <c r="I825" s="74">
         <v>1336364</v>
       </c>
@@ -39158,7 +39223,9 @@
         <v>598</v>
       </c>
       <c r="G826" s="265"/>
-      <c r="H826" s="122"/>
+      <c r="H826" s="122" t="s">
+        <v>431</v>
+      </c>
       <c r="I826" s="74">
         <v>133636</v>
       </c>
@@ -41426,13 +41493,13 @@
         <v>42287</v>
       </c>
       <c r="F883" s="314" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G883" s="315" t="s">
         <v>1125</v>
       </c>
-      <c r="G883" s="315" t="s">
+      <c r="H883" s="316" t="s">
         <v>1126</v>
-      </c>
-      <c r="H883" s="316" t="s">
-        <v>1127</v>
       </c>
       <c r="I883" s="74">
         <v>17478660</v>
@@ -41467,13 +41534,13 @@
         <v>42287</v>
       </c>
       <c r="F884" s="314" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G884" s="315" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H884" s="316" t="s">
         <v>1126</v>
-      </c>
-      <c r="H884" s="316" t="s">
-        <v>1127</v>
       </c>
       <c r="I884" s="74">
         <v>1747866</v>
@@ -41795,13 +41862,13 @@
         <v>42289</v>
       </c>
       <c r="F892" s="76" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G892" s="270" t="s">
         <v>1129</v>
       </c>
-      <c r="G892" s="270" t="s">
-        <v>1130</v>
-      </c>
       <c r="H892" s="122" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="I892" s="74">
         <v>15000000</v>
@@ -41836,13 +41903,13 @@
         <v>42289</v>
       </c>
       <c r="F893" s="314" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="G893" s="315" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H893" s="316" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="I893" s="74">
         <v>1500000</v>
@@ -43667,7 +43734,7 @@
         <v>54</v>
       </c>
       <c r="K939" s="75" t="s">
-        <v>99</v>
+        <v>244</v>
       </c>
       <c r="L939" s="134" t="str">
         <f>IF(AND('331-CT'!$E$7=TH!H939,OR(J939="331",K939="331")),"x","")</f>
@@ -44943,7 +45010,7 @@
         <v>774</v>
       </c>
       <c r="I971" s="74">
-        <v>1416070</v>
+        <v>1446070</v>
       </c>
       <c r="J971" s="75" t="s">
         <v>19</v>
@@ -45511,7 +45578,9 @@
         <v>576</v>
       </c>
       <c r="G985" s="265"/>
-      <c r="H985" s="122"/>
+      <c r="H985" s="122" t="s">
+        <v>272</v>
+      </c>
       <c r="I985" s="74">
         <v>50000000</v>
       </c>
@@ -45743,7 +45812,9 @@
         <v>576</v>
       </c>
       <c r="G991" s="265"/>
-      <c r="H991" s="122"/>
+      <c r="H991" s="122" t="s">
+        <v>272</v>
+      </c>
       <c r="I991" s="74">
         <v>50000000</v>
       </c>
@@ -46009,7 +46080,7 @@
         <v>474</v>
       </c>
       <c r="H998" s="122" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="I998" s="74">
         <v>16500000</v>
@@ -46050,7 +46121,7 @@
         <v>474</v>
       </c>
       <c r="H999" s="122" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="I999" s="74">
         <v>1650000</v>
@@ -46252,10 +46323,10 @@
         <v>1089</v>
       </c>
       <c r="G1004" s="265" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H1004" s="122" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="I1004" s="74">
         <v>17250000</v>
@@ -46293,10 +46364,10 @@
         <v>1092</v>
       </c>
       <c r="G1005" s="265" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H1005" s="122" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="I1005" s="74">
         <v>1725000</v>
@@ -46463,7 +46534,7 @@
         <v>280</v>
       </c>
       <c r="I1009" s="74">
-        <v>30586</v>
+        <v>30583</v>
       </c>
       <c r="J1009" s="75" t="s">
         <v>19</v>
@@ -46701,7 +46772,9 @@
         <v>576</v>
       </c>
       <c r="G1015" s="265"/>
-      <c r="H1015" s="122"/>
+      <c r="H1015" s="122" t="s">
+        <v>272</v>
+      </c>
       <c r="I1015" s="74">
         <v>165000000</v>
       </c>
@@ -47614,7 +47687,9 @@
         <v>576</v>
       </c>
       <c r="G1038" s="265"/>
-      <c r="H1038" s="122"/>
+      <c r="H1038" s="122" t="s">
+        <v>272</v>
+      </c>
       <c r="I1038" s="74">
         <v>40000000</v>
       </c>
@@ -48251,7 +48326,7 @@
         <v>646</v>
       </c>
       <c r="H1054" s="122" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="I1054" s="74">
         <v>16200000</v>
@@ -48292,7 +48367,7 @@
         <v>646</v>
       </c>
       <c r="H1055" s="122" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="I1055" s="74">
         <v>1620000</v>
@@ -48336,7 +48411,7 @@
         <v>854</v>
       </c>
       <c r="I1056" s="74">
-        <v>1990000</v>
+        <v>2990000</v>
       </c>
       <c r="J1056" s="75" t="s">
         <v>655</v>
@@ -48758,13 +48833,13 @@
         <v>42346</v>
       </c>
       <c r="F1067" s="76" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G1067" s="265" t="s">
         <v>412</v>
       </c>
       <c r="H1067" s="122" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="I1067" s="74">
         <v>11700000</v>
@@ -48799,13 +48874,13 @@
         <v>42346</v>
       </c>
       <c r="F1068" s="76" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="G1068" s="265" t="s">
         <v>412</v>
       </c>
       <c r="H1068" s="122" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="I1068" s="74">
         <v>1170000</v>
@@ -48893,7 +48968,7 @@
         <v>47213</v>
       </c>
       <c r="J1070" s="75" t="s">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c r="K1070" s="75" t="s">
         <v>203</v>
@@ -49004,13 +49079,13 @@
         <v>42348</v>
       </c>
       <c r="F1073" s="76" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G1073" s="265" t="s">
         <v>413</v>
       </c>
       <c r="H1073" s="122" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="I1073" s="74">
         <v>11700000</v>
@@ -49045,13 +49120,13 @@
         <v>42348</v>
       </c>
       <c r="F1074" s="76" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="G1074" s="265" t="s">
         <v>413</v>
       </c>
       <c r="H1074" s="122" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="I1074" s="74">
         <v>1170000</v>
@@ -50705,7 +50780,7 @@
         <v>42363</v>
       </c>
       <c r="D1117" s="313" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E1117" s="313">
         <v>42363</v>
@@ -50857,7 +50932,7 @@
         <v>42363</v>
       </c>
       <c r="D1121" s="313" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E1121" s="313">
         <v>42363</v>
@@ -51044,7 +51119,7 @@
         <v>42363</v>
       </c>
       <c r="D1126" s="73" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E1126" s="73">
         <v>42363</v>
@@ -51085,7 +51160,7 @@
         <v>42363</v>
       </c>
       <c r="D1127" s="73" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E1127" s="73">
         <v>42363</v>
@@ -51132,10 +51207,10 @@
         <v>42364</v>
       </c>
       <c r="F1128" s="76" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G1128" s="265" t="s">
         <v>1139</v>
-      </c>
-      <c r="G1128" s="265" t="s">
-        <v>1140</v>
       </c>
       <c r="H1128" s="122" t="s">
         <v>649</v>
@@ -51173,10 +51248,10 @@
         <v>42364</v>
       </c>
       <c r="F1129" s="76" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G1129" s="265" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H1129" s="122" t="s">
         <v>649</v>
@@ -51208,7 +51283,7 @@
         <v>42366</v>
       </c>
       <c r="D1130" s="73" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E1130" s="73">
         <v>42366</v>
@@ -51676,16 +51751,16 @@
         <v>42366</v>
       </c>
       <c r="F1142" s="76" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="G1142" s="265" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="H1142" s="122" t="s">
-        <v>1113</v>
+        <v>151</v>
       </c>
       <c r="I1142" s="74">
-        <v>7397273</v>
+        <v>636500000</v>
       </c>
       <c r="J1142" s="75" t="s">
         <v>655</v>
@@ -51717,16 +51792,16 @@
         <v>42366</v>
       </c>
       <c r="F1143" s="76" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="G1143" s="265" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="H1143" s="122" t="s">
-        <v>1113</v>
+        <v>151</v>
       </c>
       <c r="I1143" s="74">
-        <v>739727</v>
+        <v>63650000</v>
       </c>
       <c r="J1143" s="75" t="s">
         <v>19</v>
@@ -51752,28 +51827,28 @@
         <v>42366</v>
       </c>
       <c r="D1144" s="73" t="s">
-        <v>78</v>
+        <v>1142</v>
       </c>
       <c r="E1144" s="73">
         <v>42366</v>
       </c>
       <c r="F1144" s="76" t="s">
-        <v>1115</v>
+        <v>836</v>
       </c>
       <c r="G1144" s="265" t="s">
-        <v>1116</v>
+        <v>1168</v>
       </c>
       <c r="H1144" s="122" t="s">
-        <v>151</v>
+        <v>838</v>
       </c>
       <c r="I1144" s="74">
-        <v>636500000</v>
+        <v>3636364</v>
       </c>
       <c r="J1144" s="75" t="s">
         <v>655</v>
       </c>
       <c r="K1144" s="75" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="L1144" s="134" t="str">
         <f>IF(AND('331-CT'!$E$7=TH!H1144,OR(J1144="331",K1144="331")),"x","")</f>
@@ -51793,28 +51868,28 @@
         <v>42366</v>
       </c>
       <c r="D1145" s="73" t="s">
-        <v>78</v>
+        <v>1142</v>
       </c>
       <c r="E1145" s="73">
         <v>42366</v>
       </c>
       <c r="F1145" s="76" t="s">
-        <v>1117</v>
+        <v>839</v>
       </c>
       <c r="G1145" s="265" t="s">
-        <v>1116</v>
+        <v>1168</v>
       </c>
       <c r="H1145" s="122" t="s">
-        <v>151</v>
+        <v>838</v>
       </c>
       <c r="I1145" s="74">
-        <v>63650000</v>
+        <v>363636</v>
       </c>
       <c r="J1145" s="75" t="s">
         <v>19</v>
       </c>
       <c r="K1145" s="75" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="L1145" s="134" t="str">
         <f>IF(AND('331-CT'!$E$7=TH!H1145,OR(J1145="331",K1145="331")),"x","")</f>
@@ -51831,23 +51906,25 @@
         <v>12</v>
       </c>
       <c r="C1146" s="73">
-        <v>42366</v>
+        <v>42367</v>
       </c>
       <c r="D1146" s="73" t="s">
         <v>1143</v>
       </c>
       <c r="E1146" s="73">
-        <v>42366</v>
+        <v>42367</v>
       </c>
       <c r="F1146" s="76" t="s">
-        <v>836</v>
-      </c>
-      <c r="G1146" s="265"/>
+        <v>1119</v>
+      </c>
+      <c r="G1146" s="265" t="s">
+        <v>1120</v>
+      </c>
       <c r="H1146" s="122" t="s">
-        <v>838</v>
+        <v>1121</v>
       </c>
       <c r="I1146" s="74">
-        <v>3636364</v>
+        <v>840000</v>
       </c>
       <c r="J1146" s="75" t="s">
         <v>655</v>
@@ -51870,26 +51947,26 @@
         <v>12</v>
       </c>
       <c r="C1147" s="73">
-        <v>42366</v>
+        <v>42368</v>
       </c>
       <c r="D1147" s="73" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="E1147" s="73">
-        <v>42366</v>
+        <v>42368</v>
       </c>
       <c r="F1147" s="76" t="s">
-        <v>839</v>
+        <v>576</v>
       </c>
       <c r="G1147" s="265"/>
       <c r="H1147" s="122" t="s">
-        <v>838</v>
+        <v>1075</v>
       </c>
       <c r="I1147" s="74">
-        <v>363636</v>
+        <v>10000000</v>
       </c>
       <c r="J1147" s="75" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="K1147" s="75" t="s">
         <v>203</v>
@@ -51909,31 +51986,29 @@
         <v>12</v>
       </c>
       <c r="C1148" s="73">
-        <v>42367</v>
+        <v>42368</v>
       </c>
       <c r="D1148" s="73" t="s">
-        <v>1144</v>
+        <v>17</v>
       </c>
       <c r="E1148" s="73">
-        <v>42367</v>
+        <v>42368</v>
       </c>
       <c r="F1148" s="76" t="s">
-        <v>1119</v>
-      </c>
-      <c r="G1148" s="265" t="s">
-        <v>1120</v>
-      </c>
+        <v>1076</v>
+      </c>
+      <c r="G1148" s="265"/>
       <c r="H1148" s="122" t="s">
-        <v>1121</v>
+        <v>649</v>
       </c>
       <c r="I1148" s="74">
-        <v>840000</v>
+        <v>37253040</v>
       </c>
       <c r="J1148" s="75" t="s">
-        <v>655</v>
+        <v>18</v>
       </c>
       <c r="K1148" s="75" t="s">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="L1148" s="134" t="str">
         <f>IF(AND('331-CT'!$E$7=TH!H1148,OR(J1148="331",K1148="331")),"x","")</f>
@@ -51953,26 +52028,24 @@
         <v>42368</v>
       </c>
       <c r="D1149" s="73" t="s">
-        <v>1145</v>
+        <v>17</v>
       </c>
       <c r="E1149" s="73">
         <v>42368</v>
       </c>
       <c r="F1149" s="76" t="s">
-        <v>576</v>
+        <v>34</v>
       </c>
       <c r="G1149" s="265"/>
-      <c r="H1149" s="122" t="s">
-        <v>1075</v>
-      </c>
+      <c r="H1149" s="122"/>
       <c r="I1149" s="74">
-        <v>10000000</v>
+        <v>25000</v>
       </c>
       <c r="J1149" s="75" t="s">
-        <v>54</v>
+        <v>242</v>
       </c>
       <c r="K1149" s="75" t="s">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="L1149" s="134" t="str">
         <f>IF(AND('331-CT'!$E$7=TH!H1149,OR(J1149="331",K1149="331")),"x","")</f>
@@ -51998,17 +52071,15 @@
         <v>42368</v>
       </c>
       <c r="F1150" s="76" t="s">
-        <v>1076</v>
+        <v>35</v>
       </c>
       <c r="G1150" s="265"/>
-      <c r="H1150" s="122" t="s">
-        <v>649</v>
-      </c>
+      <c r="H1150" s="122"/>
       <c r="I1150" s="74">
-        <v>37253040</v>
+        <v>2500</v>
       </c>
       <c r="J1150" s="75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K1150" s="75" t="s">
         <v>54</v>
@@ -52031,24 +52102,26 @@
         <v>42368</v>
       </c>
       <c r="D1151" s="73" t="s">
-        <v>17</v>
+        <v>1145</v>
       </c>
       <c r="E1151" s="73">
         <v>42368</v>
       </c>
       <c r="F1151" s="76" t="s">
-        <v>34</v>
+        <v>576</v>
       </c>
       <c r="G1151" s="265"/>
-      <c r="H1151" s="122"/>
+      <c r="H1151" s="122" t="s">
+        <v>272</v>
+      </c>
       <c r="I1151" s="74">
-        <v>25000</v>
+        <v>200000000</v>
       </c>
       <c r="J1151" s="75" t="s">
-        <v>242</v>
+        <v>54</v>
       </c>
       <c r="K1151" s="75" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="L1151" s="134" t="str">
         <f>IF(AND('331-CT'!$E$7=TH!H1151,OR(J1151="331",K1151="331")),"x","")</f>
@@ -52074,15 +52147,17 @@
         <v>42368</v>
       </c>
       <c r="F1152" s="76" t="s">
-        <v>35</v>
+        <v>301</v>
       </c>
       <c r="G1152" s="265"/>
-      <c r="H1152" s="122"/>
+      <c r="H1152" s="122" t="s">
+        <v>172</v>
+      </c>
       <c r="I1152" s="74">
-        <v>2500</v>
+        <v>200000000</v>
       </c>
       <c r="J1152" s="75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1152" s="75" t="s">
         <v>54</v>
@@ -52105,26 +52180,24 @@
         <v>42368</v>
       </c>
       <c r="D1153" s="73" t="s">
-        <v>1146</v>
+        <v>17</v>
       </c>
       <c r="E1153" s="73">
         <v>42368</v>
       </c>
       <c r="F1153" s="76" t="s">
-        <v>576</v>
+        <v>34</v>
       </c>
       <c r="G1153" s="265"/>
-      <c r="H1153" s="122" t="s">
-        <v>272</v>
-      </c>
+      <c r="H1153" s="122"/>
       <c r="I1153" s="74">
-        <v>200000000</v>
+        <v>158169</v>
       </c>
       <c r="J1153" s="75" t="s">
-        <v>54</v>
+        <v>242</v>
       </c>
       <c r="K1153" s="75" t="s">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="L1153" s="134" t="str">
         <f>IF(AND('331-CT'!$E$7=TH!H1153,OR(J1153="331",K1153="331")),"x","")</f>
@@ -52150,17 +52223,15 @@
         <v>42368</v>
       </c>
       <c r="F1154" s="76" t="s">
-        <v>301</v>
+        <v>35</v>
       </c>
       <c r="G1154" s="265"/>
-      <c r="H1154" s="122" t="s">
-        <v>172</v>
-      </c>
+      <c r="H1154" s="122"/>
       <c r="I1154" s="74">
-        <v>200000000</v>
+        <v>15817</v>
       </c>
       <c r="J1154" s="75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K1154" s="75" t="s">
         <v>54</v>
@@ -52180,27 +52251,31 @@
         <v>12</v>
       </c>
       <c r="C1155" s="73">
-        <v>42368</v>
+        <v>42369</v>
       </c>
       <c r="D1155" s="73" t="s">
-        <v>17</v>
+        <v>1167</v>
       </c>
       <c r="E1155" s="73">
-        <v>42368</v>
+        <v>42369</v>
       </c>
       <c r="F1155" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1155" s="265"/>
-      <c r="H1155" s="122"/>
+        <v>1111</v>
+      </c>
+      <c r="G1155" s="265" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H1155" s="122" t="s">
+        <v>1113</v>
+      </c>
       <c r="I1155" s="74">
-        <v>158169</v>
+        <v>7397273</v>
       </c>
       <c r="J1155" s="75" t="s">
-        <v>242</v>
+        <v>655</v>
       </c>
       <c r="K1155" s="75" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="L1155" s="134" t="str">
         <f>IF(AND('331-CT'!$E$7=TH!H1155,OR(J1155="331",K1155="331")),"x","")</f>
@@ -52217,27 +52292,31 @@
         <v>12</v>
       </c>
       <c r="C1156" s="73">
-        <v>42368</v>
+        <v>42369</v>
       </c>
       <c r="D1156" s="73" t="s">
-        <v>17</v>
+        <v>1167</v>
       </c>
       <c r="E1156" s="73">
-        <v>42368</v>
+        <v>42369</v>
       </c>
       <c r="F1156" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1156" s="265"/>
-      <c r="H1156" s="122"/>
+        <v>1114</v>
+      </c>
+      <c r="G1156" s="265" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H1156" s="122" t="s">
+        <v>1113</v>
+      </c>
       <c r="I1156" s="74">
-        <v>15817</v>
+        <v>739727</v>
       </c>
       <c r="J1156" s="75" t="s">
         <v>19</v>
       </c>
       <c r="K1156" s="75" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="L1156" s="134" t="str">
         <f>IF(AND('331-CT'!$E$7=TH!H1156,OR(J1156="331",K1156="331")),"x","")</f>
@@ -52302,10 +52381,10 @@
         <v>42369</v>
       </c>
       <c r="F1158" s="76" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G1158" s="265" t="s">
         <v>1147</v>
-      </c>
-      <c r="G1158" s="265" t="s">
-        <v>1148</v>
       </c>
       <c r="H1158" s="122" t="s">
         <v>109</v>
@@ -52343,10 +52422,10 @@
         <v>42369</v>
       </c>
       <c r="F1159" s="76" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G1159" s="265" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H1159" s="122" t="s">
         <v>109</v>
@@ -52588,368 +52667,636 @@
       </c>
     </row>
     <row r="1166" spans="1:12">
-      <c r="A1166" s="72" t="str">
+      <c r="A1166" s="72">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="B1166" s="72" t="str">
+        <v>2016</v>
+      </c>
+      <c r="B1166" s="72">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C1166" s="73"/>
+        <v>1</v>
+      </c>
+      <c r="C1166" s="73">
+        <v>42371</v>
+      </c>
       <c r="D1166" s="73"/>
-      <c r="E1166" s="73"/>
-      <c r="F1166" s="76"/>
-      <c r="G1166" s="265"/>
-      <c r="H1166" s="122"/>
-      <c r="I1166" s="74"/>
-      <c r="J1166" s="75"/>
-      <c r="K1166" s="75"/>
+      <c r="E1166" s="73">
+        <v>42371</v>
+      </c>
+      <c r="F1166" s="76" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G1166" s="270" t="s">
+        <v>643</v>
+      </c>
+      <c r="H1166" s="316" t="s">
+        <v>436</v>
+      </c>
+      <c r="I1166" s="74">
+        <v>4500000</v>
+      </c>
+      <c r="J1166" s="75" t="s">
+        <v>655</v>
+      </c>
+      <c r="K1166" s="75" t="s">
+        <v>203</v>
+      </c>
       <c r="L1166" s="134" t="str">
         <f>IF(AND('331-CT'!$E$7=TH!H1166,OR(J1166="331",K1166="331")),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="1167" spans="1:12">
-      <c r="A1167" s="72" t="str">
+      <c r="A1167" s="72">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="B1167" s="72" t="str">
+        <v>2016</v>
+      </c>
+      <c r="B1167" s="72">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C1167" s="73"/>
+        <v>1</v>
+      </c>
+      <c r="C1167" s="73">
+        <v>42371</v>
+      </c>
       <c r="D1167" s="73"/>
-      <c r="E1167" s="73"/>
-      <c r="F1167" s="76"/>
-      <c r="G1167" s="265"/>
-      <c r="H1167" s="122"/>
-      <c r="I1167" s="74"/>
-      <c r="J1167" s="75"/>
-      <c r="K1167" s="75"/>
+      <c r="E1167" s="73">
+        <v>42371</v>
+      </c>
+      <c r="F1167" s="76" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G1167" s="270" t="s">
+        <v>643</v>
+      </c>
+      <c r="H1167" s="316" t="s">
+        <v>436</v>
+      </c>
+      <c r="I1167" s="74">
+        <v>450000</v>
+      </c>
+      <c r="J1167" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1167" s="75" t="s">
+        <v>203</v>
+      </c>
       <c r="L1167" s="134" t="str">
         <f>IF(AND('331-CT'!$E$7=TH!H1167,OR(J1167="331",K1167="331")),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="1168" spans="1:12">
-      <c r="A1168" s="72" t="str">
+      <c r="A1168" s="72">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="B1168" s="72" t="str">
+        <v>2016</v>
+      </c>
+      <c r="B1168" s="72">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C1168" s="73"/>
+        <v>1</v>
+      </c>
+      <c r="C1168" s="73">
+        <v>42373</v>
+      </c>
       <c r="D1168" s="73"/>
-      <c r="E1168" s="73"/>
-      <c r="F1168" s="76"/>
-      <c r="G1168" s="265"/>
-      <c r="H1168" s="122"/>
-      <c r="I1168" s="74"/>
-      <c r="J1168" s="75"/>
-      <c r="K1168" s="75"/>
+      <c r="E1168" s="73">
+        <v>42373</v>
+      </c>
+      <c r="F1168" s="76" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G1168" s="270" t="s">
+        <v>646</v>
+      </c>
+      <c r="H1168" s="316" t="s">
+        <v>436</v>
+      </c>
+      <c r="I1168" s="74">
+        <v>18000000</v>
+      </c>
+      <c r="J1168" s="75" t="s">
+        <v>655</v>
+      </c>
+      <c r="K1168" s="75" t="s">
+        <v>203</v>
+      </c>
       <c r="L1168" s="134" t="str">
         <f>IF(AND('331-CT'!$E$7=TH!H1168,OR(J1168="331",K1168="331")),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="1169" spans="1:12">
-      <c r="A1169" s="72" t="str">
+      <c r="A1169" s="72">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="B1169" s="72" t="str">
+        <v>2016</v>
+      </c>
+      <c r="B1169" s="72">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C1169" s="73"/>
+        <v>1</v>
+      </c>
+      <c r="C1169" s="73">
+        <v>42373</v>
+      </c>
       <c r="D1169" s="73"/>
-      <c r="E1169" s="73"/>
-      <c r="F1169" s="76"/>
-      <c r="G1169" s="265"/>
-      <c r="H1169" s="122"/>
-      <c r="I1169" s="74"/>
-      <c r="J1169" s="75"/>
-      <c r="K1169" s="75"/>
+      <c r="E1169" s="73">
+        <v>42373</v>
+      </c>
+      <c r="F1169" s="76" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G1169" s="270" t="s">
+        <v>646</v>
+      </c>
+      <c r="H1169" s="316" t="s">
+        <v>436</v>
+      </c>
+      <c r="I1169" s="74">
+        <v>1800000</v>
+      </c>
+      <c r="J1169" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1169" s="75" t="s">
+        <v>203</v>
+      </c>
       <c r="L1169" s="134" t="str">
         <f>IF(AND('331-CT'!$E$7=TH!H1169,OR(J1169="331",K1169="331")),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="1170" spans="1:12">
-      <c r="A1170" s="72" t="str">
+      <c r="A1170" s="72">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="B1170" s="72" t="str">
+        <v>2016</v>
+      </c>
+      <c r="B1170" s="72">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C1170" s="73"/>
+        <v>1</v>
+      </c>
+      <c r="C1170" s="73">
+        <v>42374</v>
+      </c>
       <c r="D1170" s="73"/>
-      <c r="E1170" s="73"/>
-      <c r="F1170" s="76"/>
-      <c r="G1170" s="265"/>
-      <c r="H1170" s="122"/>
-      <c r="I1170" s="74"/>
-      <c r="J1170" s="75"/>
-      <c r="K1170" s="75"/>
+      <c r="E1170" s="73">
+        <v>42374</v>
+      </c>
+      <c r="F1170" s="76" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G1170" s="270" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H1170" s="122" t="s">
+        <v>331</v>
+      </c>
+      <c r="I1170" s="74">
+        <v>1653598</v>
+      </c>
+      <c r="J1170" s="75" t="s">
+        <v>655</v>
+      </c>
+      <c r="K1170" s="75" t="s">
+        <v>203</v>
+      </c>
       <c r="L1170" s="134" t="str">
         <f>IF(AND('331-CT'!$E$7=TH!H1170,OR(J1170="331",K1170="331")),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="1171" spans="1:12">
-      <c r="A1171" s="72" t="str">
+      <c r="A1171" s="72">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="B1171" s="72" t="str">
+        <v>2016</v>
+      </c>
+      <c r="B1171" s="72">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C1171" s="73"/>
+        <v>1</v>
+      </c>
+      <c r="C1171" s="73">
+        <v>42374</v>
+      </c>
       <c r="D1171" s="73"/>
-      <c r="E1171" s="73"/>
-      <c r="F1171" s="76"/>
-      <c r="G1171" s="265"/>
-      <c r="H1171" s="122"/>
-      <c r="I1171" s="74"/>
-      <c r="J1171" s="75"/>
-      <c r="K1171" s="75"/>
+      <c r="E1171" s="73">
+        <v>42374</v>
+      </c>
+      <c r="F1171" s="76" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G1171" s="270" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H1171" s="122" t="s">
+        <v>331</v>
+      </c>
+      <c r="I1171" s="74">
+        <v>165359</v>
+      </c>
+      <c r="J1171" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1171" s="75" t="s">
+        <v>203</v>
+      </c>
       <c r="L1171" s="134" t="str">
         <f>IF(AND('331-CT'!$E$7=TH!H1171,OR(J1171="331",K1171="331")),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="1172" spans="1:12">
-      <c r="A1172" s="72" t="str">
+      <c r="A1172" s="72">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="B1172" s="72" t="str">
+        <v>2016</v>
+      </c>
+      <c r="B1172" s="72">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C1172" s="73"/>
+        <v>1</v>
+      </c>
+      <c r="C1172" s="73">
+        <v>42379</v>
+      </c>
       <c r="D1172" s="73"/>
-      <c r="E1172" s="73"/>
-      <c r="F1172" s="76"/>
-      <c r="G1172" s="265"/>
-      <c r="H1172" s="122"/>
-      <c r="I1172" s="74"/>
-      <c r="J1172" s="75"/>
-      <c r="K1172" s="75"/>
+      <c r="E1172" s="73">
+        <v>42379</v>
+      </c>
+      <c r="F1172" s="76" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G1172" s="270" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H1172" s="122" t="s">
+        <v>783</v>
+      </c>
+      <c r="I1172" s="74">
+        <v>6818182</v>
+      </c>
+      <c r="J1172" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="K1172" s="75" t="s">
+        <v>203</v>
+      </c>
       <c r="L1172" s="134" t="str">
         <f>IF(AND('331-CT'!$E$7=TH!H1172,OR(J1172="331",K1172="331")),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="1173" spans="1:12">
-      <c r="A1173" s="72" t="str">
+      <c r="A1173" s="72">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="B1173" s="72" t="str">
+        <v>2016</v>
+      </c>
+      <c r="B1173" s="72">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C1173" s="73"/>
+        <v>1</v>
+      </c>
+      <c r="C1173" s="73">
+        <v>42379</v>
+      </c>
       <c r="D1173" s="73"/>
-      <c r="E1173" s="73"/>
-      <c r="F1173" s="76"/>
-      <c r="G1173" s="265"/>
-      <c r="H1173" s="122"/>
-      <c r="I1173" s="74"/>
-      <c r="J1173" s="75"/>
-      <c r="K1173" s="75"/>
+      <c r="E1173" s="73">
+        <v>42379</v>
+      </c>
+      <c r="F1173" s="76" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G1173" s="270" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H1173" s="122" t="s">
+        <v>783</v>
+      </c>
+      <c r="I1173" s="74">
+        <v>681818</v>
+      </c>
+      <c r="J1173" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1173" s="75" t="s">
+        <v>203</v>
+      </c>
       <c r="L1173" s="134" t="str">
         <f>IF(AND('331-CT'!$E$7=TH!H1173,OR(J1173="331",K1173="331")),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="1174" spans="1:12">
-      <c r="A1174" s="72" t="str">
+      <c r="A1174" s="72">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="B1174" s="72" t="str">
+        <v>2016</v>
+      </c>
+      <c r="B1174" s="72">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C1174" s="73"/>
+        <v>1</v>
+      </c>
+      <c r="C1174" s="73">
+        <v>42380</v>
+      </c>
       <c r="D1174" s="73"/>
-      <c r="E1174" s="73"/>
-      <c r="F1174" s="76"/>
-      <c r="G1174" s="265"/>
-      <c r="H1174" s="122"/>
-      <c r="I1174" s="74"/>
-      <c r="J1174" s="75"/>
-      <c r="K1174" s="75"/>
+      <c r="E1174" s="73">
+        <v>42380</v>
+      </c>
+      <c r="F1174" s="76" t="s">
+        <v>861</v>
+      </c>
+      <c r="G1174" s="270" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H1174" s="122" t="s">
+        <v>280</v>
+      </c>
+      <c r="I1174" s="74">
+        <v>547308</v>
+      </c>
+      <c r="J1174" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="K1174" s="75" t="s">
+        <v>203</v>
+      </c>
       <c r="L1174" s="134" t="str">
         <f>IF(AND('331-CT'!$E$7=TH!H1174,OR(J1174="331",K1174="331")),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="1175" spans="1:12">
-      <c r="A1175" s="72" t="str">
+      <c r="A1175" s="72">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="B1175" s="72" t="str">
+        <v>2016</v>
+      </c>
+      <c r="B1175" s="72">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C1175" s="73"/>
+        <v>1</v>
+      </c>
+      <c r="C1175" s="73">
+        <v>42380</v>
+      </c>
       <c r="D1175" s="73"/>
-      <c r="E1175" s="73"/>
-      <c r="F1175" s="76"/>
-      <c r="G1175" s="265"/>
-      <c r="H1175" s="122"/>
-      <c r="I1175" s="74"/>
-      <c r="J1175" s="75"/>
-      <c r="K1175" s="75"/>
+      <c r="E1175" s="73">
+        <v>42380</v>
+      </c>
+      <c r="F1175" s="76" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G1175" s="270" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H1175" s="122" t="s">
+        <v>280</v>
+      </c>
+      <c r="I1175" s="74">
+        <v>54730</v>
+      </c>
+      <c r="J1175" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1175" s="75" t="s">
+        <v>203</v>
+      </c>
       <c r="L1175" s="134" t="str">
         <f>IF(AND('331-CT'!$E$7=TH!H1175,OR(J1175="331",K1175="331")),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="1176" spans="1:12">
-      <c r="A1176" s="72" t="str">
+      <c r="A1176" s="72">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="B1176" s="72" t="str">
+        <v>2016</v>
+      </c>
+      <c r="B1176" s="72">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C1176" s="73"/>
-      <c r="D1176" s="73"/>
-      <c r="E1176" s="73"/>
-      <c r="F1176" s="76"/>
-      <c r="G1176" s="265"/>
-      <c r="H1176" s="122"/>
-      <c r="I1176" s="74"/>
-      <c r="J1176" s="75"/>
-      <c r="K1176" s="75"/>
+        <v>1</v>
+      </c>
+      <c r="C1176" s="73">
+        <v>42375</v>
+      </c>
+      <c r="D1176" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1176" s="73">
+        <v>42375</v>
+      </c>
+      <c r="F1176" s="76" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G1176" s="270" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H1176" s="122" t="s">
+        <v>302</v>
+      </c>
+      <c r="I1176" s="74">
+        <v>155454545</v>
+      </c>
+      <c r="J1176" s="75" t="s">
+        <v>655</v>
+      </c>
+      <c r="K1176" s="75" t="s">
+        <v>18</v>
+      </c>
       <c r="L1176" s="134" t="str">
         <f>IF(AND('331-CT'!$E$7=TH!H1176,OR(J1176="331",K1176="331")),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="1177" spans="1:12">
-      <c r="A1177" s="72" t="str">
+      <c r="A1177" s="72">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="B1177" s="72" t="str">
+        <v>2016</v>
+      </c>
+      <c r="B1177" s="72">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C1177" s="73"/>
-      <c r="D1177" s="73"/>
-      <c r="E1177" s="73"/>
-      <c r="F1177" s="76"/>
-      <c r="G1177" s="265"/>
-      <c r="H1177" s="122"/>
-      <c r="I1177" s="74"/>
-      <c r="J1177" s="75"/>
-      <c r="K1177" s="75"/>
+        <v>1</v>
+      </c>
+      <c r="C1177" s="73">
+        <v>42375</v>
+      </c>
+      <c r="D1177" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1177" s="73">
+        <v>42375</v>
+      </c>
+      <c r="F1177" s="76" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G1177" s="270" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H1177" s="122" t="s">
+        <v>302</v>
+      </c>
+      <c r="I1177" s="74">
+        <v>15545455</v>
+      </c>
+      <c r="J1177" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1177" s="75" t="s">
+        <v>18</v>
+      </c>
       <c r="L1177" s="134" t="str">
         <f>IF(AND('331-CT'!$E$7=TH!H1177,OR(J1177="331",K1177="331")),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="1178" spans="1:12">
-      <c r="A1178" s="72" t="str">
+      <c r="A1178" s="72">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="B1178" s="72" t="str">
+        <v>2016</v>
+      </c>
+      <c r="B1178" s="72">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C1178" s="73"/>
-      <c r="D1178" s="73"/>
-      <c r="E1178" s="73"/>
-      <c r="F1178" s="76"/>
-      <c r="G1178" s="265"/>
-      <c r="H1178" s="122"/>
-      <c r="I1178" s="74"/>
-      <c r="J1178" s="75"/>
-      <c r="K1178" s="75"/>
+        <v>1</v>
+      </c>
+      <c r="C1178" s="73">
+        <v>42374</v>
+      </c>
+      <c r="D1178" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1178" s="73">
+        <v>42374</v>
+      </c>
+      <c r="F1178" s="76" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G1178" s="270" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H1178" s="122" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1178" s="74">
+        <v>809090909</v>
+      </c>
+      <c r="J1178" s="75" t="s">
+        <v>655</v>
+      </c>
+      <c r="K1178" s="75" t="s">
+        <v>18</v>
+      </c>
       <c r="L1178" s="134" t="str">
         <f>IF(AND('331-CT'!$E$7=TH!H1178,OR(J1178="331",K1178="331")),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="1179" spans="1:12">
-      <c r="A1179" s="72" t="str">
+      <c r="A1179" s="72">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="B1179" s="72" t="str">
+        <v>2016</v>
+      </c>
+      <c r="B1179" s="72">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C1179" s="73"/>
-      <c r="D1179" s="73"/>
-      <c r="E1179" s="73"/>
-      <c r="F1179" s="76"/>
-      <c r="G1179" s="265"/>
-      <c r="H1179" s="122"/>
-      <c r="I1179" s="74"/>
-      <c r="J1179" s="75"/>
-      <c r="K1179" s="75"/>
+        <v>1</v>
+      </c>
+      <c r="C1179" s="73">
+        <v>42374</v>
+      </c>
+      <c r="D1179" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1179" s="73">
+        <v>42374</v>
+      </c>
+      <c r="F1179" s="76" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G1179" s="270" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H1179" s="122" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1179" s="74">
+        <v>80909091</v>
+      </c>
+      <c r="J1179" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1179" s="75" t="s">
+        <v>18</v>
+      </c>
       <c r="L1179" s="134" t="str">
         <f>IF(AND('331-CT'!$E$7=TH!H1179,OR(J1179="331",K1179="331")),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="1180" spans="1:12">
-      <c r="A1180" s="72" t="str">
+      <c r="A1180" s="72">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="B1180" s="72" t="str">
+        <v>2016</v>
+      </c>
+      <c r="B1180" s="72">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C1180" s="73"/>
-      <c r="D1180" s="73"/>
-      <c r="E1180" s="73"/>
-      <c r="F1180" s="76"/>
-      <c r="G1180" s="265"/>
-      <c r="H1180" s="122"/>
-      <c r="I1180" s="74"/>
-      <c r="J1180" s="75"/>
-      <c r="K1180" s="75"/>
+        <v>1</v>
+      </c>
+      <c r="C1180" s="73">
+        <v>42381</v>
+      </c>
+      <c r="D1180" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1180" s="73">
+        <v>42381</v>
+      </c>
+      <c r="F1180" s="76" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G1180" s="270" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H1180" s="122" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1180" s="74">
+        <v>358272727</v>
+      </c>
+      <c r="J1180" s="75" t="s">
+        <v>655</v>
+      </c>
+      <c r="K1180" s="75" t="s">
+        <v>18</v>
+      </c>
       <c r="L1180" s="134" t="str">
         <f>IF(AND('331-CT'!$E$7=TH!H1180,OR(J1180="331",K1180="331")),"x","")</f>
         <v/>
       </c>
     </row>
     <row r="1181" spans="1:12">
-      <c r="A1181" s="72" t="str">
+      <c r="A1181" s="72">
         <f t="shared" ref="A1181:A1209" si="49">IF(C1181&lt;&gt;"",YEAR(C1181),"")</f>
-        <v/>
-      </c>
-      <c r="B1181" s="72" t="str">
+        <v>2016</v>
+      </c>
+      <c r="B1181" s="72">
         <f t="shared" ref="B1181:B1209" si="50">IF(C1181&lt;&gt;"",MONTH(C1181),"")</f>
-        <v/>
-      </c>
-      <c r="C1181" s="73"/>
-      <c r="D1181" s="73"/>
-      <c r="E1181" s="73"/>
-      <c r="F1181" s="76"/>
-      <c r="G1181" s="265"/>
-      <c r="H1181" s="122"/>
-      <c r="I1181" s="74"/>
-      <c r="J1181" s="75"/>
-      <c r="K1181" s="75"/>
+        <v>1</v>
+      </c>
+      <c r="C1181" s="73">
+        <v>42381</v>
+      </c>
+      <c r="D1181" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1181" s="73">
+        <v>42381</v>
+      </c>
+      <c r="F1181" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G1181" s="270" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H1181" s="122" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1181" s="74">
+        <v>35827273</v>
+      </c>
+      <c r="J1181" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1181" s="75" t="s">
+        <v>18</v>
+      </c>
       <c r="L1181" s="134" t="str">
         <f>IF(AND('331-CT'!$E$7=TH!H1181,OR(J1181="331",K1181="331")),"x","")</f>
         <v/>
@@ -52966,7 +53313,10 @@
       </c>
       <c r="C1182" s="73"/>
       <c r="D1182" s="73"/>
-      <c r="E1182" s="73"/>
+      <c r="E1182" s="73">
+        <f t="shared" ref="E1167:E1183" si="51">C1182</f>
+        <v>0</v>
+      </c>
       <c r="F1182" s="76"/>
       <c r="G1182" s="265"/>
       <c r="H1182" s="122"/>
@@ -52989,7 +53339,10 @@
       </c>
       <c r="C1183" s="73"/>
       <c r="D1183" s="73"/>
-      <c r="E1183" s="73"/>
+      <c r="E1183" s="73">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
       <c r="F1183" s="76"/>
       <c r="G1183" s="265"/>
       <c r="H1183" s="122"/>
@@ -53625,11 +53978,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
+      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1"/>
@@ -54091,86 +54444,86 @@
       <c r="A1" s="392"/>
     </row>
     <row r="2" spans="1:15" s="392" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A2" s="434" t="s">
+      <c r="A2" s="436" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="435" t="s">
+      <c r="B2" s="437" t="s">
         <v>668</v>
       </c>
-      <c r="C2" s="435" t="s">
+      <c r="C2" s="437" t="s">
         <v>669</v>
       </c>
-      <c r="D2" s="435" t="s">
+      <c r="D2" s="437" t="s">
         <v>670</v>
       </c>
-      <c r="E2" s="438" t="s">
+      <c r="E2" s="440" t="s">
         <v>876</v>
       </c>
-      <c r="F2" s="440"/>
-      <c r="G2" s="440"/>
-      <c r="H2" s="440"/>
-      <c r="I2" s="439"/>
-      <c r="J2" s="434" t="s">
+      <c r="F2" s="442"/>
+      <c r="G2" s="442"/>
+      <c r="H2" s="442"/>
+      <c r="I2" s="441"/>
+      <c r="J2" s="436" t="s">
         <v>877</v>
       </c>
-      <c r="K2" s="434"/>
-      <c r="L2" s="434"/>
-      <c r="M2" s="434"/>
-      <c r="N2" s="435" t="s">
+      <c r="K2" s="436"/>
+      <c r="L2" s="436"/>
+      <c r="M2" s="436"/>
+      <c r="N2" s="437" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A3" s="434"/>
-      <c r="B3" s="437"/>
-      <c r="C3" s="437"/>
-      <c r="D3" s="437"/>
-      <c r="E3" s="435" t="s">
+      <c r="A3" s="436"/>
+      <c r="B3" s="439"/>
+      <c r="C3" s="439"/>
+      <c r="D3" s="439"/>
+      <c r="E3" s="437" t="s">
         <v>671</v>
       </c>
-      <c r="F3" s="438" t="s">
+      <c r="F3" s="440" t="s">
         <v>672</v>
       </c>
-      <c r="G3" s="439"/>
-      <c r="H3" s="435" t="s">
+      <c r="G3" s="441"/>
+      <c r="H3" s="437" t="s">
         <v>673</v>
       </c>
-      <c r="I3" s="435" t="s">
+      <c r="I3" s="437" t="s">
         <v>1056</v>
       </c>
-      <c r="J3" s="437" t="s">
+      <c r="J3" s="439" t="s">
         <v>671</v>
       </c>
-      <c r="K3" s="437" t="s">
+      <c r="K3" s="439" t="s">
         <v>673</v>
       </c>
-      <c r="L3" s="437" t="s">
+      <c r="L3" s="439" t="s">
         <v>1056</v>
       </c>
-      <c r="M3" s="437" t="s">
+      <c r="M3" s="439" t="s">
         <v>1064</v>
       </c>
-      <c r="N3" s="437"/>
+      <c r="N3" s="439"/>
     </row>
     <row r="4" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A4" s="434"/>
-      <c r="B4" s="436"/>
-      <c r="C4" s="436"/>
-      <c r="D4" s="436"/>
-      <c r="E4" s="436"/>
+      <c r="A4" s="436"/>
+      <c r="B4" s="438"/>
+      <c r="C4" s="438"/>
+      <c r="D4" s="438"/>
+      <c r="E4" s="438"/>
       <c r="F4" s="395" t="s">
         <v>882</v>
       </c>
       <c r="G4" s="395" t="s">
         <v>883</v>
       </c>
-      <c r="H4" s="436"/>
-      <c r="I4" s="436"/>
-      <c r="J4" s="436"/>
-      <c r="K4" s="436"/>
-      <c r="L4" s="436"/>
-      <c r="M4" s="436"/>
-      <c r="N4" s="436"/>
+      <c r="H4" s="438"/>
+      <c r="I4" s="438"/>
+      <c r="J4" s="438"/>
+      <c r="K4" s="438"/>
+      <c r="L4" s="438"/>
+      <c r="M4" s="438"/>
+      <c r="N4" s="438"/>
     </row>
     <row r="5" spans="1:15" ht="40.5" customHeight="1">
       <c r="A5" s="408">
@@ -54184,7 +54537,7 @@
       <c r="D5" s="397"/>
       <c r="E5" s="398"/>
       <c r="F5" s="398">
-        <f t="shared" ref="F5:F36" si="0">SUMIFS(TH,KHN,"2412",KHC,"331",KH,C5)</f>
+        <f t="shared" ref="F5:F35" si="0">SUMIFS(TH,KHN,"2412",KHC,"331",KH,C5)</f>
         <v>0</v>
       </c>
       <c r="G5" s="398">
@@ -54220,7 +54573,7 @@
     </row>
     <row r="6" spans="1:15" ht="40.5" customHeight="1">
       <c r="A6" s="408">
-        <f t="shared" ref="A6:A38" si="1">ROW()-4</f>
+        <f t="shared" ref="A6:A37" si="1">ROW()-4</f>
         <v>2</v>
       </c>
       <c r="B6" s="396" t="s">
@@ -54248,7 +54601,7 @@
         <v>80000000</v>
       </c>
       <c r="I6" s="398">
-        <f t="shared" ref="I6:I36" si="2">G6-H6</f>
+        <f t="shared" ref="I6:I35" si="2">G6-H6</f>
         <v>0</v>
       </c>
       <c r="J6" s="398">
@@ -54260,12 +54613,12 @@
         <v>80000000</v>
       </c>
       <c r="L6" s="398">
-        <f t="shared" ref="L6:L36" si="5">J6-K6</f>
+        <f t="shared" ref="L6:L35" si="5">J6-K6</f>
         <v>0</v>
       </c>
       <c r="M6" s="398"/>
       <c r="N6" s="398">
-        <f t="shared" ref="N6:N38" si="6">IF(E6&gt;F6,E6,F6)</f>
+        <f t="shared" ref="N6:N37" si="6">IF(E6&gt;F6,E6,F6)</f>
         <v>80000000</v>
       </c>
       <c r="O6" s="399"/>
@@ -54948,11 +55301,11 @@
       </c>
       <c r="F20" s="398">
         <f t="shared" si="0"/>
-        <v>362727273</v>
+        <v>518181818</v>
       </c>
       <c r="G20" s="398">
         <f t="array" ref="G20">SUM(IF("331"&amp;C20=KHC&amp;KH,TH))</f>
-        <v>399000000</v>
+        <v>570000000</v>
       </c>
       <c r="H20" s="398">
         <f t="array" ref="H20">SUM(IF("331"&amp;C20=KHN&amp;KH,TH))</f>
@@ -54960,7 +55313,7 @@
       </c>
       <c r="I20" s="398">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>171000000</v>
       </c>
       <c r="J20" s="398">
         <f t="shared" si="3"/>
@@ -55326,15 +55679,16 @@
         <v>0</v>
       </c>
       <c r="J27" s="398">
-        <v>535150000</v>
+        <f>485650000+49500000+15000000-5200000</f>
+        <v>544950000</v>
       </c>
       <c r="K27" s="398">
-        <f>'TH - TT'!I176</f>
-        <v>700150000</v>
+        <f>'TH - TT'!$I$176</f>
+        <v>544950000</v>
       </c>
       <c r="L27" s="398">
-        <f t="shared" si="5"/>
-        <v>-165000000</v>
+        <f>J27-K27</f>
+        <v>0</v>
       </c>
       <c r="M27" s="398"/>
       <c r="N27" s="398">
@@ -55362,11 +55716,11 @@
       </c>
       <c r="F28" s="398">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>358272727</v>
       </c>
       <c r="G28" s="398">
         <f t="array" ref="G28">SUM(IF("331"&amp;C28=KHC&amp;KH,TH))</f>
-        <v>0</v>
+        <v>394100000</v>
       </c>
       <c r="H28" s="398">
         <f t="array" ref="H28">SUM(IF("331"&amp;C28=KHN&amp;KH,TH))</f>
@@ -55374,13 +55728,13 @@
       </c>
       <c r="I28" s="398">
         <f t="shared" si="2"/>
-        <v>-100000000</v>
+        <v>294100000</v>
       </c>
       <c r="J28" s="398">
         <v>298500000</v>
       </c>
       <c r="K28" s="398">
-        <f>'TH - TT'!I180</f>
+        <f>'TH - TT'!I182</f>
         <v>100000000</v>
       </c>
       <c r="L28" s="398">
@@ -55414,11 +55768,11 @@
       </c>
       <c r="F29" s="398">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>809090909</v>
       </c>
       <c r="G29" s="398">
         <f t="array" ref="G29">SUM(IF("331"&amp;C29=KHC&amp;KH,TH))</f>
-        <v>0</v>
+        <v>890000000</v>
       </c>
       <c r="H29" s="398">
         <f t="array" ref="H29">SUM(IF("331"&amp;C29=KHN&amp;KH,TH))</f>
@@ -55426,13 +55780,13 @@
       </c>
       <c r="I29" s="398">
         <f t="shared" si="2"/>
-        <v>-1250000000</v>
+        <v>-360000000</v>
       </c>
       <c r="J29" s="398">
         <v>1201326457</v>
       </c>
       <c r="K29" s="398">
-        <f>'TH - TT'!I193</f>
+        <f>'TH - TT'!I195</f>
         <v>950000000</v>
       </c>
       <c r="L29" s="398">
@@ -55480,11 +55834,11 @@
         <v>37981566</v>
       </c>
       <c r="J30" s="398">
-        <f>'TH - TT'!H205</f>
+        <f>'TH - TT'!H207</f>
         <v>1111107013</v>
       </c>
       <c r="K30" s="398">
-        <f>'TH - TT'!I205</f>
+        <f>'TH - TT'!I207</f>
         <v>1073128513</v>
       </c>
       <c r="L30" s="398">
@@ -55535,7 +55889,7 @@
         <v>868450000</v>
       </c>
       <c r="K31" s="398">
-        <f>'TH - TT'!I215</f>
+        <f>'TH - TT'!I217</f>
         <v>800000000</v>
       </c>
       <c r="L31" s="398">
@@ -55586,7 +55940,7 @@
         <v>314116216</v>
       </c>
       <c r="K32" s="398">
-        <f>'TH - TT'!I226</f>
+        <f>'TH - TT'!I228</f>
         <v>310000000</v>
       </c>
       <c r="L32" s="398">
@@ -55607,46 +55961,44 @@
       </c>
       <c r="B33" s="400"/>
       <c r="C33" s="401" t="s">
-        <v>1113</v>
+        <v>602</v>
       </c>
       <c r="D33" s="401" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E33" s="402">
-        <v>8137000</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="E33" s="402"/>
       <c r="F33" s="398">
-        <f t="shared" ref="F33" si="7">SUMIFS(TH,KHN,"2412",KHC,"331",KH,C33)</f>
-        <v>7397273</v>
+        <f t="shared" si="0"/>
+        <v>68181818</v>
       </c>
       <c r="G33" s="398">
         <f t="array" ref="G33">SUM(IF("331"&amp;C33=KHC&amp;KH,TH))</f>
-        <v>8137000</v>
+        <v>75000000</v>
       </c>
       <c r="H33" s="398">
         <f t="array" ref="H33">SUM(IF("331"&amp;C33=KHN&amp;KH,TH))</f>
-        <v>0</v>
+        <v>75000000</v>
       </c>
       <c r="I33" s="398">
-        <f t="shared" ref="I33" si="8">G33-H33</f>
-        <v>8137000</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J33" s="398">
-        <f t="shared" ref="J33" si="9">IF(E33&gt;G33,E33,G33)</f>
-        <v>8137000</v>
+        <f t="shared" ref="J33:J35" si="7">IF(E33&gt;G33,E33,G33)</f>
+        <v>75000000</v>
       </c>
       <c r="K33" s="398">
         <f>H33</f>
-        <v>0</v>
+        <v>75000000</v>
       </c>
       <c r="L33" s="398">
-        <f t="shared" ref="L33" si="10">J33-K33</f>
-        <v>8137000</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="M33" s="398"/>
       <c r="N33" s="398">
-        <f t="shared" ref="N33" si="11">IF(E33&gt;F33,E33,F33)</f>
-        <v>8137000</v>
+        <f t="shared" si="6"/>
+        <v>68181818</v>
       </c>
       <c r="O33" s="399"/>
     </row>
@@ -55657,35 +56009,35 @@
       </c>
       <c r="B34" s="400"/>
       <c r="C34" s="401" t="s">
-        <v>602</v>
+        <v>632</v>
       </c>
       <c r="D34" s="401" t="s">
-        <v>599</v>
+        <v>878</v>
       </c>
       <c r="E34" s="402"/>
       <c r="F34" s="398">
         <f t="shared" si="0"/>
-        <v>68181818</v>
+        <v>20382000</v>
       </c>
       <c r="G34" s="398">
         <f t="array" ref="G34">SUM(IF("331"&amp;C34=KHC&amp;KH,TH))</f>
-        <v>75000000</v>
+        <v>20382000</v>
       </c>
       <c r="H34" s="398">
         <f t="array" ref="H34">SUM(IF("331"&amp;C34=KHN&amp;KH,TH))</f>
-        <v>75000000</v>
+        <v>20382000</v>
       </c>
       <c r="I34" s="398">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J34" s="398">
-        <f t="shared" ref="J34:J36" si="12">IF(E34&gt;G34,E34,G34)</f>
-        <v>75000000</v>
+        <f t="shared" si="7"/>
+        <v>20382000</v>
       </c>
       <c r="K34" s="398">
-        <f>H34</f>
-        <v>75000000</v>
+        <f t="shared" ref="K34:K35" si="8">H34</f>
+        <v>20382000</v>
       </c>
       <c r="L34" s="398">
         <f t="shared" si="5"/>
@@ -55694,7 +56046,7 @@
       <c r="M34" s="398"/>
       <c r="N34" s="398">
         <f t="shared" si="6"/>
-        <v>68181818</v>
+        <v>20382000</v>
       </c>
       <c r="O34" s="399"/>
     </row>
@@ -55705,35 +56057,35 @@
       </c>
       <c r="B35" s="400"/>
       <c r="C35" s="401" t="s">
-        <v>632</v>
+        <v>791</v>
       </c>
       <c r="D35" s="401" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E35" s="402"/>
       <c r="F35" s="398">
         <f t="shared" si="0"/>
-        <v>20382000</v>
+        <v>15221000</v>
       </c>
       <c r="G35" s="398">
         <f t="array" ref="G35">SUM(IF("331"&amp;C35=KHC&amp;KH,TH))</f>
-        <v>20382000</v>
+        <v>16743100</v>
       </c>
       <c r="H35" s="398">
         <f t="array" ref="H35">SUM(IF("331"&amp;C35=KHN&amp;KH,TH))</f>
-        <v>20382000</v>
+        <v>16743100</v>
       </c>
       <c r="I35" s="398">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J35" s="398">
-        <f t="shared" si="12"/>
-        <v>20382000</v>
+        <f t="shared" si="7"/>
+        <v>16743100</v>
       </c>
       <c r="K35" s="398">
-        <f t="shared" ref="K35:K36" si="13">H35</f>
-        <v>20382000</v>
+        <f t="shared" si="8"/>
+        <v>16743100</v>
       </c>
       <c r="L35" s="398">
         <f t="shared" si="5"/>
@@ -55742,7 +56094,7 @@
       <c r="M35" s="398"/>
       <c r="N35" s="398">
         <f t="shared" si="6"/>
-        <v>20382000</v>
+        <v>15221000</v>
       </c>
       <c r="O35" s="399"/>
     </row>
@@ -55751,46 +56103,38 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B36" s="400"/>
+      <c r="B36" s="404"/>
       <c r="C36" s="401" t="s">
-        <v>791</v>
-      </c>
-      <c r="D36" s="401" t="s">
-        <v>879</v>
-      </c>
+        <v>881</v>
+      </c>
+      <c r="D36" s="401"/>
       <c r="E36" s="402"/>
       <c r="F36" s="398">
-        <f t="shared" si="0"/>
-        <v>15221000</v>
+        <f>SUMIFS(TH,KHN,"2412",KHC,"1111")</f>
+        <v>958204771</v>
       </c>
       <c r="G36" s="398">
-        <f t="array" ref="G36">SUM(IF("331"&amp;C36=KHC&amp;KH,TH))</f>
-        <v>16743100</v>
+        <f>SUMIFS(TH,KHN,"2412",KHC,"1111")</f>
+        <v>958204771</v>
       </c>
       <c r="H36" s="398">
-        <f t="array" ref="H36">SUM(IF("331"&amp;C36=KHN&amp;KH,TH))</f>
-        <v>16743100</v>
-      </c>
-      <c r="I36" s="398">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <f>$G$36</f>
+        <v>958204771</v>
+      </c>
+      <c r="I36" s="398"/>
       <c r="J36" s="398">
-        <f t="shared" si="12"/>
-        <v>16743100</v>
+        <f t="shared" ref="J36:K36" si="9">$G$36</f>
+        <v>958204771</v>
       </c>
       <c r="K36" s="398">
-        <f t="shared" si="13"/>
-        <v>16743100</v>
-      </c>
-      <c r="L36" s="398">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>958204771</v>
+      </c>
+      <c r="L36" s="398"/>
       <c r="M36" s="398"/>
       <c r="N36" s="398">
         <f t="shared" si="6"/>
-        <v>15221000</v>
+        <v>958204771</v>
       </c>
       <c r="O36" s="399"/>
     </row>
@@ -55799,161 +56143,121 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B37" s="404"/>
+      <c r="B37" s="404" t="s">
+        <v>240</v>
+      </c>
       <c r="C37" s="401" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D37" s="401"/>
       <c r="E37" s="402"/>
       <c r="F37" s="398">
-        <f>SUMIFS(TH,KHN,"2412",KHC,"1111")</f>
-        <v>925653900</v>
+        <f t="array" ref="F37">SUM(IF(B37=KHN,TH))</f>
+        <v>1532829404</v>
       </c>
       <c r="G37" s="398">
-        <f>SUMIFS(TH,KHN,"2412",KHC,"1111")</f>
-        <v>925653900</v>
+        <f t="array" ref="G37">SUM(IF(B37=KHN,TH))</f>
+        <v>1532829404</v>
       </c>
       <c r="H37" s="398">
         <f>$G$37</f>
-        <v>925653900</v>
+        <v>1532829404</v>
       </c>
       <c r="I37" s="398"/>
       <c r="J37" s="398">
-        <f t="shared" ref="J37:K37" si="14">$G$37</f>
-        <v>925653900</v>
+        <f t="shared" ref="J37:K37" si="10">$G$37</f>
+        <v>1532829404</v>
       </c>
       <c r="K37" s="398">
-        <f t="shared" si="14"/>
-        <v>925653900</v>
+        <f t="shared" si="10"/>
+        <v>1532829404</v>
       </c>
       <c r="L37" s="398"/>
       <c r="M37" s="398"/>
       <c r="N37" s="398">
         <f t="shared" si="6"/>
-        <v>925653900</v>
+        <v>1532829404</v>
       </c>
       <c r="O37" s="399"/>
     </row>
-    <row r="38" spans="1:15" ht="40.5" customHeight="1">
-      <c r="A38" s="396">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B38" s="404" t="s">
-        <v>240</v>
-      </c>
-      <c r="C38" s="401" t="s">
-        <v>880</v>
-      </c>
+    <row r="38" spans="1:15" ht="30" customHeight="1">
+      <c r="A38" s="405"/>
+      <c r="B38" s="400"/>
+      <c r="C38" s="401"/>
       <c r="D38" s="401"/>
       <c r="E38" s="402"/>
-      <c r="F38" s="398">
-        <f t="array" ref="F38">SUM(IF(B38=KHN,TH))</f>
-        <v>1532829404</v>
-      </c>
-      <c r="G38" s="398">
-        <f t="array" ref="G38">SUM(IF(B38=KHN,TH))</f>
-        <v>1532829404</v>
-      </c>
-      <c r="H38" s="398">
-        <f>$G$38</f>
-        <v>1532829404</v>
-      </c>
+      <c r="F38" s="402"/>
+      <c r="G38" s="402"/>
+      <c r="H38" s="398"/>
       <c r="I38" s="398"/>
-      <c r="J38" s="398">
-        <f t="shared" ref="J38:K38" si="15">$G$38</f>
-        <v>1532829404</v>
-      </c>
-      <c r="K38" s="398">
-        <f t="shared" si="15"/>
-        <v>1532829404</v>
-      </c>
+      <c r="J38" s="398"/>
+      <c r="K38" s="398"/>
       <c r="L38" s="398"/>
       <c r="M38" s="398"/>
-      <c r="N38" s="398">
-        <f t="shared" si="6"/>
-        <v>1532829404</v>
-      </c>
-      <c r="O38" s="399"/>
+      <c r="N38" s="398"/>
     </row>
     <row r="39" spans="1:15" ht="30" customHeight="1">
-      <c r="A39" s="405"/>
-      <c r="B39" s="400"/>
-      <c r="C39" s="401"/>
-      <c r="D39" s="401"/>
-      <c r="E39" s="402"/>
-      <c r="F39" s="402"/>
-      <c r="G39" s="402"/>
-      <c r="H39" s="398"/>
-      <c r="I39" s="398"/>
-      <c r="J39" s="398"/>
-      <c r="K39" s="398"/>
-      <c r="L39" s="398"/>
-      <c r="M39" s="398"/>
-      <c r="N39" s="398"/>
+      <c r="A39" s="436" t="s">
+        <v>710</v>
+      </c>
+      <c r="B39" s="436"/>
+      <c r="C39" s="436"/>
+      <c r="D39" s="436"/>
+      <c r="E39" s="406">
+        <f t="shared" ref="E39:L39" si="11">SUM(E5:E38)</f>
+        <v>33645680423</v>
+      </c>
+      <c r="F39" s="406">
+        <f t="shared" si="11"/>
+        <v>23946959081</v>
+      </c>
+      <c r="G39" s="406">
+        <f t="shared" si="11"/>
+        <v>26287197634</v>
+      </c>
+      <c r="H39" s="406">
+        <f t="shared" si="11"/>
+        <v>29757084398</v>
+      </c>
+      <c r="I39" s="406">
+        <f t="shared" si="11"/>
+        <v>-3469886764</v>
+      </c>
+      <c r="J39" s="406">
+        <f t="shared" si="11"/>
+        <v>32367074611</v>
+      </c>
+      <c r="K39" s="406">
+        <f t="shared" si="11"/>
+        <v>26422689398</v>
+      </c>
+      <c r="L39" s="406">
+        <f t="shared" si="11"/>
+        <v>5944385213</v>
+      </c>
+      <c r="M39" s="406"/>
+      <c r="N39" s="406">
+        <f>SUM(N5:N38)</f>
+        <v>36636758091</v>
+      </c>
     </row>
     <row r="40" spans="1:15" ht="30" customHeight="1">
-      <c r="A40" s="434" t="s">
-        <v>710</v>
-      </c>
-      <c r="B40" s="434"/>
-      <c r="C40" s="434"/>
-      <c r="D40" s="434"/>
-      <c r="E40" s="406">
-        <f t="shared" ref="E40:L40" si="16">SUM(E5:E39)</f>
-        <v>33653817423</v>
-      </c>
-      <c r="F40" s="406">
-        <f t="shared" si="16"/>
-        <v>22598987302</v>
-      </c>
-      <c r="G40" s="406">
-        <f t="shared" si="16"/>
-        <v>24807683763</v>
-      </c>
-      <c r="H40" s="406">
-        <f t="shared" si="16"/>
-        <v>29724533527</v>
-      </c>
-      <c r="I40" s="406">
-        <f t="shared" si="16"/>
-        <v>-4916849764</v>
-      </c>
-      <c r="J40" s="406">
-        <f t="shared" si="16"/>
-        <v>32332860740</v>
-      </c>
-      <c r="K40" s="406">
-        <f t="shared" si="16"/>
-        <v>26545338527</v>
-      </c>
-      <c r="L40" s="406">
-        <f t="shared" si="16"/>
-        <v>5787522213</v>
-      </c>
-      <c r="M40" s="406"/>
-      <c r="N40" s="406">
-        <f>SUM(N5:N39)</f>
-        <v>36612344220</v>
-      </c>
+      <c r="F40" s="407">
+        <f>CDPS!$E$18</f>
+        <v>23946959081</v>
+      </c>
+      <c r="G40" s="407"/>
     </row>
     <row r="41" spans="1:15" ht="30" customHeight="1">
-      <c r="F41" s="407">
-        <f>CDPS!$E$18</f>
-        <v>22598987302</v>
-      </c>
-      <c r="G41" s="407"/>
-    </row>
-    <row r="42" spans="1:15" ht="30" customHeight="1">
-      <c r="F42" s="399">
-        <f>F40-F41</f>
-        <v>0</v>
-      </c>
-      <c r="G42" s="399"/>
+      <c r="F41" s="399">
+        <f>F39-F40</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="399"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A39:D39"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="H3:H4"/>
@@ -56010,13 +56314,13 @@
   <sheetPr>
     <tabColor indexed="55"/>
   </sheetPr>
-  <dimension ref="A1:M243"/>
+  <dimension ref="A1:M245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I168" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H153" sqref="H153:H154"/>
+      <selection pane="bottomRight" activeCell="H176" sqref="H176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -56036,57 +56340,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="144" customFormat="1" ht="20.25">
-      <c r="A1" s="472" t="str">
+      <c r="A1" s="474" t="str">
         <f ca="1">"CHI PHÍ XÂY DỰNG TRÀ VINH   " &amp; TEXT(NOW(),"dd/MM/yyyy")</f>
-        <v>CHI PHÍ XÂY DỰNG TRÀ VINH   09/01/2016</v>
-      </c>
-      <c r="B1" s="472"/>
-      <c r="C1" s="472"/>
-      <c r="D1" s="472"/>
-      <c r="E1" s="472"/>
-      <c r="F1" s="472"/>
-      <c r="G1" s="472"/>
-      <c r="H1" s="472"/>
-      <c r="I1" s="472"/>
-      <c r="J1" s="472"/>
-      <c r="K1" s="472"/>
+        <v>CHI PHÍ XÂY DỰNG TRÀ VINH   12/01/2016</v>
+      </c>
+      <c r="B1" s="474"/>
+      <c r="C1" s="474"/>
+      <c r="D1" s="474"/>
+      <c r="E1" s="474"/>
+      <c r="F1" s="474"/>
+      <c r="G1" s="474"/>
+      <c r="H1" s="474"/>
+      <c r="I1" s="474"/>
+      <c r="J1" s="474"/>
+      <c r="K1" s="474"/>
       <c r="L1" s="305"/>
     </row>
     <row r="3" spans="1:12" s="145" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="473" t="s">
+      <c r="A3" s="475" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="473" t="s">
+      <c r="B3" s="475" t="s">
         <v>360</v>
       </c>
-      <c r="C3" s="473" t="s">
+      <c r="C3" s="475" t="s">
         <v>361</v>
       </c>
-      <c r="D3" s="473" t="s">
+      <c r="D3" s="475" t="s">
         <v>362</v>
       </c>
-      <c r="E3" s="474" t="s">
+      <c r="E3" s="476" t="s">
         <v>363</v>
       </c>
-      <c r="F3" s="475"/>
-      <c r="G3" s="476"/>
-      <c r="H3" s="474" t="s">
+      <c r="F3" s="477"/>
+      <c r="G3" s="478"/>
+      <c r="H3" s="476" t="s">
         <v>364</v>
       </c>
-      <c r="I3" s="476"/>
-      <c r="J3" s="477" t="s">
+      <c r="I3" s="478"/>
+      <c r="J3" s="479" t="s">
         <v>365</v>
       </c>
-      <c r="K3" s="473" t="s">
+      <c r="K3" s="475" t="s">
         <v>366</v>
       </c>
       <c r="L3" s="199"/>
     </row>
     <row r="4" spans="1:12" s="148" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="473"/>
-      <c r="B4" s="473"/>
-      <c r="C4" s="473"/>
-      <c r="D4" s="473"/>
+      <c r="A4" s="475"/>
+      <c r="B4" s="475"/>
+      <c r="C4" s="475"/>
+      <c r="D4" s="475"/>
       <c r="E4" s="147" t="s">
         <v>430</v>
       </c>
@@ -56102,15 +56406,15 @@
       <c r="I4" s="147" t="s">
         <v>368</v>
       </c>
-      <c r="J4" s="478"/>
-      <c r="K4" s="473"/>
+      <c r="J4" s="480"/>
+      <c r="K4" s="475"/>
       <c r="L4" s="306"/>
     </row>
     <row r="5" spans="1:12" s="148" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="455">
+      <c r="A5" s="458">
         <v>1</v>
       </c>
-      <c r="B5" s="456" t="s">
+      <c r="B5" s="455" t="s">
         <v>83</v>
       </c>
       <c r="C5" s="149" t="s">
@@ -56127,8 +56431,8 @@
       <c r="L5" s="306"/>
     </row>
     <row r="6" spans="1:12" s="148" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A6" s="455"/>
-      <c r="B6" s="457"/>
+      <c r="A6" s="458"/>
+      <c r="B6" s="456"/>
       <c r="C6" s="149" t="s">
         <v>370</v>
       </c>
@@ -56154,8 +56458,8 @@
       <c r="L6" s="306"/>
     </row>
     <row r="7" spans="1:12" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A7" s="455"/>
-      <c r="B7" s="457"/>
+      <c r="A7" s="458"/>
+      <c r="B7" s="456"/>
       <c r="C7" s="149" t="s">
         <v>372</v>
       </c>
@@ -56186,8 +56490,8 @@
       <c r="L7" s="307"/>
     </row>
     <row r="8" spans="1:12" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A8" s="455"/>
-      <c r="B8" s="457"/>
+      <c r="A8" s="458"/>
+      <c r="B8" s="456"/>
       <c r="C8" s="149" t="s">
         <v>374</v>
       </c>
@@ -56218,8 +56522,8 @@
       <c r="L8" s="307"/>
     </row>
     <row r="9" spans="1:12" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="455"/>
-      <c r="B9" s="457"/>
+      <c r="A9" s="458"/>
+      <c r="B9" s="456"/>
       <c r="C9" s="149" t="s">
         <v>375</v>
       </c>
@@ -56244,8 +56548,8 @@
       <c r="L9" s="307"/>
     </row>
     <row r="10" spans="1:12" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A10" s="455"/>
-      <c r="B10" s="457"/>
+      <c r="A10" s="458"/>
+      <c r="B10" s="456"/>
       <c r="C10" s="149" t="s">
         <v>376</v>
       </c>
@@ -56276,8 +56580,8 @@
       <c r="L10" s="307"/>
     </row>
     <row r="11" spans="1:12" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A11" s="455"/>
-      <c r="B11" s="457"/>
+      <c r="A11" s="458"/>
+      <c r="B11" s="456"/>
       <c r="C11" s="149" t="s">
         <v>377</v>
       </c>
@@ -56308,8 +56612,8 @@
       <c r="L11" s="307"/>
     </row>
     <row r="12" spans="1:12" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A12" s="455"/>
-      <c r="B12" s="457"/>
+      <c r="A12" s="458"/>
+      <c r="B12" s="456"/>
       <c r="C12" s="149" t="s">
         <v>378</v>
       </c>
@@ -56340,8 +56644,8 @@
       <c r="L12" s="307"/>
     </row>
     <row r="13" spans="1:12" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A13" s="455"/>
-      <c r="B13" s="457"/>
+      <c r="A13" s="458"/>
+      <c r="B13" s="456"/>
       <c r="C13" s="149" t="s">
         <v>379</v>
       </c>
@@ -56372,8 +56676,8 @@
       <c r="L13" s="307"/>
     </row>
     <row r="14" spans="1:12" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A14" s="455"/>
-      <c r="B14" s="457"/>
+      <c r="A14" s="458"/>
+      <c r="B14" s="456"/>
       <c r="C14" s="154"/>
       <c r="D14" s="155"/>
       <c r="E14" s="156"/>
@@ -56386,8 +56690,8 @@
       <c r="L14" s="307"/>
     </row>
     <row r="15" spans="1:12" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="455"/>
-      <c r="B15" s="457"/>
+      <c r="A15" s="458"/>
+      <c r="B15" s="456"/>
       <c r="C15" s="154"/>
       <c r="D15" s="155"/>
       <c r="E15" s="156"/>
@@ -56400,8 +56704,8 @@
       <c r="L15" s="307"/>
     </row>
     <row r="16" spans="1:12" s="161" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A16" s="455"/>
-      <c r="B16" s="457"/>
+      <c r="A16" s="458"/>
+      <c r="B16" s="456"/>
       <c r="C16" s="451" t="s">
         <v>94</v>
       </c>
@@ -56433,8 +56737,8 @@
       <c r="L16" s="304"/>
     </row>
     <row r="17" spans="1:12" s="161" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A17" s="455"/>
-      <c r="B17" s="458"/>
+      <c r="A17" s="458"/>
+      <c r="B17" s="457"/>
       <c r="C17" s="451" t="s">
         <v>380</v>
       </c>
@@ -56455,10 +56759,10 @@
       <c r="L17" s="304"/>
     </row>
     <row r="18" spans="1:12" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A18" s="455">
+      <c r="A18" s="458">
         <v>2</v>
       </c>
-      <c r="B18" s="455" t="s">
+      <c r="B18" s="458" t="s">
         <v>108</v>
       </c>
       <c r="C18" s="152" t="s">
@@ -56491,8 +56795,8 @@
       <c r="L18" s="307"/>
     </row>
     <row r="19" spans="1:12" s="161" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A19" s="455"/>
-      <c r="B19" s="455"/>
+      <c r="A19" s="458"/>
+      <c r="B19" s="458"/>
       <c r="C19" s="451" t="s">
         <v>94</v>
       </c>
@@ -56524,8 +56828,8 @@
       <c r="L19" s="304"/>
     </row>
     <row r="20" spans="1:12" s="161" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A20" s="455"/>
-      <c r="B20" s="455"/>
+      <c r="A20" s="458"/>
+      <c r="B20" s="458"/>
       <c r="C20" s="451" t="s">
         <v>380</v>
       </c>
@@ -56546,10 +56850,10 @@
       <c r="L20" s="304"/>
     </row>
     <row r="21" spans="1:12" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A21" s="455">
+      <c r="A21" s="458">
         <v>3</v>
       </c>
-      <c r="B21" s="455" t="s">
+      <c r="B21" s="458" t="s">
         <v>383</v>
       </c>
       <c r="C21" s="152"/>
@@ -56579,8 +56883,8 @@
       <c r="L21" s="307"/>
     </row>
     <row r="22" spans="1:12" s="161" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A22" s="455"/>
-      <c r="B22" s="455"/>
+      <c r="A22" s="458"/>
+      <c r="B22" s="458"/>
       <c r="C22" s="451" t="s">
         <v>94</v>
       </c>
@@ -56612,8 +56916,8 @@
       <c r="L22" s="304"/>
     </row>
     <row r="23" spans="1:12" s="161" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A23" s="455"/>
-      <c r="B23" s="455"/>
+      <c r="A23" s="458"/>
+      <c r="B23" s="458"/>
       <c r="C23" s="451" t="s">
         <v>380</v>
       </c>
@@ -56634,10 +56938,10 @@
       <c r="L23" s="304"/>
     </row>
     <row r="24" spans="1:12" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A24" s="455">
+      <c r="A24" s="458">
         <v>4</v>
       </c>
-      <c r="B24" s="455" t="s">
+      <c r="B24" s="458" t="s">
         <v>285</v>
       </c>
       <c r="C24" s="152"/>
@@ -56667,8 +56971,8 @@
       <c r="L24" s="307"/>
     </row>
     <row r="25" spans="1:12" s="161" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="455"/>
-      <c r="B25" s="455"/>
+      <c r="A25" s="458"/>
+      <c r="B25" s="458"/>
       <c r="C25" s="451" t="s">
         <v>94</v>
       </c>
@@ -56700,8 +57004,8 @@
       <c r="L25" s="304"/>
     </row>
     <row r="26" spans="1:12" s="161" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A26" s="455"/>
-      <c r="B26" s="455"/>
+      <c r="A26" s="458"/>
+      <c r="B26" s="458"/>
       <c r="C26" s="451" t="s">
         <v>380</v>
       </c>
@@ -56722,10 +57026,10 @@
       <c r="L26" s="304"/>
     </row>
     <row r="27" spans="1:12" s="153" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="455">
+      <c r="A27" s="458">
         <v>5</v>
       </c>
-      <c r="B27" s="455" t="s">
+      <c r="B27" s="458" t="s">
         <v>384</v>
       </c>
       <c r="C27" s="152"/>
@@ -56754,8 +57058,8 @@
       <c r="L27" s="307"/>
     </row>
     <row r="28" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="455"/>
-      <c r="B28" s="455"/>
+      <c r="A28" s="458"/>
+      <c r="B28" s="458"/>
       <c r="C28" s="451" t="s">
         <v>94</v>
       </c>
@@ -56787,8 +57091,8 @@
       <c r="L28" s="304"/>
     </row>
     <row r="29" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="455"/>
-      <c r="B29" s="455"/>
+      <c r="A29" s="458"/>
+      <c r="B29" s="458"/>
       <c r="C29" s="451" t="s">
         <v>380</v>
       </c>
@@ -56809,10 +57113,10 @@
       <c r="L29" s="304"/>
     </row>
     <row r="30" spans="1:12" s="153" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="455">
+      <c r="A30" s="458">
         <v>6</v>
       </c>
-      <c r="B30" s="455" t="s">
+      <c r="B30" s="458" t="s">
         <v>441</v>
       </c>
       <c r="C30" s="235"/>
@@ -56845,8 +57149,8 @@
       <c r="L30" s="307"/>
     </row>
     <row r="31" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="455"/>
-      <c r="B31" s="455"/>
+      <c r="A31" s="458"/>
+      <c r="B31" s="458"/>
       <c r="C31" s="451" t="s">
         <v>94</v>
       </c>
@@ -56878,8 +57182,8 @@
       <c r="L31" s="304"/>
     </row>
     <row r="32" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="455"/>
-      <c r="B32" s="455"/>
+      <c r="A32" s="458"/>
+      <c r="B32" s="458"/>
       <c r="C32" s="451" t="s">
         <v>380</v>
       </c>
@@ -56900,10 +57204,10 @@
       <c r="L32" s="304"/>
     </row>
     <row r="33" spans="1:12" s="153" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="455">
+      <c r="A33" s="458">
         <v>7</v>
       </c>
-      <c r="B33" s="455" t="s">
+      <c r="B33" s="458" t="s">
         <v>188</v>
       </c>
       <c r="C33" s="152" t="s">
@@ -56936,8 +57240,8 @@
       <c r="L33" s="307"/>
     </row>
     <row r="34" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="455"/>
-      <c r="B34" s="455"/>
+      <c r="A34" s="458"/>
+      <c r="B34" s="458"/>
       <c r="C34" s="451" t="s">
         <v>94</v>
       </c>
@@ -56969,8 +57273,8 @@
       <c r="L34" s="304"/>
     </row>
     <row r="35" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="455"/>
-      <c r="B35" s="455"/>
+      <c r="A35" s="458"/>
+      <c r="B35" s="458"/>
       <c r="C35" s="451" t="s">
         <v>380</v>
       </c>
@@ -56991,10 +57295,10 @@
       <c r="L35" s="304"/>
     </row>
     <row r="36" spans="1:12" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A36" s="455">
+      <c r="A36" s="458">
         <v>8</v>
       </c>
-      <c r="B36" s="455" t="s">
+      <c r="B36" s="458" t="s">
         <v>89</v>
       </c>
       <c r="C36" s="454" t="s">
@@ -57003,18 +57307,18 @@
       <c r="D36" s="453">
         <v>41697</v>
       </c>
-      <c r="E36" s="441">
+      <c r="E36" s="443">
         <f>324737600+1262599800</f>
         <v>1587337400</v>
       </c>
-      <c r="F36" s="441">
+      <c r="F36" s="443">
         <f>324737600+1262599800</f>
         <v>1587337400</v>
       </c>
       <c r="G36" s="164">
         <v>43824000</v>
       </c>
-      <c r="H36" s="441">
+      <c r="H36" s="443">
         <f>324737600+1262599800</f>
         <v>1587337400</v>
       </c>
@@ -57030,16 +57334,16 @@
       <c r="L36" s="307"/>
     </row>
     <row r="37" spans="1:12" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A37" s="455"/>
-      <c r="B37" s="455"/>
+      <c r="A37" s="458"/>
+      <c r="B37" s="458"/>
       <c r="C37" s="454"/>
       <c r="D37" s="454"/>
-      <c r="E37" s="441"/>
-      <c r="F37" s="441"/>
+      <c r="E37" s="443"/>
+      <c r="F37" s="443"/>
       <c r="G37" s="151">
         <v>76462320</v>
       </c>
-      <c r="H37" s="441"/>
+      <c r="H37" s="443"/>
       <c r="I37" s="151">
         <v>76462320</v>
       </c>
@@ -57052,16 +57356,16 @@
       <c r="L37" s="307"/>
     </row>
     <row r="38" spans="1:12" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A38" s="455"/>
-      <c r="B38" s="455"/>
+      <c r="A38" s="458"/>
+      <c r="B38" s="458"/>
       <c r="C38" s="454"/>
       <c r="D38" s="454"/>
-      <c r="E38" s="441"/>
-      <c r="F38" s="441"/>
+      <c r="E38" s="443"/>
+      <c r="F38" s="443"/>
       <c r="G38" s="151">
         <v>133147080</v>
       </c>
-      <c r="H38" s="441"/>
+      <c r="H38" s="443"/>
       <c r="I38" s="151">
         <v>133147080</v>
       </c>
@@ -57074,16 +57378,16 @@
       <c r="L38" s="307"/>
     </row>
     <row r="39" spans="1:12" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A39" s="455"/>
-      <c r="B39" s="455"/>
+      <c r="A39" s="458"/>
+      <c r="B39" s="458"/>
       <c r="C39" s="454"/>
       <c r="D39" s="454"/>
-      <c r="E39" s="441"/>
-      <c r="F39" s="441"/>
+      <c r="E39" s="443"/>
+      <c r="F39" s="443"/>
       <c r="G39" s="151">
         <v>378779940</v>
       </c>
-      <c r="H39" s="441"/>
+      <c r="H39" s="443"/>
       <c r="I39" s="151">
         <v>378779940</v>
       </c>
@@ -57096,16 +57400,16 @@
       <c r="L39" s="307"/>
     </row>
     <row r="40" spans="1:12" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="455"/>
-      <c r="B40" s="455"/>
+      <c r="A40" s="458"/>
+      <c r="B40" s="458"/>
       <c r="C40" s="454"/>
       <c r="D40" s="454"/>
-      <c r="E40" s="441"/>
-      <c r="F40" s="441"/>
+      <c r="E40" s="443"/>
+      <c r="F40" s="443"/>
       <c r="G40" s="156">
         <v>252519960</v>
       </c>
-      <c r="H40" s="441"/>
+      <c r="H40" s="443"/>
       <c r="I40" s="156">
         <v>252519960</v>
       </c>
@@ -57118,16 +57422,16 @@
       <c r="L40" s="307"/>
     </row>
     <row r="41" spans="1:12" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="455"/>
-      <c r="B41" s="455"/>
+      <c r="A41" s="458"/>
+      <c r="B41" s="458"/>
       <c r="C41" s="454"/>
       <c r="D41" s="454"/>
-      <c r="E41" s="441"/>
-      <c r="F41" s="441"/>
+      <c r="E41" s="443"/>
+      <c r="F41" s="443"/>
       <c r="G41" s="151">
         <v>378779940</v>
       </c>
-      <c r="H41" s="441"/>
+      <c r="H41" s="443"/>
       <c r="I41" s="151">
         <v>378779940</v>
       </c>
@@ -57140,16 +57444,16 @@
       <c r="L41" s="307"/>
     </row>
     <row r="42" spans="1:12" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A42" s="455"/>
-      <c r="B42" s="455"/>
+      <c r="A42" s="458"/>
+      <c r="B42" s="458"/>
       <c r="C42" s="454"/>
       <c r="D42" s="454"/>
-      <c r="E42" s="441"/>
-      <c r="F42" s="441"/>
+      <c r="E42" s="443"/>
+      <c r="F42" s="443"/>
       <c r="G42" s="170">
         <v>323824160</v>
       </c>
-      <c r="H42" s="441"/>
+      <c r="H42" s="443"/>
       <c r="I42" s="170">
         <v>323824160</v>
       </c>
@@ -57162,8 +57466,8 @@
       <c r="L42" s="307"/>
     </row>
     <row r="43" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
-      <c r="A43" s="455"/>
-      <c r="B43" s="455"/>
+      <c r="A43" s="458"/>
+      <c r="B43" s="458"/>
       <c r="C43" s="451" t="s">
         <v>94</v>
       </c>
@@ -57195,8 +57499,8 @@
       <c r="L43" s="304"/>
     </row>
     <row r="44" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="455"/>
-      <c r="B44" s="455"/>
+      <c r="A44" s="458"/>
+      <c r="B44" s="458"/>
       <c r="C44" s="451" t="s">
         <v>380</v>
       </c>
@@ -57217,10 +57521,10 @@
       <c r="L44" s="304"/>
     </row>
     <row r="45" spans="1:12" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A45" s="455">
+      <c r="A45" s="458">
         <v>9</v>
       </c>
-      <c r="B45" s="455" t="s">
+      <c r="B45" s="458" t="s">
         <v>91</v>
       </c>
       <c r="C45" s="454" t="s">
@@ -57229,16 +57533,16 @@
       <c r="D45" s="453">
         <v>41627</v>
       </c>
-      <c r="E45" s="441">
+      <c r="E45" s="443">
         <v>289000000</v>
       </c>
-      <c r="F45" s="441">
+      <c r="F45" s="443">
         <v>289000000</v>
       </c>
       <c r="G45" s="151">
         <v>20000000</v>
       </c>
-      <c r="H45" s="441">
+      <c r="H45" s="443">
         <v>289000000</v>
       </c>
       <c r="I45" s="151">
@@ -57253,16 +57557,16 @@
       <c r="L45" s="307"/>
     </row>
     <row r="46" spans="1:12" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A46" s="455"/>
-      <c r="B46" s="455"/>
+      <c r="A46" s="458"/>
+      <c r="B46" s="458"/>
       <c r="C46" s="454"/>
       <c r="D46" s="454"/>
-      <c r="E46" s="441"/>
-      <c r="F46" s="441"/>
+      <c r="E46" s="443"/>
+      <c r="F46" s="443"/>
       <c r="G46" s="151">
         <v>20000000</v>
       </c>
-      <c r="H46" s="441"/>
+      <c r="H46" s="443"/>
       <c r="I46" s="151">
         <v>20000000</v>
       </c>
@@ -57275,16 +57579,16 @@
       <c r="L46" s="307"/>
     </row>
     <row r="47" spans="1:12" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A47" s="455"/>
-      <c r="B47" s="455"/>
+      <c r="A47" s="458"/>
+      <c r="B47" s="458"/>
       <c r="C47" s="454"/>
       <c r="D47" s="454"/>
-      <c r="E47" s="441"/>
-      <c r="F47" s="441"/>
+      <c r="E47" s="443"/>
+      <c r="F47" s="443"/>
       <c r="G47" s="151">
         <v>50000000</v>
       </c>
-      <c r="H47" s="441"/>
+      <c r="H47" s="443"/>
       <c r="I47" s="151">
         <v>50000000</v>
       </c>
@@ -57297,16 +57601,16 @@
       <c r="L47" s="307"/>
     </row>
     <row r="48" spans="1:12" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A48" s="455"/>
-      <c r="B48" s="455"/>
+      <c r="A48" s="458"/>
+      <c r="B48" s="458"/>
       <c r="C48" s="454"/>
       <c r="D48" s="454"/>
-      <c r="E48" s="441"/>
-      <c r="F48" s="441"/>
+      <c r="E48" s="443"/>
+      <c r="F48" s="443"/>
       <c r="G48" s="151">
         <v>50000000</v>
       </c>
-      <c r="H48" s="441"/>
+      <c r="H48" s="443"/>
       <c r="I48" s="151">
         <v>50000000</v>
       </c>
@@ -57319,16 +57623,16 @@
       <c r="L48" s="307"/>
     </row>
     <row r="49" spans="1:12" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A49" s="455"/>
-      <c r="B49" s="455"/>
+      <c r="A49" s="458"/>
+      <c r="B49" s="458"/>
       <c r="C49" s="454"/>
       <c r="D49" s="454"/>
-      <c r="E49" s="441"/>
-      <c r="F49" s="441"/>
+      <c r="E49" s="443"/>
+      <c r="F49" s="443"/>
       <c r="G49" s="151">
         <v>50000000</v>
       </c>
-      <c r="H49" s="441"/>
+      <c r="H49" s="443"/>
       <c r="I49" s="151">
         <v>50000000</v>
       </c>
@@ -57341,16 +57645,16 @@
       <c r="L49" s="307"/>
     </row>
     <row r="50" spans="1:12" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A50" s="455"/>
-      <c r="B50" s="455"/>
+      <c r="A50" s="458"/>
+      <c r="B50" s="458"/>
       <c r="C50" s="454"/>
       <c r="D50" s="454"/>
-      <c r="E50" s="441"/>
-      <c r="F50" s="441"/>
+      <c r="E50" s="443"/>
+      <c r="F50" s="443"/>
       <c r="G50" s="151">
         <v>50000000</v>
       </c>
-      <c r="H50" s="441"/>
+      <c r="H50" s="443"/>
       <c r="I50" s="151">
         <v>50000000</v>
       </c>
@@ -57363,16 +57667,16 @@
       <c r="L50" s="307"/>
     </row>
     <row r="51" spans="1:12" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A51" s="455"/>
-      <c r="B51" s="455"/>
+      <c r="A51" s="458"/>
+      <c r="B51" s="458"/>
       <c r="C51" s="454"/>
       <c r="D51" s="454"/>
-      <c r="E51" s="441"/>
-      <c r="F51" s="441"/>
+      <c r="E51" s="443"/>
+      <c r="F51" s="443"/>
       <c r="G51" s="170">
         <v>49000000</v>
       </c>
-      <c r="H51" s="441"/>
+      <c r="H51" s="443"/>
       <c r="I51" s="170">
         <v>49000000</v>
       </c>
@@ -57385,8 +57689,8 @@
       <c r="L51" s="307"/>
     </row>
     <row r="52" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
-      <c r="A52" s="455"/>
-      <c r="B52" s="455"/>
+      <c r="A52" s="458"/>
+      <c r="B52" s="458"/>
       <c r="C52" s="451" t="s">
         <v>94</v>
       </c>
@@ -57418,8 +57722,8 @@
       <c r="L52" s="304"/>
     </row>
     <row r="53" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
-      <c r="A53" s="455"/>
-      <c r="B53" s="455"/>
+      <c r="A53" s="458"/>
+      <c r="B53" s="458"/>
       <c r="C53" s="451" t="s">
         <v>380</v>
       </c>
@@ -57443,7 +57747,7 @@
       <c r="A54" s="462">
         <v>10</v>
       </c>
-      <c r="B54" s="479" t="s">
+      <c r="B54" s="481" t="s">
         <v>305</v>
       </c>
       <c r="C54" s="459" t="s">
@@ -57452,16 +57756,16 @@
       <c r="D54" s="461">
         <v>42182</v>
       </c>
-      <c r="E54" s="442">
+      <c r="E54" s="444">
         <v>150126466</v>
       </c>
-      <c r="F54" s="442">
+      <c r="F54" s="444">
         <v>150126466</v>
       </c>
       <c r="G54" s="172">
         <v>45000000</v>
       </c>
-      <c r="H54" s="442">
+      <c r="H54" s="444">
         <v>150126466</v>
       </c>
       <c r="I54" s="172">
@@ -57476,15 +57780,15 @@
     </row>
     <row r="55" spans="1:12" ht="16.5" customHeight="1">
       <c r="A55" s="462"/>
-      <c r="B55" s="479"/>
+      <c r="B55" s="481"/>
       <c r="C55" s="460"/>
       <c r="D55" s="460"/>
-      <c r="E55" s="443"/>
-      <c r="F55" s="443"/>
+      <c r="E55" s="445"/>
+      <c r="F55" s="445"/>
       <c r="G55" s="138">
         <v>105126466</v>
       </c>
-      <c r="H55" s="443"/>
+      <c r="H55" s="445"/>
       <c r="I55" s="138">
         <v>105126466</v>
       </c>
@@ -57497,7 +57801,7 @@
     </row>
     <row r="56" spans="1:12" ht="16.5" customHeight="1">
       <c r="A56" s="462"/>
-      <c r="B56" s="479"/>
+      <c r="B56" s="481"/>
       <c r="C56" s="282"/>
       <c r="D56" s="283"/>
       <c r="E56" s="279"/>
@@ -57510,7 +57814,7 @@
     </row>
     <row r="57" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
       <c r="A57" s="462"/>
-      <c r="B57" s="479"/>
+      <c r="B57" s="481"/>
       <c r="C57" s="451" t="s">
         <v>94</v>
       </c>
@@ -57543,7 +57847,7 @@
     </row>
     <row r="58" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
       <c r="A58" s="462"/>
-      <c r="B58" s="479"/>
+      <c r="B58" s="481"/>
       <c r="C58" s="451" t="s">
         <v>380</v>
       </c>
@@ -57567,7 +57871,7 @@
       <c r="A59" s="462">
         <v>11</v>
       </c>
-      <c r="B59" s="479" t="s">
+      <c r="B59" s="481" t="s">
         <v>357</v>
       </c>
       <c r="C59" s="208" t="s">
@@ -57601,7 +57905,7 @@
     </row>
     <row r="60" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
       <c r="A60" s="462"/>
-      <c r="B60" s="479"/>
+      <c r="B60" s="481"/>
       <c r="C60" s="451" t="s">
         <v>94</v>
       </c>
@@ -57634,7 +57938,7 @@
     </row>
     <row r="61" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
       <c r="A61" s="462"/>
-      <c r="B61" s="479"/>
+      <c r="B61" s="481"/>
       <c r="C61" s="451" t="s">
         <v>380</v>
       </c>
@@ -57661,20 +57965,20 @@
       <c r="B62" s="462" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="449" t="s">
+      <c r="C62" s="463" t="s">
         <v>389</v>
       </c>
-      <c r="D62" s="450">
+      <c r="D62" s="464">
         <v>41353</v>
       </c>
-      <c r="E62" s="444"/>
-      <c r="F62" s="444">
+      <c r="E62" s="446"/>
+      <c r="F62" s="446">
         <v>100000000</v>
       </c>
       <c r="G62" s="177">
         <v>30000000</v>
       </c>
-      <c r="H62" s="444">
+      <c r="H62" s="446">
         <v>100000000</v>
       </c>
       <c r="I62" s="177">
@@ -57690,14 +57994,14 @@
     <row r="63" spans="1:12" ht="17.25" customHeight="1">
       <c r="A63" s="462"/>
       <c r="B63" s="462"/>
-      <c r="C63" s="449"/>
-      <c r="D63" s="450"/>
-      <c r="E63" s="444"/>
-      <c r="F63" s="444"/>
+      <c r="C63" s="463"/>
+      <c r="D63" s="464"/>
+      <c r="E63" s="446"/>
+      <c r="F63" s="446"/>
       <c r="G63" s="172">
         <v>30000000</v>
       </c>
-      <c r="H63" s="444"/>
+      <c r="H63" s="446"/>
       <c r="I63" s="172">
         <v>30000000</v>
       </c>
@@ -57764,28 +58068,28 @@
       <c r="L65" s="304"/>
     </row>
     <row r="66" spans="1:13" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A66" s="456">
+      <c r="A66" s="455">
         <v>13</v>
       </c>
-      <c r="B66" s="456" t="s">
+      <c r="B66" s="455" t="s">
         <v>86</v>
       </c>
-      <c r="C66" s="464" t="s">
+      <c r="C66" s="466" t="s">
         <v>381</v>
       </c>
-      <c r="D66" s="465">
+      <c r="D66" s="467">
         <v>41292</v>
       </c>
-      <c r="E66" s="446">
+      <c r="E66" s="448">
         <v>60500000</v>
       </c>
-      <c r="F66" s="446">
+      <c r="F66" s="448">
         <v>60500000</v>
       </c>
       <c r="G66" s="164">
         <v>27500000</v>
       </c>
-      <c r="H66" s="487">
+      <c r="H66" s="490">
         <v>60500000</v>
       </c>
       <c r="I66" s="164">
@@ -57800,16 +58104,16 @@
       <c r="L66" s="307"/>
     </row>
     <row r="67" spans="1:13" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A67" s="457"/>
-      <c r="B67" s="457"/>
+      <c r="A67" s="456"/>
+      <c r="B67" s="456"/>
       <c r="C67" s="454"/>
       <c r="D67" s="454"/>
-      <c r="E67" s="447"/>
-      <c r="F67" s="447"/>
+      <c r="E67" s="449"/>
+      <c r="F67" s="449"/>
       <c r="G67" s="151">
         <v>33000000</v>
       </c>
-      <c r="H67" s="441"/>
+      <c r="H67" s="443"/>
       <c r="I67" s="151">
         <v>33000000</v>
       </c>
@@ -57822,8 +58126,8 @@
       <c r="L67" s="307"/>
     </row>
     <row r="68" spans="1:13" s="161" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A68" s="457"/>
-      <c r="B68" s="457"/>
+      <c r="A68" s="456"/>
+      <c r="B68" s="456"/>
       <c r="C68" s="451" t="s">
         <v>94</v>
       </c>
@@ -57855,8 +58159,8 @@
       <c r="L68" s="304"/>
     </row>
     <row r="69" spans="1:13" s="161" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A69" s="457"/>
-      <c r="B69" s="457"/>
+      <c r="A69" s="456"/>
+      <c r="B69" s="456"/>
       <c r="C69" s="451" t="s">
         <v>380</v>
       </c>
@@ -57877,22 +58181,22 @@
       <c r="L69" s="304"/>
     </row>
     <row r="70" spans="1:13" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A70" s="457"/>
-      <c r="B70" s="457"/>
-      <c r="C70" s="464" t="s">
+      <c r="A70" s="456"/>
+      <c r="B70" s="456"/>
+      <c r="C70" s="466" t="s">
         <v>453</v>
       </c>
-      <c r="D70" s="465">
+      <c r="D70" s="467">
         <v>42217</v>
       </c>
-      <c r="E70" s="446"/>
-      <c r="F70" s="446">
+      <c r="E70" s="448"/>
+      <c r="F70" s="448">
         <v>428000000</v>
       </c>
       <c r="G70" s="164">
         <v>128400000</v>
       </c>
-      <c r="H70" s="446">
+      <c r="H70" s="448">
         <v>428000000</v>
       </c>
       <c r="I70" s="164">
@@ -57907,22 +58211,22 @@
       <c r="L70" s="307"/>
     </row>
     <row r="71" spans="1:13" s="153" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A71" s="457"/>
-      <c r="B71" s="457"/>
+      <c r="A71" s="456"/>
+      <c r="B71" s="456"/>
       <c r="C71" s="454"/>
       <c r="D71" s="454"/>
-      <c r="E71" s="447"/>
-      <c r="F71" s="447"/>
+      <c r="E71" s="449"/>
+      <c r="F71" s="449"/>
       <c r="G71" s="151"/>
-      <c r="H71" s="447"/>
+      <c r="H71" s="449"/>
       <c r="I71" s="151"/>
       <c r="J71" s="166"/>
       <c r="K71" s="227"/>
       <c r="L71" s="307"/>
     </row>
     <row r="72" spans="1:13" s="161" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A72" s="457"/>
-      <c r="B72" s="457"/>
+      <c r="A72" s="456"/>
+      <c r="B72" s="456"/>
       <c r="C72" s="451" t="s">
         <v>94</v>
       </c>
@@ -57954,8 +58258,8 @@
       <c r="L72" s="304"/>
     </row>
     <row r="73" spans="1:13" s="161" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A73" s="458"/>
-      <c r="B73" s="458"/>
+      <c r="A73" s="457"/>
+      <c r="B73" s="457"/>
       <c r="C73" s="451" t="s">
         <v>380</v>
       </c>
@@ -57983,21 +58287,21 @@
       <c r="B74" s="462" t="s">
         <v>109</v>
       </c>
-      <c r="C74" s="449" t="s">
+      <c r="C74" s="463" t="s">
         <v>389</v>
       </c>
-      <c r="D74" s="450">
+      <c r="D74" s="464">
         <v>41353</v>
       </c>
-      <c r="E74" s="444"/>
-      <c r="F74" s="444">
+      <c r="E74" s="446"/>
+      <c r="F74" s="446">
         <v>200000000</v>
       </c>
       <c r="G74" s="172">
         <f>IF(I74&gt;0,I74,0)</f>
         <v>50000000</v>
       </c>
-      <c r="H74" s="444">
+      <c r="H74" s="446">
         <v>200000000</v>
       </c>
       <c r="I74" s="177">
@@ -58013,15 +58317,15 @@
     <row r="75" spans="1:13" ht="17.25" customHeight="1">
       <c r="A75" s="462"/>
       <c r="B75" s="462"/>
-      <c r="C75" s="449"/>
-      <c r="D75" s="450"/>
-      <c r="E75" s="444"/>
-      <c r="F75" s="444"/>
+      <c r="C75" s="463"/>
+      <c r="D75" s="464"/>
+      <c r="E75" s="446"/>
+      <c r="F75" s="446"/>
       <c r="G75" s="172">
         <f t="shared" ref="G75:G77" si="1">IF(I75&gt;0,I75,0)</f>
         <v>50000000</v>
       </c>
-      <c r="H75" s="444"/>
+      <c r="H75" s="446"/>
       <c r="I75" s="177">
         <v>50000000</v>
       </c>
@@ -58035,15 +58339,15 @@
     <row r="76" spans="1:13" ht="17.25" customHeight="1">
       <c r="A76" s="462"/>
       <c r="B76" s="462"/>
-      <c r="C76" s="449"/>
-      <c r="D76" s="450"/>
-      <c r="E76" s="444"/>
-      <c r="F76" s="444"/>
+      <c r="C76" s="463"/>
+      <c r="D76" s="464"/>
+      <c r="E76" s="446"/>
+      <c r="F76" s="446"/>
       <c r="G76" s="172">
         <f t="shared" si="1"/>
         <v>50000000</v>
       </c>
-      <c r="H76" s="444"/>
+      <c r="H76" s="446"/>
       <c r="I76" s="177">
         <v>50000000</v>
       </c>
@@ -58057,15 +58361,15 @@
     <row r="77" spans="1:13" ht="17.25" customHeight="1">
       <c r="A77" s="462"/>
       <c r="B77" s="462"/>
-      <c r="C77" s="449"/>
-      <c r="D77" s="450"/>
-      <c r="E77" s="444"/>
-      <c r="F77" s="444"/>
+      <c r="C77" s="463"/>
+      <c r="D77" s="464"/>
+      <c r="E77" s="446"/>
+      <c r="F77" s="446"/>
       <c r="G77" s="172">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H77" s="444"/>
+      <c r="H77" s="446"/>
       <c r="I77" s="151"/>
       <c r="J77" s="183"/>
       <c r="K77" s="184"/>
@@ -58132,22 +58436,22 @@
       <c r="B80" s="462" t="s">
         <v>400</v>
       </c>
-      <c r="C80" s="449" t="s">
+      <c r="C80" s="463" t="s">
         <v>401</v>
       </c>
-      <c r="D80" s="450">
+      <c r="D80" s="464">
         <v>42118</v>
       </c>
-      <c r="E80" s="444">
+      <c r="E80" s="446">
         <v>255297700</v>
       </c>
-      <c r="F80" s="444">
+      <c r="F80" s="446">
         <v>255297700</v>
       </c>
       <c r="G80" s="172">
         <v>100000000</v>
       </c>
-      <c r="H80" s="444">
+      <c r="H80" s="446">
         <v>255297700</v>
       </c>
       <c r="I80" s="172">
@@ -58163,14 +58467,14 @@
     <row r="81" spans="1:12" ht="16.5" customHeight="1">
       <c r="A81" s="462"/>
       <c r="B81" s="462"/>
-      <c r="C81" s="449"/>
-      <c r="D81" s="450"/>
-      <c r="E81" s="444"/>
-      <c r="F81" s="444"/>
+      <c r="C81" s="463"/>
+      <c r="D81" s="464"/>
+      <c r="E81" s="446"/>
+      <c r="F81" s="446"/>
       <c r="G81" s="172">
         <v>100000000</v>
       </c>
-      <c r="H81" s="444"/>
+      <c r="H81" s="446"/>
       <c r="I81" s="172">
         <v>100000000</v>
       </c>
@@ -58184,14 +58488,14 @@
     <row r="82" spans="1:12" ht="16.5" customHeight="1">
       <c r="A82" s="462"/>
       <c r="B82" s="462"/>
-      <c r="C82" s="449"/>
-      <c r="D82" s="450"/>
-      <c r="E82" s="444"/>
-      <c r="F82" s="444"/>
+      <c r="C82" s="463"/>
+      <c r="D82" s="464"/>
+      <c r="E82" s="446"/>
+      <c r="F82" s="446"/>
       <c r="G82" s="172">
         <v>55297700</v>
       </c>
-      <c r="H82" s="444"/>
+      <c r="H82" s="446"/>
       <c r="I82" s="172">
         <v>55297700</v>
       </c>
@@ -58260,24 +58564,24 @@
     <row r="85" spans="1:12" ht="16.5" customHeight="1">
       <c r="A85" s="462"/>
       <c r="B85" s="462"/>
-      <c r="C85" s="449" t="s">
+      <c r="C85" s="463" t="s">
         <v>494</v>
       </c>
-      <c r="D85" s="450">
+      <c r="D85" s="464">
         <v>42203</v>
       </c>
-      <c r="E85" s="444">
+      <c r="E85" s="446">
         <f>188280000+102950000+150022500+59760000+114906620</f>
         <v>615919120</v>
       </c>
-      <c r="F85" s="444">
+      <c r="F85" s="446">
         <f>188280000+102950000+150022500</f>
         <v>441252500</v>
       </c>
       <c r="G85" s="172">
         <v>100000000</v>
       </c>
-      <c r="H85" s="444">
+      <c r="H85" s="446">
         <f>188280000+102950000+150022500+59760000+114906620</f>
         <v>615919120</v>
       </c>
@@ -58294,14 +58598,14 @@
     <row r="86" spans="1:12" ht="16.5" customHeight="1">
       <c r="A86" s="462"/>
       <c r="B86" s="462"/>
-      <c r="C86" s="449"/>
-      <c r="D86" s="450"/>
-      <c r="E86" s="444"/>
-      <c r="F86" s="444"/>
+      <c r="C86" s="463"/>
+      <c r="D86" s="464"/>
+      <c r="E86" s="446"/>
+      <c r="F86" s="446"/>
       <c r="G86" s="172">
         <v>200000000</v>
       </c>
-      <c r="H86" s="444"/>
+      <c r="H86" s="446"/>
       <c r="I86" s="172">
         <v>200000000</v>
       </c>
@@ -58315,15 +58619,15 @@
     <row r="87" spans="1:12" ht="16.5" customHeight="1">
       <c r="A87" s="462"/>
       <c r="B87" s="462"/>
-      <c r="C87" s="449"/>
-      <c r="D87" s="450"/>
-      <c r="E87" s="444"/>
-      <c r="F87" s="444"/>
+      <c r="C87" s="463"/>
+      <c r="D87" s="464"/>
+      <c r="E87" s="446"/>
+      <c r="F87" s="446"/>
       <c r="G87" s="172">
         <f>I87</f>
         <v>201012500</v>
       </c>
-      <c r="H87" s="444"/>
+      <c r="H87" s="446"/>
       <c r="I87" s="172">
         <v>201012500</v>
       </c>
@@ -58406,24 +58710,24 @@
       <c r="A91" s="462">
         <v>16</v>
       </c>
-      <c r="B91" s="479" t="s">
+      <c r="B91" s="481" t="s">
         <v>302</v>
       </c>
       <c r="C91" s="459" t="s">
         <v>404</v>
       </c>
       <c r="D91" s="461"/>
-      <c r="E91" s="442">
+      <c r="E91" s="444">
         <f>399000000</f>
         <v>399000000</v>
       </c>
-      <c r="F91" s="442">
+      <c r="F91" s="444">
         <v>570000000</v>
       </c>
       <c r="G91" s="172">
         <v>171000000</v>
       </c>
-      <c r="H91" s="442">
+      <c r="H91" s="444">
         <v>570000000</v>
       </c>
       <c r="I91" s="172">
@@ -58438,15 +58742,15 @@
     </row>
     <row r="92" spans="1:12" ht="16.5" customHeight="1">
       <c r="A92" s="462"/>
-      <c r="B92" s="479"/>
+      <c r="B92" s="481"/>
       <c r="C92" s="460"/>
-      <c r="D92" s="471"/>
-      <c r="E92" s="443"/>
-      <c r="F92" s="443"/>
+      <c r="D92" s="473"/>
+      <c r="E92" s="445"/>
+      <c r="F92" s="445"/>
       <c r="G92" s="172">
         <v>228000000</v>
       </c>
-      <c r="H92" s="443"/>
+      <c r="H92" s="445"/>
       <c r="I92" s="172">
         <v>228000000</v>
       </c>
@@ -58459,20 +58763,20 @@
     </row>
     <row r="93" spans="1:12" ht="16.5" customHeight="1">
       <c r="A93" s="462"/>
-      <c r="B93" s="479"/>
+      <c r="B93" s="481"/>
       <c r="C93" s="460"/>
       <c r="D93" s="460"/>
-      <c r="E93" s="443"/>
-      <c r="F93" s="443"/>
+      <c r="E93" s="445"/>
+      <c r="F93" s="445"/>
       <c r="G93" s="138"/>
-      <c r="H93" s="443"/>
+      <c r="H93" s="445"/>
       <c r="I93" s="151"/>
       <c r="J93" s="176"/>
       <c r="K93" s="188"/>
     </row>
     <row r="94" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
       <c r="A94" s="462"/>
-      <c r="B94" s="479"/>
+      <c r="B94" s="481"/>
       <c r="C94" s="451" t="s">
         <v>94</v>
       </c>
@@ -58505,7 +58809,7 @@
     </row>
     <row r="95" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
       <c r="A95" s="462"/>
-      <c r="B95" s="479"/>
+      <c r="B95" s="481"/>
       <c r="C95" s="451" t="s">
         <v>380</v>
       </c>
@@ -58529,26 +58833,26 @@
       <c r="A96" s="462">
         <v>17</v>
       </c>
-      <c r="B96" s="479" t="s">
+      <c r="B96" s="481" t="s">
         <v>454</v>
       </c>
-      <c r="C96" s="490" t="s">
+      <c r="C96" s="492" t="s">
         <v>442</v>
       </c>
       <c r="D96" s="461">
         <v>42230</v>
       </c>
-      <c r="E96" s="442">
+      <c r="E96" s="444">
         <v>599632000</v>
       </c>
-      <c r="F96" s="442">
+      <c r="F96" s="444">
         <f>E96</f>
         <v>599632000</v>
       </c>
       <c r="G96" s="151">
         <v>200000000</v>
       </c>
-      <c r="H96" s="442">
+      <c r="H96" s="444">
         <v>599632000</v>
       </c>
       <c r="I96" s="151">
@@ -58563,20 +58867,20 @@
     </row>
     <row r="97" spans="1:12" ht="16.5" customHeight="1">
       <c r="A97" s="462"/>
-      <c r="B97" s="479"/>
+      <c r="B97" s="481"/>
       <c r="C97" s="460"/>
-      <c r="D97" s="471"/>
-      <c r="E97" s="443"/>
-      <c r="F97" s="443"/>
+      <c r="D97" s="473"/>
+      <c r="E97" s="445"/>
+      <c r="F97" s="445"/>
       <c r="G97" s="164"/>
-      <c r="H97" s="443"/>
+      <c r="H97" s="445"/>
       <c r="I97" s="151"/>
       <c r="J97" s="228"/>
       <c r="K97" s="230"/>
     </row>
     <row r="98" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
       <c r="A98" s="462"/>
-      <c r="B98" s="479"/>
+      <c r="B98" s="481"/>
       <c r="C98" s="451" t="s">
         <v>94</v>
       </c>
@@ -58609,7 +58913,7 @@
     </row>
     <row r="99" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
       <c r="A99" s="462"/>
-      <c r="B99" s="479"/>
+      <c r="B99" s="481"/>
       <c r="C99" s="451" t="s">
         <v>380</v>
       </c>
@@ -58636,23 +58940,23 @@
       <c r="B100" s="462" t="s">
         <v>85</v>
       </c>
-      <c r="C100" s="488" t="s">
+      <c r="C100" s="491" t="s">
         <v>390</v>
       </c>
-      <c r="D100" s="466">
+      <c r="D100" s="468">
         <v>40549</v>
       </c>
-      <c r="E100" s="448">
+      <c r="E100" s="450">
         <v>1000000000</v>
       </c>
-      <c r="F100" s="448">
+      <c r="F100" s="450">
         <v>1150000000</v>
       </c>
       <c r="G100" s="172">
         <f t="shared" ref="G100:G112" si="2">IF(I100&gt;0,I100,0)</f>
         <v>100000000</v>
       </c>
-      <c r="H100" s="448">
+      <c r="H100" s="450">
         <v>1150000000</v>
       </c>
       <c r="I100" s="177">
@@ -58668,15 +58972,15 @@
     <row r="101" spans="1:12" ht="17.25" customHeight="1">
       <c r="A101" s="462"/>
       <c r="B101" s="462"/>
-      <c r="C101" s="449"/>
-      <c r="D101" s="467"/>
-      <c r="E101" s="444"/>
-      <c r="F101" s="444"/>
+      <c r="C101" s="463"/>
+      <c r="D101" s="469"/>
+      <c r="E101" s="446"/>
+      <c r="F101" s="446"/>
       <c r="G101" s="172">
         <f t="shared" si="2"/>
         <v>50000000</v>
       </c>
-      <c r="H101" s="444"/>
+      <c r="H101" s="446"/>
       <c r="I101" s="172">
         <v>50000000</v>
       </c>
@@ -58690,15 +58994,15 @@
     <row r="102" spans="1:12" ht="17.25" customHeight="1">
       <c r="A102" s="462"/>
       <c r="B102" s="462"/>
-      <c r="C102" s="449"/>
-      <c r="D102" s="467"/>
-      <c r="E102" s="444"/>
-      <c r="F102" s="444"/>
+      <c r="C102" s="463"/>
+      <c r="D102" s="469"/>
+      <c r="E102" s="446"/>
+      <c r="F102" s="446"/>
       <c r="G102" s="172">
         <f t="shared" si="2"/>
         <v>100000000</v>
       </c>
-      <c r="H102" s="444"/>
+      <c r="H102" s="446"/>
       <c r="I102" s="172">
         <v>100000000</v>
       </c>
@@ -58712,12 +59016,12 @@
     <row r="103" spans="1:12" ht="17.25" customHeight="1">
       <c r="A103" s="462"/>
       <c r="B103" s="462"/>
-      <c r="C103" s="449"/>
-      <c r="D103" s="467"/>
-      <c r="E103" s="444"/>
-      <c r="F103" s="444"/>
+      <c r="C103" s="463"/>
+      <c r="D103" s="469"/>
+      <c r="E103" s="446"/>
+      <c r="F103" s="446"/>
       <c r="G103" s="172"/>
-      <c r="H103" s="444"/>
+      <c r="H103" s="446"/>
       <c r="I103" s="172">
         <v>100000000</v>
       </c>
@@ -58731,15 +59035,15 @@
     <row r="104" spans="1:12" ht="17.25" customHeight="1">
       <c r="A104" s="462"/>
       <c r="B104" s="462"/>
-      <c r="C104" s="449"/>
-      <c r="D104" s="467"/>
-      <c r="E104" s="444"/>
-      <c r="F104" s="444"/>
+      <c r="C104" s="463"/>
+      <c r="D104" s="469"/>
+      <c r="E104" s="446"/>
+      <c r="F104" s="446"/>
       <c r="G104" s="172">
         <f t="shared" si="2"/>
         <v>200000000</v>
       </c>
-      <c r="H104" s="444"/>
+      <c r="H104" s="446"/>
       <c r="I104" s="172">
         <v>200000000</v>
       </c>
@@ -58753,15 +59057,15 @@
     <row r="105" spans="1:12" ht="17.25" customHeight="1">
       <c r="A105" s="462"/>
       <c r="B105" s="462"/>
-      <c r="C105" s="449"/>
-      <c r="D105" s="467"/>
-      <c r="E105" s="444"/>
-      <c r="F105" s="444"/>
+      <c r="C105" s="463"/>
+      <c r="D105" s="469"/>
+      <c r="E105" s="446"/>
+      <c r="F105" s="446"/>
       <c r="G105" s="172">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H105" s="444"/>
+      <c r="H105" s="446"/>
       <c r="I105" s="172">
         <v>-91500000</v>
       </c>
@@ -58775,15 +59079,15 @@
     <row r="106" spans="1:12" ht="17.25" customHeight="1">
       <c r="A106" s="462"/>
       <c r="B106" s="462"/>
-      <c r="C106" s="449"/>
-      <c r="D106" s="467"/>
-      <c r="E106" s="444"/>
-      <c r="F106" s="444"/>
+      <c r="C106" s="463"/>
+      <c r="D106" s="469"/>
+      <c r="E106" s="446"/>
+      <c r="F106" s="446"/>
       <c r="G106" s="172">
         <f t="shared" si="2"/>
         <v>100000000</v>
       </c>
-      <c r="H106" s="444"/>
+      <c r="H106" s="446"/>
       <c r="I106" s="172">
         <v>100000000</v>
       </c>
@@ -58797,12 +59101,12 @@
     <row r="107" spans="1:12" ht="17.25" customHeight="1">
       <c r="A107" s="462"/>
       <c r="B107" s="462"/>
-      <c r="C107" s="449"/>
-      <c r="D107" s="467"/>
-      <c r="E107" s="444"/>
-      <c r="F107" s="444"/>
+      <c r="C107" s="463"/>
+      <c r="D107" s="469"/>
+      <c r="E107" s="446"/>
+      <c r="F107" s="446"/>
       <c r="G107" s="172"/>
-      <c r="H107" s="444"/>
+      <c r="H107" s="446"/>
       <c r="I107" s="172">
         <v>100000000</v>
       </c>
@@ -58816,15 +59120,15 @@
     <row r="108" spans="1:12" ht="17.25" customHeight="1">
       <c r="A108" s="462"/>
       <c r="B108" s="462"/>
-      <c r="C108" s="449"/>
-      <c r="D108" s="467"/>
-      <c r="E108" s="444"/>
-      <c r="F108" s="444"/>
+      <c r="C108" s="463"/>
+      <c r="D108" s="469"/>
+      <c r="E108" s="446"/>
+      <c r="F108" s="446"/>
       <c r="G108" s="172">
         <f t="shared" si="2"/>
         <v>100000000</v>
       </c>
-      <c r="H108" s="444"/>
+      <c r="H108" s="446"/>
       <c r="I108" s="172">
         <v>100000000</v>
       </c>
@@ -58838,15 +59142,15 @@
     <row r="109" spans="1:12" s="180" customFormat="1" ht="17.25" customHeight="1">
       <c r="A109" s="462"/>
       <c r="B109" s="462"/>
-      <c r="C109" s="449"/>
-      <c r="D109" s="467"/>
-      <c r="E109" s="444"/>
-      <c r="F109" s="444"/>
+      <c r="C109" s="463"/>
+      <c r="D109" s="469"/>
+      <c r="E109" s="446"/>
+      <c r="F109" s="446"/>
       <c r="G109" s="172">
         <f t="shared" si="2"/>
         <v>50000000</v>
       </c>
-      <c r="H109" s="444"/>
+      <c r="H109" s="446"/>
       <c r="I109" s="172">
         <v>50000000</v>
       </c>
@@ -58861,15 +59165,15 @@
     <row r="110" spans="1:12" s="180" customFormat="1" ht="17.25" customHeight="1">
       <c r="A110" s="462"/>
       <c r="B110" s="462"/>
-      <c r="C110" s="449"/>
-      <c r="D110" s="467"/>
-      <c r="E110" s="444"/>
-      <c r="F110" s="444"/>
+      <c r="C110" s="463"/>
+      <c r="D110" s="469"/>
+      <c r="E110" s="446"/>
+      <c r="F110" s="446"/>
       <c r="G110" s="172">
         <f t="shared" si="2"/>
         <v>100000000</v>
       </c>
-      <c r="H110" s="444"/>
+      <c r="H110" s="446"/>
       <c r="I110" s="172">
         <v>100000000</v>
       </c>
@@ -58884,12 +59188,12 @@
     <row r="111" spans="1:12" s="180" customFormat="1" ht="17.25" customHeight="1">
       <c r="A111" s="462"/>
       <c r="B111" s="462"/>
-      <c r="C111" s="449"/>
-      <c r="D111" s="467"/>
-      <c r="E111" s="444"/>
-      <c r="F111" s="444"/>
+      <c r="C111" s="463"/>
+      <c r="D111" s="469"/>
+      <c r="E111" s="446"/>
+      <c r="F111" s="446"/>
       <c r="G111" s="172"/>
-      <c r="H111" s="444"/>
+      <c r="H111" s="446"/>
       <c r="I111" s="172">
         <v>100000000</v>
       </c>
@@ -58904,15 +59208,15 @@
     <row r="112" spans="1:12" ht="17.25" customHeight="1">
       <c r="A112" s="462"/>
       <c r="B112" s="462"/>
-      <c r="C112" s="449"/>
-      <c r="D112" s="467"/>
-      <c r="E112" s="444"/>
-      <c r="F112" s="444"/>
+      <c r="C112" s="463"/>
+      <c r="D112" s="469"/>
+      <c r="E112" s="446"/>
+      <c r="F112" s="446"/>
       <c r="G112" s="172">
         <f t="shared" si="2"/>
         <v>50000000</v>
       </c>
-      <c r="H112" s="444"/>
+      <c r="H112" s="446"/>
       <c r="I112" s="172">
         <v>50000000</v>
       </c>
@@ -58926,23 +59230,23 @@
     <row r="113" spans="1:12" ht="17.25" customHeight="1">
       <c r="A113" s="462"/>
       <c r="B113" s="462"/>
-      <c r="C113" s="449" t="s">
+      <c r="C113" s="463" t="s">
         <v>392</v>
       </c>
-      <c r="D113" s="467">
+      <c r="D113" s="469">
         <v>41860</v>
       </c>
-      <c r="E113" s="444">
+      <c r="E113" s="446">
         <v>7500000000</v>
       </c>
-      <c r="F113" s="444">
+      <c r="F113" s="446">
         <v>10172555140</v>
       </c>
       <c r="G113" s="172">
         <f>IF(I113&gt;0,I113,0)</f>
         <v>800000000</v>
       </c>
-      <c r="H113" s="444">
+      <c r="H113" s="446">
         <v>10172555140</v>
       </c>
       <c r="I113" s="172">
@@ -58958,15 +59262,15 @@
     <row r="114" spans="1:12" ht="17.25" customHeight="1">
       <c r="A114" s="462"/>
       <c r="B114" s="462"/>
-      <c r="C114" s="449"/>
-      <c r="D114" s="467"/>
-      <c r="E114" s="444"/>
-      <c r="F114" s="444"/>
+      <c r="C114" s="463"/>
+      <c r="D114" s="469"/>
+      <c r="E114" s="446"/>
+      <c r="F114" s="446"/>
       <c r="G114" s="172">
         <f t="shared" ref="G114:G124" si="3">IF(I114&gt;0,I114,0)</f>
         <v>1500000000</v>
       </c>
-      <c r="H114" s="444"/>
+      <c r="H114" s="446"/>
       <c r="I114" s="172">
         <v>1500000000</v>
       </c>
@@ -58980,15 +59284,15 @@
     <row r="115" spans="1:12" ht="17.25" customHeight="1">
       <c r="A115" s="462"/>
       <c r="B115" s="462"/>
-      <c r="C115" s="449"/>
-      <c r="D115" s="467"/>
-      <c r="E115" s="444"/>
-      <c r="F115" s="444"/>
+      <c r="C115" s="463"/>
+      <c r="D115" s="469"/>
+      <c r="E115" s="446"/>
+      <c r="F115" s="446"/>
       <c r="G115" s="172">
         <f t="shared" si="3"/>
         <v>1000000000</v>
       </c>
-      <c r="H115" s="444"/>
+      <c r="H115" s="446"/>
       <c r="I115" s="172">
         <v>1000000000</v>
       </c>
@@ -59002,15 +59306,15 @@
     <row r="116" spans="1:12" ht="17.25" customHeight="1">
       <c r="A116" s="462"/>
       <c r="B116" s="462"/>
-      <c r="C116" s="449"/>
-      <c r="D116" s="467"/>
-      <c r="E116" s="444"/>
-      <c r="F116" s="444"/>
+      <c r="C116" s="463"/>
+      <c r="D116" s="469"/>
+      <c r="E116" s="446"/>
+      <c r="F116" s="446"/>
       <c r="G116" s="172">
         <f t="shared" si="3"/>
         <v>1000000000</v>
       </c>
-      <c r="H116" s="444"/>
+      <c r="H116" s="446"/>
       <c r="I116" s="172">
         <v>1000000000</v>
       </c>
@@ -59024,15 +59328,15 @@
     <row r="117" spans="1:12" ht="17.25" customHeight="1">
       <c r="A117" s="462"/>
       <c r="B117" s="462"/>
-      <c r="C117" s="449"/>
-      <c r="D117" s="467"/>
-      <c r="E117" s="444"/>
-      <c r="F117" s="444"/>
+      <c r="C117" s="463"/>
+      <c r="D117" s="469"/>
+      <c r="E117" s="446"/>
+      <c r="F117" s="446"/>
       <c r="G117" s="172">
         <f t="shared" si="3"/>
         <v>700000000</v>
       </c>
-      <c r="H117" s="444"/>
+      <c r="H117" s="446"/>
       <c r="I117" s="172">
         <v>700000000</v>
       </c>
@@ -59049,15 +59353,15 @@
     <row r="118" spans="1:12" ht="17.25" customHeight="1">
       <c r="A118" s="462"/>
       <c r="B118" s="462"/>
-      <c r="C118" s="449"/>
-      <c r="D118" s="467"/>
-      <c r="E118" s="444"/>
-      <c r="F118" s="444"/>
+      <c r="C118" s="463"/>
+      <c r="D118" s="469"/>
+      <c r="E118" s="446"/>
+      <c r="F118" s="446"/>
       <c r="G118" s="172">
         <f t="shared" si="3"/>
         <v>500000000</v>
       </c>
-      <c r="H118" s="444"/>
+      <c r="H118" s="446"/>
       <c r="I118" s="172">
         <v>500000000</v>
       </c>
@@ -59071,15 +59375,15 @@
     <row r="119" spans="1:12" ht="17.25" customHeight="1">
       <c r="A119" s="462"/>
       <c r="B119" s="462"/>
-      <c r="C119" s="449"/>
-      <c r="D119" s="467"/>
-      <c r="E119" s="444"/>
-      <c r="F119" s="444"/>
+      <c r="C119" s="463"/>
+      <c r="D119" s="469"/>
+      <c r="E119" s="446"/>
+      <c r="F119" s="446"/>
       <c r="G119" s="172">
         <f t="shared" si="3"/>
         <v>500000000</v>
       </c>
-      <c r="H119" s="444"/>
+      <c r="H119" s="446"/>
       <c r="I119" s="172">
         <v>500000000</v>
       </c>
@@ -59093,15 +59397,15 @@
     <row r="120" spans="1:12" ht="17.25" customHeight="1">
       <c r="A120" s="462"/>
       <c r="B120" s="462"/>
-      <c r="C120" s="449"/>
-      <c r="D120" s="467"/>
-      <c r="E120" s="444"/>
-      <c r="F120" s="444"/>
+      <c r="C120" s="463"/>
+      <c r="D120" s="469"/>
+      <c r="E120" s="446"/>
+      <c r="F120" s="446"/>
       <c r="G120" s="172">
         <f t="shared" si="3"/>
         <v>500000000</v>
       </c>
-      <c r="H120" s="444"/>
+      <c r="H120" s="446"/>
       <c r="I120" s="172">
         <v>500000000</v>
       </c>
@@ -59115,15 +59419,15 @@
     <row r="121" spans="1:12" ht="17.25" customHeight="1">
       <c r="A121" s="462"/>
       <c r="B121" s="462"/>
-      <c r="C121" s="449"/>
-      <c r="D121" s="467"/>
-      <c r="E121" s="444"/>
-      <c r="F121" s="444"/>
+      <c r="C121" s="463"/>
+      <c r="D121" s="469"/>
+      <c r="E121" s="446"/>
+      <c r="F121" s="446"/>
       <c r="G121" s="172">
         <f t="shared" si="3"/>
         <v>1000000000</v>
       </c>
-      <c r="H121" s="444"/>
+      <c r="H121" s="446"/>
       <c r="I121" s="138">
         <v>1000000000</v>
       </c>
@@ -59138,14 +59442,14 @@
       <c r="A122" s="462"/>
       <c r="B122" s="462"/>
       <c r="C122" s="459"/>
-      <c r="D122" s="469"/>
-      <c r="E122" s="442"/>
-      <c r="F122" s="442"/>
+      <c r="D122" s="471"/>
+      <c r="E122" s="444"/>
+      <c r="F122" s="444"/>
       <c r="G122" s="172">
         <f t="shared" si="3"/>
         <v>300000000</v>
       </c>
-      <c r="H122" s="442"/>
+      <c r="H122" s="444"/>
       <c r="I122" s="223">
         <v>300000000</v>
       </c>
@@ -59160,14 +59464,14 @@
       <c r="A123" s="462"/>
       <c r="B123" s="462"/>
       <c r="C123" s="459"/>
-      <c r="D123" s="469"/>
-      <c r="E123" s="442"/>
-      <c r="F123" s="442"/>
+      <c r="D123" s="471"/>
+      <c r="E123" s="444"/>
+      <c r="F123" s="444"/>
       <c r="G123" s="172">
         <f t="shared" si="3"/>
         <v>200000000</v>
       </c>
-      <c r="H123" s="442"/>
+      <c r="H123" s="444"/>
       <c r="I123" s="226">
         <v>200000000</v>
       </c>
@@ -59181,15 +59485,15 @@
     <row r="124" spans="1:12" ht="17.25" customHeight="1">
       <c r="A124" s="462"/>
       <c r="B124" s="462"/>
-      <c r="C124" s="468"/>
-      <c r="D124" s="470"/>
-      <c r="E124" s="463"/>
-      <c r="F124" s="463"/>
+      <c r="C124" s="470"/>
+      <c r="D124" s="472"/>
+      <c r="E124" s="465"/>
+      <c r="F124" s="465"/>
       <c r="G124" s="172">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H124" s="463"/>
+      <c r="H124" s="465"/>
       <c r="I124" s="138"/>
       <c r="J124" s="176"/>
       <c r="K124" s="174"/>
@@ -59262,10 +59566,10 @@
       <c r="D127" s="461">
         <v>41871</v>
       </c>
-      <c r="E127" s="442">
+      <c r="E127" s="444">
         <v>2200000000</v>
       </c>
-      <c r="F127" s="442">
+      <c r="F127" s="444">
         <f>2508700000</f>
         <v>2508700000</v>
       </c>
@@ -59273,7 +59577,7 @@
         <f>IF(I127&gt;0,I127,0)</f>
         <v>752610000</v>
       </c>
-      <c r="H127" s="442">
+      <c r="H127" s="444">
         <v>1858000000</v>
       </c>
       <c r="I127" s="172">
@@ -59291,13 +59595,13 @@
       <c r="B128" s="462"/>
       <c r="C128" s="460"/>
       <c r="D128" s="460"/>
-      <c r="E128" s="443"/>
-      <c r="F128" s="443"/>
+      <c r="E128" s="445"/>
+      <c r="F128" s="445"/>
       <c r="G128" s="172">
         <f t="shared" ref="G128:G139" si="4">IF(I128&gt;0,I128,0)</f>
         <v>0</v>
       </c>
-      <c r="H128" s="443"/>
+      <c r="H128" s="445"/>
       <c r="I128" s="185">
         <v>-200000000</v>
       </c>
@@ -59314,13 +59618,13 @@
       <c r="B129" s="462"/>
       <c r="C129" s="460"/>
       <c r="D129" s="460"/>
-      <c r="E129" s="443"/>
-      <c r="F129" s="443"/>
+      <c r="E129" s="445"/>
+      <c r="F129" s="445"/>
       <c r="G129" s="172">
         <f t="shared" si="4"/>
         <v>500000000</v>
       </c>
-      <c r="H129" s="443"/>
+      <c r="H129" s="445"/>
       <c r="I129" s="172">
         <v>500000000</v>
       </c>
@@ -59336,13 +59640,13 @@
       <c r="B130" s="462"/>
       <c r="C130" s="460"/>
       <c r="D130" s="460"/>
-      <c r="E130" s="443"/>
-      <c r="F130" s="443"/>
+      <c r="E130" s="445"/>
+      <c r="F130" s="445"/>
       <c r="G130" s="172">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H130" s="443"/>
+      <c r="H130" s="445"/>
       <c r="I130" s="185">
         <v>-100000000</v>
       </c>
@@ -59358,13 +59662,13 @@
       <c r="B131" s="462"/>
       <c r="C131" s="460"/>
       <c r="D131" s="460"/>
-      <c r="E131" s="443"/>
-      <c r="F131" s="443"/>
+      <c r="E131" s="445"/>
+      <c r="F131" s="445"/>
       <c r="G131" s="172">
         <f t="shared" si="4"/>
         <v>500000000</v>
       </c>
-      <c r="H131" s="443"/>
+      <c r="H131" s="445"/>
       <c r="I131" s="172">
         <v>500000000</v>
       </c>
@@ -59381,7 +59685,7 @@
       <c r="C132" s="460" t="s">
         <v>395</v>
       </c>
-      <c r="D132" s="471">
+      <c r="D132" s="473">
         <v>42139</v>
       </c>
       <c r="E132" s="489">
@@ -59396,7 +59700,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H132" s="443">
+      <c r="H132" s="445">
         <f>139900000+250800000</f>
         <v>390700000</v>
       </c>
@@ -59414,14 +59718,14 @@
       <c r="A133" s="462"/>
       <c r="B133" s="462"/>
       <c r="C133" s="460"/>
-      <c r="D133" s="471"/>
+      <c r="D133" s="473"/>
       <c r="E133" s="489"/>
       <c r="F133" s="489"/>
       <c r="G133" s="172">
         <f t="shared" si="4"/>
         <v>251000000</v>
       </c>
-      <c r="H133" s="443"/>
+      <c r="H133" s="445"/>
       <c r="I133" s="172">
         <v>251000000</v>
       </c>
@@ -59436,14 +59740,14 @@
       <c r="A134" s="462"/>
       <c r="B134" s="462"/>
       <c r="C134" s="460"/>
-      <c r="D134" s="471"/>
+      <c r="D134" s="473"/>
       <c r="E134" s="489"/>
       <c r="F134" s="489"/>
       <c r="G134" s="172">
         <f t="shared" si="4"/>
         <v>200000000</v>
       </c>
-      <c r="H134" s="443"/>
+      <c r="H134" s="445"/>
       <c r="I134" s="172">
         <v>200000000</v>
       </c>
@@ -59458,14 +59762,14 @@
       <c r="A135" s="462"/>
       <c r="B135" s="462"/>
       <c r="C135" s="460"/>
-      <c r="D135" s="471"/>
+      <c r="D135" s="473"/>
       <c r="E135" s="489"/>
       <c r="F135" s="489"/>
       <c r="G135" s="172">
         <f t="shared" si="4"/>
         <v>400000000</v>
       </c>
-      <c r="H135" s="443"/>
+      <c r="H135" s="445"/>
       <c r="I135" s="172">
         <v>400000000</v>
       </c>
@@ -59480,14 +59784,14 @@
       <c r="A136" s="462"/>
       <c r="B136" s="462"/>
       <c r="C136" s="460"/>
-      <c r="D136" s="471"/>
+      <c r="D136" s="473"/>
       <c r="E136" s="489"/>
       <c r="F136" s="489"/>
       <c r="G136" s="172">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H136" s="443"/>
+      <c r="H136" s="445"/>
       <c r="I136" s="185">
         <v>-200000000</v>
       </c>
@@ -59502,14 +59806,14 @@
       <c r="A137" s="462"/>
       <c r="B137" s="462"/>
       <c r="C137" s="460"/>
-      <c r="D137" s="471"/>
+      <c r="D137" s="473"/>
       <c r="E137" s="489"/>
       <c r="F137" s="489"/>
       <c r="G137" s="172">
         <f t="shared" si="4"/>
         <v>406490000</v>
       </c>
-      <c r="H137" s="443"/>
+      <c r="H137" s="445"/>
       <c r="I137" s="151">
         <v>406490000</v>
       </c>
@@ -59524,14 +59828,14 @@
       <c r="A138" s="462"/>
       <c r="B138" s="462"/>
       <c r="C138" s="460"/>
-      <c r="D138" s="471"/>
+      <c r="D138" s="473"/>
       <c r="E138" s="489"/>
       <c r="F138" s="489"/>
       <c r="G138" s="172">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H138" s="443"/>
+      <c r="H138" s="445"/>
       <c r="I138" s="151">
         <v>-197695000</v>
       </c>
@@ -59544,14 +59848,14 @@
       <c r="A139" s="462"/>
       <c r="B139" s="462"/>
       <c r="C139" s="460"/>
-      <c r="D139" s="471"/>
+      <c r="D139" s="473"/>
       <c r="E139" s="489"/>
       <c r="F139" s="489"/>
       <c r="G139" s="172">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H139" s="443"/>
+      <c r="H139" s="445"/>
       <c r="I139" s="151"/>
       <c r="J139" s="151"/>
       <c r="K139" s="151"/>
@@ -59630,24 +59934,24 @@
       <c r="B142" s="462" t="s">
         <v>138</v>
       </c>
-      <c r="C142" s="449" t="s">
+      <c r="C142" s="463" t="s">
         <v>396</v>
       </c>
-      <c r="D142" s="450">
+      <c r="D142" s="464">
         <v>42014</v>
       </c>
-      <c r="E142" s="444">
+      <c r="E142" s="446">
         <f>2200000000</f>
         <v>2200000000</v>
       </c>
-      <c r="F142" s="444">
+      <c r="F142" s="446">
         <v>3500000000</v>
       </c>
       <c r="G142" s="172">
         <f>IF(I142&gt;0,I142,0)</f>
         <v>600000000</v>
       </c>
-      <c r="H142" s="444">
+      <c r="H142" s="446">
         <v>2910000000</v>
       </c>
       <c r="I142" s="177">
@@ -59663,15 +59967,15 @@
     <row r="143" spans="1:12" ht="17.25" customHeight="1">
       <c r="A143" s="462"/>
       <c r="B143" s="462"/>
-      <c r="C143" s="449"/>
-      <c r="D143" s="449"/>
-      <c r="E143" s="444"/>
-      <c r="F143" s="444"/>
+      <c r="C143" s="463"/>
+      <c r="D143" s="463"/>
+      <c r="E143" s="446"/>
+      <c r="F143" s="446"/>
       <c r="G143" s="172">
         <f t="shared" ref="G143:G150" si="5">IF(I143&gt;0,I143,0)</f>
         <v>600000000</v>
       </c>
-      <c r="H143" s="444"/>
+      <c r="H143" s="446"/>
       <c r="I143" s="177">
         <v>600000000</v>
       </c>
@@ -59685,15 +59989,15 @@
     <row r="144" spans="1:12" ht="17.25" customHeight="1">
       <c r="A144" s="462"/>
       <c r="B144" s="462"/>
-      <c r="C144" s="449"/>
-      <c r="D144" s="449"/>
-      <c r="E144" s="444"/>
-      <c r="F144" s="444"/>
+      <c r="C144" s="463"/>
+      <c r="D144" s="463"/>
+      <c r="E144" s="446"/>
+      <c r="F144" s="446"/>
       <c r="G144" s="172">
         <f t="shared" si="5"/>
         <v>500000000</v>
       </c>
-      <c r="H144" s="444"/>
+      <c r="H144" s="446"/>
       <c r="I144" s="172">
         <v>500000000</v>
       </c>
@@ -59707,15 +60011,15 @@
     <row r="145" spans="1:12" ht="17.25" customHeight="1">
       <c r="A145" s="462"/>
       <c r="B145" s="462"/>
-      <c r="C145" s="449"/>
-      <c r="D145" s="449"/>
-      <c r="E145" s="444"/>
-      <c r="F145" s="444"/>
+      <c r="C145" s="463"/>
+      <c r="D145" s="463"/>
+      <c r="E145" s="446"/>
+      <c r="F145" s="446"/>
       <c r="G145" s="172">
         <f t="shared" si="5"/>
         <v>500000000</v>
       </c>
-      <c r="H145" s="444"/>
+      <c r="H145" s="446"/>
       <c r="I145" s="172">
         <v>500000000</v>
       </c>
@@ -59729,15 +60033,15 @@
     <row r="146" spans="1:12" ht="17.25" customHeight="1">
       <c r="A146" s="462"/>
       <c r="B146" s="462"/>
-      <c r="C146" s="449"/>
-      <c r="D146" s="449"/>
-      <c r="E146" s="444"/>
-      <c r="F146" s="444"/>
+      <c r="C146" s="463"/>
+      <c r="D146" s="463"/>
+      <c r="E146" s="446"/>
+      <c r="F146" s="446"/>
       <c r="G146" s="172">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H146" s="444"/>
+      <c r="H146" s="446"/>
       <c r="I146" s="185">
         <v>-500000000</v>
       </c>
@@ -59751,15 +60055,15 @@
     <row r="147" spans="1:12" ht="17.25" customHeight="1">
       <c r="A147" s="462"/>
       <c r="B147" s="462"/>
-      <c r="C147" s="449"/>
-      <c r="D147" s="449"/>
-      <c r="E147" s="444"/>
-      <c r="F147" s="444"/>
+      <c r="C147" s="463"/>
+      <c r="D147" s="463"/>
+      <c r="E147" s="446"/>
+      <c r="F147" s="446"/>
       <c r="G147" s="172">
         <f t="shared" si="5"/>
         <v>500000000</v>
       </c>
-      <c r="H147" s="444"/>
+      <c r="H147" s="446"/>
       <c r="I147" s="172">
         <v>500000000</v>
       </c>
@@ -59773,15 +60077,15 @@
     <row r="148" spans="1:12" ht="17.25" customHeight="1">
       <c r="A148" s="462"/>
       <c r="B148" s="462"/>
-      <c r="C148" s="449"/>
-      <c r="D148" s="449"/>
-      <c r="E148" s="444"/>
-      <c r="F148" s="444"/>
+      <c r="C148" s="463"/>
+      <c r="D148" s="463"/>
+      <c r="E148" s="446"/>
+      <c r="F148" s="446"/>
       <c r="G148" s="172">
         <f t="shared" si="5"/>
         <v>500000000</v>
       </c>
-      <c r="H148" s="444"/>
+      <c r="H148" s="446"/>
       <c r="I148" s="172">
         <v>500000000</v>
       </c>
@@ -59795,15 +60099,15 @@
     <row r="149" spans="1:12" ht="17.25" customHeight="1">
       <c r="A149" s="462"/>
       <c r="B149" s="462"/>
-      <c r="C149" s="449"/>
-      <c r="D149" s="449"/>
-      <c r="E149" s="444"/>
-      <c r="F149" s="444"/>
+      <c r="C149" s="463"/>
+      <c r="D149" s="463"/>
+      <c r="E149" s="446"/>
+      <c r="F149" s="446"/>
       <c r="G149" s="172">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H149" s="444"/>
+      <c r="H149" s="446"/>
       <c r="I149" s="172">
         <v>-200000000</v>
       </c>
@@ -59817,15 +60121,15 @@
     <row r="150" spans="1:12" ht="17.25" customHeight="1">
       <c r="A150" s="462"/>
       <c r="B150" s="462"/>
-      <c r="C150" s="449"/>
-      <c r="D150" s="449"/>
-      <c r="E150" s="444"/>
-      <c r="F150" s="444"/>
+      <c r="C150" s="463"/>
+      <c r="D150" s="463"/>
+      <c r="E150" s="446"/>
+      <c r="F150" s="446"/>
       <c r="G150" s="172">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H150" s="444"/>
+      <c r="H150" s="446"/>
       <c r="I150" s="151"/>
       <c r="J150" s="176"/>
       <c r="K150" s="174"/>
@@ -59892,20 +60196,20 @@
       <c r="B153" s="462" t="s">
         <v>150</v>
       </c>
-      <c r="C153" s="449" t="s">
+      <c r="C153" s="463" t="s">
         <v>397</v>
       </c>
-      <c r="D153" s="450">
+      <c r="D153" s="464">
         <v>42088</v>
       </c>
-      <c r="E153" s="444"/>
-      <c r="F153" s="444">
+      <c r="E153" s="446"/>
+      <c r="F153" s="446">
         <v>1858997690</v>
       </c>
       <c r="G153" s="177">
         <v>360000000</v>
       </c>
-      <c r="H153" s="444">
+      <c r="H153" s="446">
         <v>1300000000</v>
       </c>
       <c r="I153" s="177">
@@ -59921,12 +60225,12 @@
     <row r="154" spans="1:12" ht="17.25" customHeight="1">
       <c r="A154" s="462"/>
       <c r="B154" s="462"/>
-      <c r="C154" s="449"/>
-      <c r="D154" s="449"/>
-      <c r="E154" s="444"/>
-      <c r="F154" s="444"/>
+      <c r="C154" s="463"/>
+      <c r="D154" s="463"/>
+      <c r="E154" s="446"/>
+      <c r="F154" s="446"/>
       <c r="G154" s="138"/>
-      <c r="H154" s="444"/>
+      <c r="H154" s="446"/>
       <c r="I154" s="151"/>
       <c r="J154" s="176"/>
       <c r="K154" s="174"/>
@@ -59990,7 +60294,7 @@
       <c r="A157" s="462">
         <v>22</v>
       </c>
-      <c r="B157" s="479" t="s">
+      <c r="B157" s="481" t="s">
         <v>306</v>
       </c>
       <c r="C157" s="459" t="s">
@@ -59999,15 +60303,15 @@
       <c r="D157" s="461">
         <v>42173</v>
       </c>
-      <c r="E157" s="442"/>
-      <c r="F157" s="442">
+      <c r="E157" s="444"/>
+      <c r="F157" s="444">
         <v>3652000000</v>
       </c>
       <c r="G157" s="172">
         <f>IF(I157&gt;0,I157,0)</f>
         <v>100000000</v>
       </c>
-      <c r="H157" s="442">
+      <c r="H157" s="444">
         <v>2255000000</v>
       </c>
       <c r="I157" s="172">
@@ -60022,16 +60326,16 @@
     </row>
     <row r="158" spans="1:12" ht="16.5" customHeight="1">
       <c r="A158" s="462"/>
-      <c r="B158" s="479"/>
+      <c r="B158" s="481"/>
       <c r="C158" s="460"/>
       <c r="D158" s="460"/>
-      <c r="E158" s="443"/>
-      <c r="F158" s="443"/>
+      <c r="E158" s="445"/>
+      <c r="F158" s="445"/>
       <c r="G158" s="172">
         <f t="shared" ref="G158:G168" si="6">IF(I158&gt;0,I158,0)</f>
         <v>200000000</v>
       </c>
-      <c r="H158" s="443"/>
+      <c r="H158" s="445"/>
       <c r="I158" s="172">
         <v>200000000</v>
       </c>
@@ -60044,16 +60348,16 @@
     </row>
     <row r="159" spans="1:12" ht="16.5" customHeight="1">
       <c r="A159" s="462"/>
-      <c r="B159" s="479"/>
+      <c r="B159" s="481"/>
       <c r="C159" s="460"/>
       <c r="D159" s="460"/>
-      <c r="E159" s="443"/>
-      <c r="F159" s="443"/>
+      <c r="E159" s="445"/>
+      <c r="F159" s="445"/>
       <c r="G159" s="172">
         <f t="shared" si="6"/>
         <v>500000000</v>
       </c>
-      <c r="H159" s="443"/>
+      <c r="H159" s="445"/>
       <c r="I159" s="172">
         <v>500000000</v>
       </c>
@@ -60066,16 +60370,16 @@
     </row>
     <row r="160" spans="1:12" ht="16.5" customHeight="1">
       <c r="A160" s="462"/>
-      <c r="B160" s="479"/>
+      <c r="B160" s="481"/>
       <c r="C160" s="460"/>
       <c r="D160" s="460"/>
-      <c r="E160" s="443"/>
-      <c r="F160" s="443"/>
+      <c r="E160" s="445"/>
+      <c r="F160" s="445"/>
       <c r="G160" s="172">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H160" s="443"/>
+      <c r="H160" s="445"/>
       <c r="I160" s="193">
         <v>-300000000</v>
       </c>
@@ -60088,16 +60392,16 @@
     </row>
     <row r="161" spans="1:12" ht="16.5" customHeight="1">
       <c r="A161" s="462"/>
-      <c r="B161" s="479"/>
+      <c r="B161" s="481"/>
       <c r="C161" s="460"/>
       <c r="D161" s="460"/>
-      <c r="E161" s="443"/>
-      <c r="F161" s="443"/>
+      <c r="E161" s="445"/>
+      <c r="F161" s="445"/>
       <c r="G161" s="172">
         <f t="shared" si="6"/>
         <v>400000000</v>
       </c>
-      <c r="H161" s="443"/>
+      <c r="H161" s="445"/>
       <c r="I161" s="172">
         <v>400000000</v>
       </c>
@@ -60110,16 +60414,16 @@
     </row>
     <row r="162" spans="1:12" ht="16.5" customHeight="1">
       <c r="A162" s="462"/>
-      <c r="B162" s="479"/>
+      <c r="B162" s="481"/>
       <c r="C162" s="460"/>
       <c r="D162" s="460"/>
-      <c r="E162" s="443"/>
-      <c r="F162" s="443"/>
+      <c r="E162" s="445"/>
+      <c r="F162" s="445"/>
       <c r="G162" s="172">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H162" s="443"/>
+      <c r="H162" s="445"/>
       <c r="I162" s="193">
         <v>-200000000</v>
       </c>
@@ -60132,16 +60436,16 @@
     </row>
     <row r="163" spans="1:12" ht="16.5" customHeight="1">
       <c r="A163" s="462"/>
-      <c r="B163" s="479"/>
+      <c r="B163" s="481"/>
       <c r="C163" s="460"/>
       <c r="D163" s="460"/>
-      <c r="E163" s="443"/>
-      <c r="F163" s="443"/>
+      <c r="E163" s="445"/>
+      <c r="F163" s="445"/>
       <c r="G163" s="172">
         <f t="shared" si="6"/>
         <v>150000000</v>
       </c>
-      <c r="H163" s="443"/>
+      <c r="H163" s="445"/>
       <c r="I163" s="172">
         <v>150000000</v>
       </c>
@@ -60154,16 +60458,16 @@
     </row>
     <row r="164" spans="1:12" ht="16.5" customHeight="1">
       <c r="A164" s="462"/>
-      <c r="B164" s="479"/>
+      <c r="B164" s="481"/>
       <c r="C164" s="460"/>
       <c r="D164" s="460"/>
-      <c r="E164" s="443"/>
-      <c r="F164" s="443"/>
+      <c r="E164" s="445"/>
+      <c r="F164" s="445"/>
       <c r="G164" s="172">
         <f t="shared" si="6"/>
         <v>400000000</v>
       </c>
-      <c r="H164" s="443"/>
+      <c r="H164" s="445"/>
       <c r="I164" s="172">
         <v>400000000</v>
       </c>
@@ -60176,16 +60480,16 @@
     </row>
     <row r="165" spans="1:12" ht="16.5" customHeight="1">
       <c r="A165" s="462"/>
-      <c r="B165" s="479"/>
+      <c r="B165" s="481"/>
       <c r="C165" s="460"/>
       <c r="D165" s="460"/>
-      <c r="E165" s="443"/>
-      <c r="F165" s="443"/>
+      <c r="E165" s="445"/>
+      <c r="F165" s="445"/>
       <c r="G165" s="172">
         <f t="shared" si="6"/>
         <v>300000000</v>
       </c>
-      <c r="H165" s="443"/>
+      <c r="H165" s="445"/>
       <c r="I165" s="172">
         <v>300000000</v>
       </c>
@@ -60198,16 +60502,16 @@
     </row>
     <row r="166" spans="1:12" ht="16.5" customHeight="1">
       <c r="A166" s="462"/>
-      <c r="B166" s="479"/>
+      <c r="B166" s="481"/>
       <c r="C166" s="460"/>
       <c r="D166" s="460"/>
-      <c r="E166" s="443"/>
-      <c r="F166" s="443"/>
+      <c r="E166" s="445"/>
+      <c r="F166" s="445"/>
       <c r="G166" s="172">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H166" s="443"/>
+      <c r="H166" s="445"/>
       <c r="I166" s="172">
         <v>-200000000</v>
       </c>
@@ -60220,39 +60524,39 @@
     </row>
     <row r="167" spans="1:12" ht="16.5" customHeight="1">
       <c r="A167" s="462"/>
-      <c r="B167" s="479"/>
+      <c r="B167" s="481"/>
       <c r="C167" s="460"/>
       <c r="D167" s="460"/>
-      <c r="E167" s="443"/>
-      <c r="F167" s="443"/>
+      <c r="E167" s="445"/>
+      <c r="F167" s="445"/>
       <c r="G167" s="172">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H167" s="443"/>
+      <c r="H167" s="445"/>
       <c r="I167" s="172"/>
       <c r="J167" s="302"/>
       <c r="K167" s="301"/>
     </row>
     <row r="168" spans="1:12" ht="16.5" customHeight="1">
       <c r="A168" s="462"/>
-      <c r="B168" s="479"/>
-      <c r="C168" s="480"/>
-      <c r="D168" s="480"/>
-      <c r="E168" s="445"/>
-      <c r="F168" s="445"/>
+      <c r="B168" s="481"/>
+      <c r="C168" s="482"/>
+      <c r="D168" s="482"/>
+      <c r="E168" s="447"/>
+      <c r="F168" s="447"/>
       <c r="G168" s="172">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H168" s="445"/>
+      <c r="H168" s="447"/>
       <c r="I168" s="172"/>
       <c r="J168" s="299"/>
       <c r="K168" s="300"/>
     </row>
     <row r="169" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
       <c r="A169" s="462"/>
-      <c r="B169" s="479"/>
+      <c r="B169" s="481"/>
       <c r="C169" s="451" t="s">
         <v>94</v>
       </c>
@@ -60285,7 +60589,7 @@
     </row>
     <row r="170" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
       <c r="A170" s="462"/>
-      <c r="B170" s="479"/>
+      <c r="B170" s="481"/>
       <c r="C170" s="451" t="s">
         <v>380</v>
       </c>
@@ -60312,24 +60616,24 @@
       <c r="B171" s="462" t="s">
         <v>151</v>
       </c>
-      <c r="C171" s="449"/>
-      <c r="D171" s="450">
+      <c r="C171" s="463"/>
+      <c r="D171" s="464">
         <v>42094</v>
       </c>
-      <c r="E171" s="444">
+      <c r="E171" s="446">
         <f>650650000+49500000</f>
         <v>700150000</v>
       </c>
-      <c r="F171" s="444">
+      <c r="F171" s="446">
         <f>650650000+49500000</f>
         <v>700150000</v>
       </c>
       <c r="G171" s="172">
         <v>195195000</v>
       </c>
-      <c r="H171" s="444">
-        <f>485650000+49500000+15000000</f>
-        <v>550150000</v>
+      <c r="H171" s="446">
+        <f>485650000+49500000+15000000-5200000</f>
+        <v>544950000</v>
       </c>
       <c r="I171" s="172">
         <v>195195000</v>
@@ -60344,14 +60648,14 @@
     <row r="172" spans="1:12" ht="17.25" customHeight="1">
       <c r="A172" s="462"/>
       <c r="B172" s="462"/>
-      <c r="C172" s="449"/>
-      <c r="D172" s="450"/>
-      <c r="E172" s="444"/>
-      <c r="F172" s="444"/>
+      <c r="C172" s="463"/>
+      <c r="D172" s="464"/>
+      <c r="E172" s="446"/>
+      <c r="F172" s="446"/>
       <c r="G172" s="172">
         <v>140000000</v>
       </c>
-      <c r="H172" s="444"/>
+      <c r="H172" s="446"/>
       <c r="I172" s="172">
         <v>140000000</v>
       </c>
@@ -60365,15 +60669,15 @@
     <row r="173" spans="1:12" ht="17.25" customHeight="1">
       <c r="A173" s="462"/>
       <c r="B173" s="462"/>
-      <c r="C173" s="449"/>
-      <c r="D173" s="450"/>
-      <c r="E173" s="444"/>
-      <c r="F173" s="444"/>
+      <c r="C173" s="463"/>
+      <c r="D173" s="464"/>
+      <c r="E173" s="446"/>
+      <c r="F173" s="446"/>
       <c r="G173" s="177">
         <f>I173</f>
         <v>50000000</v>
       </c>
-      <c r="H173" s="444"/>
+      <c r="H173" s="446"/>
       <c r="I173" s="172">
         <v>50000000</v>
       </c>
@@ -60387,15 +60691,15 @@
     <row r="174" spans="1:12" ht="17.25" customHeight="1">
       <c r="A174" s="462"/>
       <c r="B174" s="462"/>
-      <c r="C174" s="449"/>
-      <c r="D174" s="450"/>
-      <c r="E174" s="444"/>
-      <c r="F174" s="444"/>
+      <c r="C174" s="463"/>
+      <c r="D174" s="464"/>
+      <c r="E174" s="446"/>
+      <c r="F174" s="446"/>
       <c r="G174" s="177">
-        <f t="shared" ref="G174:G175" si="7">I174</f>
+        <f t="shared" ref="G174" si="7">I174</f>
         <v>314955000</v>
       </c>
-      <c r="H174" s="444"/>
+      <c r="H174" s="446"/>
       <c r="I174" s="172">
         <v>314955000</v>
       </c>
@@ -60409,18 +60713,21 @@
     <row r="175" spans="1:12" ht="16.5" customHeight="1">
       <c r="A175" s="462"/>
       <c r="B175" s="462"/>
-      <c r="C175" s="449"/>
-      <c r="D175" s="450"/>
-      <c r="E175" s="444"/>
-      <c r="F175" s="444"/>
-      <c r="G175" s="177">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H175" s="444"/>
-      <c r="I175" s="151"/>
-      <c r="J175" s="176"/>
-      <c r="K175" s="188"/>
+      <c r="C175" s="463"/>
+      <c r="D175" s="464"/>
+      <c r="E175" s="446"/>
+      <c r="F175" s="446"/>
+      <c r="G175" s="177"/>
+      <c r="H175" s="446"/>
+      <c r="I175" s="151">
+        <v>-155200000</v>
+      </c>
+      <c r="J175" s="176">
+        <v>42380</v>
+      </c>
+      <c r="K175" s="424" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="176" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
       <c r="A176" s="462"/>
@@ -60443,11 +60750,11 @@
       </c>
       <c r="H176" s="158">
         <f>SUM(H171:H175)</f>
-        <v>550150000</v>
+        <v>544950000</v>
       </c>
       <c r="I176" s="158">
         <f>SUM(I171:I175)</f>
-        <v>700150000</v>
+        <v>544950000</v>
       </c>
       <c r="J176" s="159"/>
       <c r="K176" s="160" t="s">
@@ -60471,7 +60778,7 @@
       <c r="H177" s="162"/>
       <c r="I177" s="163">
         <f>H176-I176</f>
-        <v>-150000000</v>
+        <v>0</v>
       </c>
       <c r="J177" s="159"/>
       <c r="K177" s="160"/>
@@ -60484,20 +60791,20 @@
       <c r="B178" s="462" t="s">
         <v>152</v>
       </c>
-      <c r="C178" s="449" t="s">
+      <c r="C178" s="463" t="s">
         <v>398</v>
       </c>
-      <c r="D178" s="450">
+      <c r="D178" s="464">
         <v>41618</v>
       </c>
-      <c r="E178" s="444"/>
-      <c r="F178" s="444">
+      <c r="E178" s="446"/>
+      <c r="F178" s="446">
         <v>394100000</v>
       </c>
       <c r="G178" s="172">
         <v>100000000</v>
       </c>
-      <c r="H178" s="444">
+      <c r="H178" s="446">
         <v>298500000</v>
       </c>
       <c r="I178" s="172">
@@ -60513,143 +60820,125 @@
     <row r="179" spans="1:12" ht="16.5" customHeight="1">
       <c r="A179" s="462"/>
       <c r="B179" s="462"/>
-      <c r="C179" s="449"/>
-      <c r="D179" s="450"/>
-      <c r="E179" s="444"/>
-      <c r="F179" s="444"/>
-      <c r="G179" s="138"/>
-      <c r="H179" s="444"/>
-      <c r="I179" s="151"/>
-      <c r="J179" s="176"/>
-      <c r="K179" s="188"/>
-    </row>
-    <row r="180" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
+      <c r="C179" s="463"/>
+      <c r="D179" s="464"/>
+      <c r="E179" s="446"/>
+      <c r="F179" s="446"/>
+      <c r="G179" s="177"/>
+      <c r="H179" s="446"/>
+      <c r="I179" s="172"/>
+      <c r="J179" s="423"/>
+      <c r="K179" s="424"/>
+    </row>
+    <row r="180" spans="1:12" ht="16.5" customHeight="1">
       <c r="A180" s="462"/>
       <c r="B180" s="462"/>
-      <c r="C180" s="451" t="s">
-        <v>94</v>
-      </c>
-      <c r="D180" s="452"/>
-      <c r="E180" s="158">
-        <f>SUM(E178:E179)</f>
-        <v>0</v>
-      </c>
-      <c r="F180" s="158">
-        <f>SUM(F178:F179)</f>
-        <v>394100000</v>
-      </c>
-      <c r="G180" s="158">
-        <f>SUM(G178:G179)</f>
-        <v>100000000</v>
-      </c>
-      <c r="H180" s="158">
-        <f>SUM(H178:H179)</f>
-        <v>298500000</v>
-      </c>
-      <c r="I180" s="158">
-        <f>SUM(I178:I179)</f>
-        <v>100000000</v>
-      </c>
-      <c r="J180" s="159"/>
-      <c r="K180" s="160" t="s">
-        <v>42</v>
-      </c>
-      <c r="L180" s="304"/>
-    </row>
-    <row r="181" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
+      <c r="C180" s="463"/>
+      <c r="D180" s="464"/>
+      <c r="E180" s="446"/>
+      <c r="F180" s="446"/>
+      <c r="G180" s="177"/>
+      <c r="H180" s="446"/>
+      <c r="I180" s="172"/>
+      <c r="J180" s="423"/>
+      <c r="K180" s="424"/>
+    </row>
+    <row r="181" spans="1:12" ht="16.5" customHeight="1">
       <c r="A181" s="462"/>
       <c r="B181" s="462"/>
-      <c r="C181" s="451" t="s">
+      <c r="C181" s="463"/>
+      <c r="D181" s="464"/>
+      <c r="E181" s="446"/>
+      <c r="F181" s="446"/>
+      <c r="G181" s="138"/>
+      <c r="H181" s="446"/>
+      <c r="I181" s="151"/>
+      <c r="J181" s="176"/>
+      <c r="K181" s="188"/>
+    </row>
+    <row r="182" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
+      <c r="A182" s="462"/>
+      <c r="B182" s="462"/>
+      <c r="C182" s="451" t="s">
+        <v>94</v>
+      </c>
+      <c r="D182" s="452"/>
+      <c r="E182" s="158">
+        <f>SUM(E178:E181)</f>
+        <v>0</v>
+      </c>
+      <c r="F182" s="158">
+        <f>SUM(F178:F181)</f>
+        <v>394100000</v>
+      </c>
+      <c r="G182" s="158">
+        <f>SUM(G178:G181)</f>
+        <v>100000000</v>
+      </c>
+      <c r="H182" s="158">
+        <f>SUM(H178:H181)</f>
+        <v>298500000</v>
+      </c>
+      <c r="I182" s="158">
+        <f>SUM(I178:I181)</f>
+        <v>100000000</v>
+      </c>
+      <c r="J182" s="159"/>
+      <c r="K182" s="160" t="s">
+        <v>42</v>
+      </c>
+      <c r="L182" s="304"/>
+    </row>
+    <row r="183" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
+      <c r="A183" s="462"/>
+      <c r="B183" s="462"/>
+      <c r="C183" s="451" t="s">
         <v>380</v>
       </c>
-      <c r="D181" s="452"/>
-      <c r="E181" s="162"/>
-      <c r="F181" s="162"/>
-      <c r="G181" s="163">
-        <f>E180-G180</f>
+      <c r="D183" s="452"/>
+      <c r="E183" s="162"/>
+      <c r="F183" s="162"/>
+      <c r="G183" s="163">
+        <f>E182-G182</f>
         <v>-100000000</v>
       </c>
-      <c r="H181" s="162"/>
-      <c r="I181" s="163">
-        <f>H180-I180</f>
+      <c r="H183" s="162"/>
+      <c r="I183" s="163">
+        <f>H182-I182</f>
         <v>198500000</v>
       </c>
-      <c r="J181" s="159"/>
-      <c r="K181" s="160"/>
-      <c r="L181" s="304"/>
-    </row>
-    <row r="182" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A182" s="462">
+      <c r="J183" s="159"/>
+      <c r="K183" s="160"/>
+      <c r="L183" s="304"/>
+    </row>
+    <row r="184" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A184" s="462">
         <v>25</v>
       </c>
-      <c r="B182" s="462" t="s">
+      <c r="B184" s="462" t="s">
         <v>172</v>
       </c>
-      <c r="C182" s="449" t="s">
+      <c r="C184" s="463" t="s">
         <v>399</v>
       </c>
-      <c r="D182" s="450"/>
-      <c r="E182" s="444"/>
-      <c r="F182" s="444">
+      <c r="D184" s="464"/>
+      <c r="E184" s="446"/>
+      <c r="F184" s="446">
         <v>898744036</v>
       </c>
-      <c r="G182" s="172">
-        <f>IF(I182&gt;0,I182,0)</f>
+      <c r="G184" s="172">
+        <f>IF(I184&gt;0,I184,0)</f>
         <v>150000000</v>
       </c>
-      <c r="H182" s="444">
+      <c r="H184" s="446">
         <f>663683801</f>
         <v>663683801</v>
       </c>
-      <c r="I182" s="172">
+      <c r="I184" s="172">
         <v>150000000</v>
       </c>
-      <c r="J182" s="176">
+      <c r="J184" s="176">
         <v>42132</v>
-      </c>
-      <c r="K182" s="174" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A183" s="462"/>
-      <c r="B183" s="462"/>
-      <c r="C183" s="449"/>
-      <c r="D183" s="450"/>
-      <c r="E183" s="444"/>
-      <c r="F183" s="444"/>
-      <c r="G183" s="172">
-        <f t="shared" ref="G183:G192" si="8">IF(I183&gt;0,I183,0)</f>
-        <v>150000000</v>
-      </c>
-      <c r="H183" s="444"/>
-      <c r="I183" s="172">
-        <v>150000000</v>
-      </c>
-      <c r="J183" s="176">
-        <v>42144</v>
-      </c>
-      <c r="K183" s="174" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A184" s="462"/>
-      <c r="B184" s="462"/>
-      <c r="C184" s="449"/>
-      <c r="D184" s="450"/>
-      <c r="E184" s="444"/>
-      <c r="F184" s="444"/>
-      <c r="G184" s="172">
-        <f t="shared" si="8"/>
-        <v>50000000</v>
-      </c>
-      <c r="H184" s="444"/>
-      <c r="I184" s="172">
-        <v>50000000</v>
-      </c>
-      <c r="J184" s="176">
-        <v>42157</v>
       </c>
       <c r="K184" s="174" t="s">
         <v>373</v>
@@ -60658,20 +60947,20 @@
     <row r="185" spans="1:12" ht="16.5" customHeight="1">
       <c r="A185" s="462"/>
       <c r="B185" s="462"/>
-      <c r="C185" s="449"/>
-      <c r="D185" s="450"/>
-      <c r="E185" s="444"/>
-      <c r="F185" s="444"/>
+      <c r="C185" s="463"/>
+      <c r="D185" s="464"/>
+      <c r="E185" s="446"/>
+      <c r="F185" s="446"/>
       <c r="G185" s="172">
-        <f t="shared" si="8"/>
-        <v>200000000</v>
-      </c>
-      <c r="H185" s="444"/>
+        <f t="shared" ref="G185:G194" si="8">IF(I185&gt;0,I185,0)</f>
+        <v>150000000</v>
+      </c>
+      <c r="H185" s="446"/>
       <c r="I185" s="172">
-        <v>200000000</v>
+        <v>150000000</v>
       </c>
       <c r="J185" s="176">
-        <v>42167</v>
+        <v>42144</v>
       </c>
       <c r="K185" s="174" t="s">
         <v>373</v>
@@ -60680,20 +60969,20 @@
     <row r="186" spans="1:12" ht="16.5" customHeight="1">
       <c r="A186" s="462"/>
       <c r="B186" s="462"/>
-      <c r="C186" s="449"/>
-      <c r="D186" s="450"/>
-      <c r="E186" s="444"/>
-      <c r="F186" s="444"/>
+      <c r="C186" s="463"/>
+      <c r="D186" s="464"/>
+      <c r="E186" s="446"/>
+      <c r="F186" s="446"/>
       <c r="G186" s="172">
         <f t="shared" si="8"/>
-        <v>100000000</v>
-      </c>
-      <c r="H186" s="444"/>
+        <v>50000000</v>
+      </c>
+      <c r="H186" s="446"/>
       <c r="I186" s="172">
-        <v>100000000</v>
+        <v>50000000</v>
       </c>
       <c r="J186" s="176">
-        <v>42198</v>
+        <v>42157</v>
       </c>
       <c r="K186" s="174" t="s">
         <v>373</v>
@@ -60702,26 +60991,20 @@
     <row r="187" spans="1:12" ht="16.5" customHeight="1">
       <c r="A187" s="462"/>
       <c r="B187" s="462"/>
-      <c r="C187" s="449" t="s">
-        <v>414</v>
-      </c>
-      <c r="D187" s="450"/>
-      <c r="E187" s="444"/>
-      <c r="F187" s="444">
-        <v>627830692</v>
-      </c>
+      <c r="C187" s="463"/>
+      <c r="D187" s="464"/>
+      <c r="E187" s="446"/>
+      <c r="F187" s="446"/>
       <c r="G187" s="172">
         <f t="shared" si="8"/>
-        <v>400000000</v>
-      </c>
-      <c r="H187" s="444">
-        <v>304043967</v>
-      </c>
+        <v>200000000</v>
+      </c>
+      <c r="H187" s="446"/>
       <c r="I187" s="172">
-        <v>400000000</v>
+        <v>200000000</v>
       </c>
       <c r="J187" s="176">
-        <v>42219</v>
+        <v>42167</v>
       </c>
       <c r="K187" s="174" t="s">
         <v>373</v>
@@ -60730,64 +61013,70 @@
     <row r="188" spans="1:12" ht="16.5" customHeight="1">
       <c r="A188" s="462"/>
       <c r="B188" s="462"/>
-      <c r="C188" s="449"/>
-      <c r="D188" s="450"/>
-      <c r="E188" s="444"/>
-      <c r="F188" s="444"/>
+      <c r="C188" s="463"/>
+      <c r="D188" s="464"/>
+      <c r="E188" s="446"/>
+      <c r="F188" s="446"/>
       <c r="G188" s="172">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H188" s="444"/>
-      <c r="I188" s="193">
-        <v>-200000000</v>
-      </c>
-      <c r="J188" s="194">
-        <v>42220</v>
-      </c>
-      <c r="K188" s="195" t="s">
-        <v>391</v>
+        <v>100000000</v>
+      </c>
+      <c r="H188" s="446"/>
+      <c r="I188" s="172">
+        <v>100000000</v>
+      </c>
+      <c r="J188" s="176">
+        <v>42198</v>
+      </c>
+      <c r="K188" s="174" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="16.5" customHeight="1">
       <c r="A189" s="462"/>
       <c r="B189" s="462"/>
-      <c r="C189" s="449"/>
-      <c r="D189" s="450"/>
-      <c r="E189" s="444"/>
-      <c r="F189" s="444"/>
+      <c r="C189" s="463" t="s">
+        <v>414</v>
+      </c>
+      <c r="D189" s="464"/>
+      <c r="E189" s="446"/>
+      <c r="F189" s="446">
+        <v>627830692</v>
+      </c>
       <c r="G189" s="172">
         <f t="shared" si="8"/>
-        <v>200000000</v>
-      </c>
-      <c r="H189" s="444"/>
+        <v>400000000</v>
+      </c>
+      <c r="H189" s="446">
+        <v>304043967</v>
+      </c>
       <c r="I189" s="172">
-        <v>200000000</v>
-      </c>
-      <c r="J189" s="418">
-        <v>42368</v>
-      </c>
-      <c r="K189" s="419" t="s">
+        <v>400000000</v>
+      </c>
+      <c r="J189" s="176">
+        <v>42219</v>
+      </c>
+      <c r="K189" s="174" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="16.5" customHeight="1">
       <c r="A190" s="462"/>
       <c r="B190" s="462"/>
-      <c r="C190" s="449"/>
-      <c r="D190" s="450"/>
-      <c r="E190" s="444"/>
-      <c r="F190" s="444"/>
+      <c r="C190" s="463"/>
+      <c r="D190" s="464"/>
+      <c r="E190" s="446"/>
+      <c r="F190" s="446"/>
       <c r="G190" s="172">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H190" s="444"/>
+      <c r="H190" s="446"/>
       <c r="I190" s="193">
-        <v>-100000000</v>
+        <v>-200000000</v>
       </c>
       <c r="J190" s="194">
-        <v>42368</v>
+        <v>42220</v>
       </c>
       <c r="K190" s="195" t="s">
         <v>391</v>
@@ -60796,1186 +61085,1230 @@
     <row r="191" spans="1:12" ht="16.5" customHeight="1">
       <c r="A191" s="462"/>
       <c r="B191" s="462"/>
-      <c r="C191" s="449"/>
-      <c r="D191" s="450"/>
-      <c r="E191" s="444"/>
-      <c r="F191" s="444"/>
+      <c r="C191" s="463"/>
+      <c r="D191" s="464"/>
+      <c r="E191" s="446"/>
+      <c r="F191" s="446"/>
       <c r="G191" s="172">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H191" s="444"/>
-      <c r="I191" s="172"/>
-      <c r="J191" s="418"/>
-      <c r="K191" s="422"/>
+        <v>200000000</v>
+      </c>
+      <c r="H191" s="446"/>
+      <c r="I191" s="172">
+        <v>200000000</v>
+      </c>
+      <c r="J191" s="418">
+        <v>42368</v>
+      </c>
+      <c r="K191" s="419" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="192" spans="1:12" ht="16.5" customHeight="1">
       <c r="A192" s="462"/>
       <c r="B192" s="462"/>
-      <c r="C192" s="449"/>
-      <c r="D192" s="450"/>
-      <c r="E192" s="444"/>
-      <c r="F192" s="444"/>
+      <c r="C192" s="463"/>
+      <c r="D192" s="464"/>
+      <c r="E192" s="446"/>
+      <c r="F192" s="446"/>
       <c r="G192" s="172">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H192" s="444"/>
-      <c r="I192" s="172"/>
-      <c r="J192" s="418"/>
-      <c r="K192" s="419"/>
-    </row>
-    <row r="193" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
+      <c r="H192" s="446"/>
+      <c r="I192" s="193">
+        <v>-100000000</v>
+      </c>
+      <c r="J192" s="194">
+        <v>42368</v>
+      </c>
+      <c r="K192" s="195" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="16.5" customHeight="1">
       <c r="A193" s="462"/>
       <c r="B193" s="462"/>
-      <c r="C193" s="451" t="s">
-        <v>94</v>
-      </c>
-      <c r="D193" s="452"/>
-      <c r="E193" s="158">
-        <f>SUM(E182:E192)</f>
-        <v>0</v>
-      </c>
-      <c r="F193" s="158">
-        <f>SUM(F182:F192)</f>
-        <v>1526574728</v>
-      </c>
-      <c r="G193" s="158">
-        <f>SUM(G182:G192)</f>
-        <v>1250000000</v>
-      </c>
-      <c r="H193" s="158">
-        <f>SUM(H182:H192)</f>
-        <v>967727768</v>
-      </c>
-      <c r="I193" s="158">
-        <f>SUM(I182:I192)</f>
-        <v>950000000</v>
-      </c>
-      <c r="J193" s="159"/>
-      <c r="K193" s="160" t="s">
-        <v>42</v>
-      </c>
-      <c r="L193" s="304"/>
-    </row>
-    <row r="194" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
+      <c r="C193" s="463"/>
+      <c r="D193" s="464"/>
+      <c r="E193" s="446"/>
+      <c r="F193" s="446"/>
+      <c r="G193" s="172">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H193" s="446"/>
+      <c r="I193" s="172"/>
+      <c r="J193" s="418"/>
+      <c r="K193" s="422"/>
+    </row>
+    <row r="194" spans="1:12" ht="16.5" customHeight="1">
       <c r="A194" s="462"/>
       <c r="B194" s="462"/>
-      <c r="C194" s="451" t="s">
+      <c r="C194" s="463"/>
+      <c r="D194" s="464"/>
+      <c r="E194" s="446"/>
+      <c r="F194" s="446"/>
+      <c r="G194" s="172">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H194" s="446"/>
+      <c r="I194" s="172"/>
+      <c r="J194" s="418"/>
+      <c r="K194" s="419"/>
+    </row>
+    <row r="195" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
+      <c r="A195" s="462"/>
+      <c r="B195" s="462"/>
+      <c r="C195" s="451" t="s">
+        <v>94</v>
+      </c>
+      <c r="D195" s="452"/>
+      <c r="E195" s="158">
+        <f>SUM(E184:E194)</f>
+        <v>0</v>
+      </c>
+      <c r="F195" s="158">
+        <f>SUM(F184:F194)</f>
+        <v>1526574728</v>
+      </c>
+      <c r="G195" s="158">
+        <f>SUM(G184:G194)</f>
+        <v>1250000000</v>
+      </c>
+      <c r="H195" s="158">
+        <f>SUM(H184:H194)</f>
+        <v>967727768</v>
+      </c>
+      <c r="I195" s="158">
+        <f>SUM(I184:I194)</f>
+        <v>950000000</v>
+      </c>
+      <c r="J195" s="159"/>
+      <c r="K195" s="160" t="s">
+        <v>42</v>
+      </c>
+      <c r="L195" s="304"/>
+    </row>
+    <row r="196" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
+      <c r="A196" s="462"/>
+      <c r="B196" s="462"/>
+      <c r="C196" s="451" t="s">
         <v>380</v>
       </c>
-      <c r="D194" s="452"/>
-      <c r="E194" s="162"/>
-      <c r="F194" s="162"/>
-      <c r="G194" s="163">
-        <f>E193-G193</f>
+      <c r="D196" s="452"/>
+      <c r="E196" s="162"/>
+      <c r="F196" s="162"/>
+      <c r="G196" s="163">
+        <f>E195-G195</f>
         <v>-1250000000</v>
       </c>
-      <c r="H194" s="162"/>
-      <c r="I194" s="163">
-        <f>H193-I193</f>
+      <c r="H196" s="162"/>
+      <c r="I196" s="163">
+        <f>H195-I195</f>
         <v>17727768</v>
       </c>
-      <c r="J194" s="159"/>
-      <c r="K194" s="160"/>
-      <c r="L194" s="304"/>
-    </row>
-    <row r="195" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A195" s="462">
+      <c r="J196" s="159"/>
+      <c r="K196" s="160"/>
+      <c r="L196" s="304"/>
+    </row>
+    <row r="197" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A197" s="462">
         <v>26</v>
       </c>
-      <c r="B195" s="479" t="s">
+      <c r="B197" s="481" t="s">
         <v>190</v>
       </c>
-      <c r="C195" s="481" t="s">
+      <c r="C197" s="483" t="s">
         <v>402</v>
       </c>
-      <c r="D195" s="483">
+      <c r="D197" s="485">
         <v>42125</v>
       </c>
-      <c r="E195" s="179">
+      <c r="E197" s="179">
         <v>99315638</v>
       </c>
-      <c r="F195" s="485">
+      <c r="F197" s="487">
         <v>893000000</v>
       </c>
-      <c r="G195" s="172">
-        <f>IF(I195&gt;0,I195,0)</f>
+      <c r="G197" s="172">
+        <f>IF(I197&gt;0,I197,0)</f>
         <v>200000000</v>
       </c>
-      <c r="H195" s="179">
+      <c r="H197" s="179">
         <v>99315000</v>
       </c>
-      <c r="I195" s="179">
+      <c r="I197" s="179">
         <v>200000000</v>
       </c>
-      <c r="J195" s="189">
+      <c r="J197" s="189">
         <v>42144</v>
       </c>
-      <c r="K195" s="190" t="s">
+      <c r="K197" s="190" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A196" s="462"/>
-      <c r="B196" s="479"/>
-      <c r="C196" s="460"/>
-      <c r="D196" s="471"/>
-      <c r="E196" s="172">
+    <row r="198" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A198" s="462"/>
+      <c r="B198" s="481"/>
+      <c r="C198" s="460"/>
+      <c r="D198" s="473"/>
+      <c r="E198" s="172">
         <v>525544049</v>
       </c>
-      <c r="F196" s="443"/>
-      <c r="G196" s="172">
-        <f t="shared" ref="G196:G204" si="9">IF(I196&gt;0,I196,0)</f>
+      <c r="F198" s="445"/>
+      <c r="G198" s="172">
+        <f t="shared" ref="G198:G206" si="9">IF(I198&gt;0,I198,0)</f>
         <v>250000000</v>
       </c>
-      <c r="H196" s="172">
+      <c r="H198" s="172">
         <v>278359000</v>
       </c>
-      <c r="I196" s="172">
+      <c r="I198" s="172">
         <v>250000000</v>
       </c>
-      <c r="J196" s="176">
+      <c r="J198" s="176">
         <v>42188</v>
       </c>
-      <c r="K196" s="178" t="s">
+      <c r="K198" s="178" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A197" s="462"/>
-      <c r="B197" s="479"/>
-      <c r="C197" s="460"/>
-      <c r="D197" s="471"/>
-      <c r="F197" s="443"/>
-      <c r="G197" s="172">
+    <row r="199" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A199" s="462"/>
+      <c r="B199" s="481"/>
+      <c r="C199" s="460"/>
+      <c r="D199" s="473"/>
+      <c r="F199" s="445"/>
+      <c r="G199" s="172">
         <f t="shared" si="9"/>
         <v>300000000</v>
       </c>
-      <c r="H197" s="172">
+      <c r="H199" s="172">
         <v>247185000</v>
       </c>
-      <c r="I197" s="181">
+      <c r="I199" s="181">
         <v>300000000</v>
       </c>
-      <c r="J197" s="176">
+      <c r="J199" s="176">
         <v>42219</v>
       </c>
-      <c r="K197" s="178" t="s">
+      <c r="K199" s="178" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A198" s="462"/>
-      <c r="B198" s="479"/>
-      <c r="C198" s="460"/>
-      <c r="D198" s="471"/>
-      <c r="E198" s="172">
+    <row r="200" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A200" s="462"/>
+      <c r="B200" s="481"/>
+      <c r="C200" s="460"/>
+      <c r="D200" s="473"/>
+      <c r="E200" s="172">
         <v>60382018</v>
       </c>
-      <c r="F198" s="443"/>
-      <c r="G198" s="172">
+      <c r="F200" s="445"/>
+      <c r="G200" s="172">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H198" s="172">
+      <c r="H200" s="172">
         <v>61180000</v>
       </c>
-      <c r="I198" s="181">
+      <c r="I200" s="181">
         <v>-100000000</v>
       </c>
-      <c r="J198" s="176">
+      <c r="J200" s="176">
         <v>42220</v>
       </c>
-      <c r="K198" s="187" t="s">
+      <c r="K200" s="187" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A199" s="462"/>
-      <c r="B199" s="479"/>
-      <c r="C199" s="460"/>
-      <c r="D199" s="471"/>
-      <c r="E199" s="172">
+    <row r="201" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A201" s="462"/>
+      <c r="B201" s="481"/>
+      <c r="C201" s="460"/>
+      <c r="D201" s="473"/>
+      <c r="E201" s="172">
         <v>295513229</v>
       </c>
-      <c r="F199" s="443"/>
-      <c r="G199" s="172">
+      <c r="F201" s="445"/>
+      <c r="G201" s="172">
         <f t="shared" si="9"/>
         <v>150000000</v>
       </c>
-      <c r="H199" s="172">
+      <c r="H201" s="172">
         <v>303311000</v>
       </c>
-      <c r="I199" s="225">
+      <c r="I201" s="225">
         <v>150000000</v>
       </c>
-      <c r="J199" s="229">
+      <c r="J201" s="229">
         <v>42251</v>
       </c>
-      <c r="K199" s="242" t="s">
+      <c r="K201" s="242" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A200" s="462"/>
-      <c r="B200" s="479"/>
-      <c r="C200" s="460"/>
-      <c r="D200" s="471"/>
-      <c r="E200" s="172">
+    <row r="202" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A202" s="462"/>
+      <c r="B202" s="481"/>
+      <c r="C202" s="460"/>
+      <c r="D202" s="473"/>
+      <c r="E202" s="172">
         <v>81027109</v>
       </c>
-      <c r="F200" s="443"/>
-      <c r="G200" s="172">
+      <c r="F202" s="445"/>
+      <c r="G202" s="172">
         <f t="shared" si="9"/>
         <v>150000000</v>
       </c>
-      <c r="H200" s="172">
+      <c r="H202" s="172">
         <v>82240000</v>
       </c>
-      <c r="I200" s="296">
+      <c r="I202" s="296">
         <v>150000000</v>
       </c>
-      <c r="J200" s="297">
+      <c r="J202" s="297">
         <v>42279</v>
       </c>
-      <c r="K200" s="294" t="s">
+      <c r="K202" s="294" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A201" s="462"/>
-      <c r="B201" s="479"/>
-      <c r="C201" s="460"/>
-      <c r="D201" s="471"/>
-      <c r="E201" s="172">
-        <v>11344513</v>
-      </c>
-      <c r="F201" s="443"/>
-      <c r="G201" s="382">
-        <v>123128513</v>
-      </c>
-      <c r="H201" s="389">
-        <v>19689000</v>
-      </c>
-      <c r="I201" s="385">
-        <v>123128513</v>
-      </c>
-      <c r="J201" s="384">
-        <v>42366</v>
-      </c>
-      <c r="K201" s="386" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A202" s="462"/>
-      <c r="B202" s="479"/>
-      <c r="C202" s="460"/>
-      <c r="D202" s="471"/>
-      <c r="E202" s="197">
-        <v>100001957</v>
-      </c>
-      <c r="F202" s="443"/>
-      <c r="G202" s="172"/>
-      <c r="H202" s="389">
-        <v>8483500</v>
-      </c>
-      <c r="I202" s="382"/>
-      <c r="J202" s="384"/>
-      <c r="K202" s="383"/>
     </row>
     <row r="203" spans="1:12" ht="16.5" customHeight="1">
       <c r="A203" s="462"/>
-      <c r="B203" s="479"/>
+      <c r="B203" s="481"/>
       <c r="C203" s="460"/>
-      <c r="D203" s="471"/>
-      <c r="E203" s="172"/>
-      <c r="F203" s="443"/>
-      <c r="G203" s="172"/>
+      <c r="D203" s="473"/>
+      <c r="E203" s="172">
+        <v>11344513</v>
+      </c>
+      <c r="F203" s="445"/>
+      <c r="G203" s="382">
+        <v>123128513</v>
+      </c>
       <c r="H203" s="389">
-        <v>11344513</v>
-      </c>
-      <c r="I203" s="382"/>
-      <c r="J203" s="384"/>
-      <c r="K203" s="383"/>
+        <v>19689000</v>
+      </c>
+      <c r="I203" s="385">
+        <v>123128513</v>
+      </c>
+      <c r="J203" s="384">
+        <v>42366</v>
+      </c>
+      <c r="K203" s="386" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="204" spans="1:12" ht="16.5" customHeight="1">
       <c r="A204" s="462"/>
-      <c r="B204" s="479"/>
-      <c r="C204" s="482"/>
-      <c r="D204" s="484"/>
-      <c r="E204" s="388"/>
-      <c r="F204" s="486"/>
-      <c r="G204" s="172">
+      <c r="B204" s="481"/>
+      <c r="C204" s="460"/>
+      <c r="D204" s="473"/>
+      <c r="E204" s="197">
+        <v>100001957</v>
+      </c>
+      <c r="F204" s="445"/>
+      <c r="G204" s="172"/>
+      <c r="H204" s="389">
+        <v>8483500</v>
+      </c>
+      <c r="I204" s="382"/>
+      <c r="J204" s="384"/>
+      <c r="K204" s="383"/>
+    </row>
+    <row r="205" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A205" s="462"/>
+      <c r="B205" s="481"/>
+      <c r="C205" s="460"/>
+      <c r="D205" s="473"/>
+      <c r="E205" s="172"/>
+      <c r="F205" s="445"/>
+      <c r="G205" s="172"/>
+      <c r="H205" s="389">
+        <v>11344513</v>
+      </c>
+      <c r="I205" s="382"/>
+      <c r="J205" s="384"/>
+      <c r="K205" s="383"/>
+    </row>
+    <row r="206" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A206" s="462"/>
+      <c r="B206" s="481"/>
+      <c r="C206" s="484"/>
+      <c r="D206" s="486"/>
+      <c r="E206" s="388"/>
+      <c r="F206" s="488"/>
+      <c r="G206" s="172">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H204" s="388"/>
-      <c r="I204" s="182"/>
-      <c r="J204" s="191"/>
-      <c r="K204" s="192"/>
-    </row>
-    <row r="205" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
-      <c r="A205" s="462"/>
-      <c r="B205" s="479"/>
-      <c r="C205" s="451" t="s">
+      <c r="H206" s="388"/>
+      <c r="I206" s="182"/>
+      <c r="J206" s="191"/>
+      <c r="K206" s="192"/>
+    </row>
+    <row r="207" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
+      <c r="A207" s="462"/>
+      <c r="B207" s="481"/>
+      <c r="C207" s="451" t="s">
         <v>94</v>
       </c>
-      <c r="D205" s="452"/>
-      <c r="E205" s="158">
-        <f>SUM(E195:E204)</f>
+      <c r="D207" s="452"/>
+      <c r="E207" s="158">
+        <f>SUM(E197:E206)</f>
         <v>1173128513</v>
       </c>
-      <c r="F205" s="158">
-        <f>SUM(F195:F204)</f>
+      <c r="F207" s="158">
+        <f>SUM(F197:F206)</f>
         <v>893000000</v>
       </c>
-      <c r="G205" s="158">
-        <f t="shared" ref="G205:I205" si="10">SUM(G195:G204)</f>
+      <c r="G207" s="158">
+        <f t="shared" ref="G207:I207" si="10">SUM(G197:G206)</f>
         <v>1173128513</v>
       </c>
-      <c r="H205" s="158">
-        <f>SUM(H195:H204)</f>
+      <c r="H207" s="158">
+        <f>SUM(H197:H206)</f>
         <v>1111107013</v>
       </c>
-      <c r="I205" s="158">
+      <c r="I207" s="158">
         <f t="shared" si="10"/>
         <v>1073128513</v>
       </c>
-      <c r="J205" s="160"/>
-      <c r="K205" s="160" t="s">
+      <c r="J207" s="160"/>
+      <c r="K207" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="L205" s="304"/>
-    </row>
-    <row r="206" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
-      <c r="A206" s="462"/>
-      <c r="B206" s="479"/>
-      <c r="C206" s="451" t="s">
+      <c r="L207" s="304"/>
+    </row>
+    <row r="208" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
+      <c r="A208" s="462"/>
+      <c r="B208" s="481"/>
+      <c r="C208" s="451" t="s">
         <v>380</v>
       </c>
-      <c r="D206" s="452"/>
-      <c r="E206" s="162"/>
-      <c r="F206" s="162"/>
-      <c r="G206" s="163">
-        <f>E205-G205</f>
-        <v>0</v>
-      </c>
-      <c r="H206" s="162"/>
-      <c r="I206" s="163">
-        <f>H205-I205</f>
+      <c r="D208" s="452"/>
+      <c r="E208" s="162"/>
+      <c r="F208" s="162"/>
+      <c r="G208" s="163">
+        <f>E207-G207</f>
+        <v>0</v>
+      </c>
+      <c r="H208" s="162"/>
+      <c r="I208" s="163">
+        <f>H207-I207</f>
         <v>37978500</v>
       </c>
-      <c r="J206" s="162"/>
-      <c r="K206" s="390"/>
-      <c r="L206" s="304"/>
-    </row>
-    <row r="207" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A207" s="462">
+      <c r="J208" s="162"/>
+      <c r="K208" s="390"/>
+      <c r="L208" s="304"/>
+    </row>
+    <row r="209" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A209" s="462">
         <v>27</v>
       </c>
-      <c r="B207" s="479" t="s">
+      <c r="B209" s="481" t="s">
         <v>269</v>
       </c>
-      <c r="C207" s="459" t="s">
+      <c r="C209" s="459" t="s">
         <v>403</v>
       </c>
-      <c r="D207" s="461">
+      <c r="D209" s="461">
         <v>42125</v>
       </c>
-      <c r="E207" s="442"/>
-      <c r="F207" s="442">
+      <c r="E209" s="444"/>
+      <c r="F209" s="444">
         <v>1489950000</v>
       </c>
-      <c r="G207" s="172">
-        <f>IF(I207&gt;0,I207,0)</f>
+      <c r="G209" s="172">
+        <f>IF(I209&gt;0,I209,0)</f>
         <v>200000000</v>
       </c>
-      <c r="H207" s="442">
+      <c r="H209" s="444">
         <v>868450000</v>
       </c>
-      <c r="I207" s="172">
+      <c r="I209" s="172">
         <v>200000000</v>
       </c>
-      <c r="J207" s="176">
+      <c r="J209" s="176">
         <v>42150</v>
       </c>
-      <c r="K207" s="174" t="s">
+      <c r="K209" s="174" t="s">
         <v>373</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A208" s="462"/>
-      <c r="B208" s="479"/>
-      <c r="C208" s="460"/>
-      <c r="D208" s="460"/>
-      <c r="E208" s="443"/>
-      <c r="F208" s="443"/>
-      <c r="G208" s="172">
-        <f t="shared" ref="G208:G214" si="11">IF(I208&gt;0,I208,0)</f>
-        <v>500000000</v>
-      </c>
-      <c r="H208" s="443"/>
-      <c r="I208" s="172">
-        <v>500000000</v>
-      </c>
-      <c r="J208" s="176">
-        <v>42198</v>
-      </c>
-      <c r="K208" s="174" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A209" s="462"/>
-      <c r="B209" s="479"/>
-      <c r="C209" s="460"/>
-      <c r="D209" s="460"/>
-      <c r="E209" s="443"/>
-      <c r="F209" s="443"/>
-      <c r="G209" s="172">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H209" s="443"/>
-      <c r="I209" s="193">
-        <v>-300000000</v>
-      </c>
-      <c r="J209" s="194">
-        <v>42199</v>
-      </c>
-      <c r="K209" s="195" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="210" spans="1:12" ht="16.5" customHeight="1">
       <c r="A210" s="462"/>
-      <c r="B210" s="479"/>
+      <c r="B210" s="481"/>
       <c r="C210" s="460"/>
       <c r="D210" s="460"/>
-      <c r="E210" s="443"/>
-      <c r="F210" s="443"/>
+      <c r="E210" s="445"/>
+      <c r="F210" s="445"/>
       <c r="G210" s="172">
+        <f t="shared" ref="G210:G216" si="11">IF(I210&gt;0,I210,0)</f>
+        <v>500000000</v>
+      </c>
+      <c r="H210" s="445"/>
+      <c r="I210" s="172">
+        <v>500000000</v>
+      </c>
+      <c r="J210" s="176">
+        <v>42198</v>
+      </c>
+      <c r="K210" s="174" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A211" s="462"/>
+      <c r="B211" s="481"/>
+      <c r="C211" s="460"/>
+      <c r="D211" s="460"/>
+      <c r="E211" s="445"/>
+      <c r="F211" s="445"/>
+      <c r="G211" s="172">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H211" s="445"/>
+      <c r="I211" s="193">
+        <v>-300000000</v>
+      </c>
+      <c r="J211" s="194">
+        <v>42199</v>
+      </c>
+      <c r="K211" s="195" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A212" s="462"/>
+      <c r="B212" s="481"/>
+      <c r="C212" s="460"/>
+      <c r="D212" s="460"/>
+      <c r="E212" s="445"/>
+      <c r="F212" s="445"/>
+      <c r="G212" s="172">
         <f t="shared" si="11"/>
         <v>500000000</v>
       </c>
-      <c r="H210" s="443"/>
-      <c r="I210" s="172">
+      <c r="H212" s="445"/>
+      <c r="I212" s="172">
         <v>500000000</v>
       </c>
-      <c r="J210" s="233">
+      <c r="J212" s="233">
         <v>42241</v>
       </c>
-      <c r="K210" s="232" t="s">
+      <c r="K212" s="232" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A211" s="462"/>
-      <c r="B211" s="479"/>
-      <c r="C211" s="460"/>
-      <c r="D211" s="460"/>
-      <c r="E211" s="443"/>
-      <c r="F211" s="443"/>
-      <c r="G211" s="172">
+    <row r="213" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A213" s="462"/>
+      <c r="B213" s="481"/>
+      <c r="C213" s="460"/>
+      <c r="D213" s="460"/>
+      <c r="E213" s="445"/>
+      <c r="F213" s="445"/>
+      <c r="G213" s="172">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H211" s="443"/>
-      <c r="I211" s="193">
+      <c r="H213" s="445"/>
+      <c r="I213" s="193">
         <v>-300000000</v>
       </c>
-      <c r="J211" s="194">
+      <c r="J213" s="194">
         <v>42242</v>
       </c>
-      <c r="K211" s="195" t="s">
+      <c r="K213" s="195" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A212" s="462"/>
-      <c r="B212" s="479"/>
-      <c r="C212" s="460"/>
-      <c r="D212" s="460"/>
-      <c r="E212" s="443"/>
-      <c r="F212" s="443"/>
-      <c r="G212" s="172">
+    <row r="214" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A214" s="462"/>
+      <c r="B214" s="481"/>
+      <c r="C214" s="460"/>
+      <c r="D214" s="460"/>
+      <c r="E214" s="445"/>
+      <c r="F214" s="445"/>
+      <c r="G214" s="172">
         <f t="shared" si="11"/>
         <v>400000000</v>
       </c>
-      <c r="H212" s="443"/>
-      <c r="I212" s="172">
+      <c r="H214" s="445"/>
+      <c r="I214" s="172">
         <v>400000000</v>
       </c>
-      <c r="J212" s="295">
+      <c r="J214" s="295">
         <v>42279</v>
       </c>
-      <c r="K212" s="298" t="s">
+      <c r="K214" s="298" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A213" s="462"/>
-      <c r="B213" s="479"/>
-      <c r="C213" s="460"/>
-      <c r="D213" s="460"/>
-      <c r="E213" s="443"/>
-      <c r="F213" s="443"/>
-      <c r="G213" s="172">
+    <row r="215" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A215" s="462"/>
+      <c r="B215" s="481"/>
+      <c r="C215" s="460"/>
+      <c r="D215" s="460"/>
+      <c r="E215" s="445"/>
+      <c r="F215" s="445"/>
+      <c r="G215" s="172">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H213" s="443"/>
-      <c r="I213" s="193">
+      <c r="H215" s="445"/>
+      <c r="I215" s="193">
         <v>-200000000</v>
       </c>
-      <c r="J213" s="194">
+      <c r="J215" s="194">
         <v>42286</v>
       </c>
-      <c r="K213" s="195" t="s">
+      <c r="K215" s="195" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A214" s="462"/>
-      <c r="B214" s="479"/>
-      <c r="C214" s="460"/>
-      <c r="D214" s="460"/>
-      <c r="E214" s="443"/>
-      <c r="F214" s="443"/>
-      <c r="G214" s="172">
+    <row r="216" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A216" s="462"/>
+      <c r="B216" s="481"/>
+      <c r="C216" s="460"/>
+      <c r="D216" s="460"/>
+      <c r="E216" s="445"/>
+      <c r="F216" s="445"/>
+      <c r="G216" s="172">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H214" s="443"/>
-      <c r="I214" s="151"/>
-      <c r="J214" s="176"/>
-      <c r="K214" s="188"/>
-    </row>
-    <row r="215" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
-      <c r="A215" s="462"/>
-      <c r="B215" s="479"/>
-      <c r="C215" s="451" t="s">
+      <c r="H216" s="445"/>
+      <c r="I216" s="151"/>
+      <c r="J216" s="176"/>
+      <c r="K216" s="188"/>
+    </row>
+    <row r="217" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
+      <c r="A217" s="462"/>
+      <c r="B217" s="481"/>
+      <c r="C217" s="451" t="s">
         <v>94</v>
       </c>
-      <c r="D215" s="452"/>
-      <c r="E215" s="158">
-        <f>SUM(E207:E214)</f>
-        <v>0</v>
-      </c>
-      <c r="F215" s="158">
-        <f>SUM(F207:F214)</f>
+      <c r="D217" s="452"/>
+      <c r="E217" s="158">
+        <f>SUM(E209:E216)</f>
+        <v>0</v>
+      </c>
+      <c r="F217" s="158">
+        <f>SUM(F209:F216)</f>
         <v>1489950000</v>
       </c>
-      <c r="G215" s="158">
-        <f>SUM(G207:G214)</f>
+      <c r="G217" s="158">
+        <f>SUM(G209:G216)</f>
         <v>1600000000</v>
       </c>
-      <c r="H215" s="158">
-        <f>SUM(H207:H214)</f>
+      <c r="H217" s="158">
+        <f>SUM(H209:H216)</f>
         <v>868450000</v>
       </c>
-      <c r="I215" s="158">
-        <f>SUM(I207:I214)</f>
+      <c r="I217" s="158">
+        <f>SUM(I209:I216)</f>
         <v>800000000</v>
       </c>
-      <c r="J215" s="159"/>
-      <c r="K215" s="160" t="s">
+      <c r="J217" s="159"/>
+      <c r="K217" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="L215" s="304"/>
-    </row>
-    <row r="216" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
-      <c r="A216" s="462"/>
-      <c r="B216" s="479"/>
-      <c r="C216" s="451" t="s">
+      <c r="L217" s="304"/>
+    </row>
+    <row r="218" spans="1:12" s="161" customFormat="1" ht="18" customHeight="1">
+      <c r="A218" s="462"/>
+      <c r="B218" s="481"/>
+      <c r="C218" s="451" t="s">
         <v>380</v>
       </c>
-      <c r="D216" s="452"/>
-      <c r="E216" s="162"/>
-      <c r="F216" s="162"/>
-      <c r="G216" s="163">
-        <f>E215-G215</f>
+      <c r="D218" s="452"/>
+      <c r="E218" s="162"/>
+      <c r="F218" s="162"/>
+      <c r="G218" s="163">
+        <f>E217-G217</f>
         <v>-1600000000</v>
       </c>
-      <c r="H216" s="162"/>
-      <c r="I216" s="163">
-        <f>H215-I215</f>
+      <c r="H218" s="162"/>
+      <c r="I218" s="163">
+        <f>H217-I217</f>
         <v>68450000</v>
       </c>
-      <c r="J216" s="159"/>
-      <c r="K216" s="160"/>
-      <c r="L216" s="304"/>
-    </row>
-    <row r="217" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A217" s="462">
+      <c r="J218" s="159"/>
+      <c r="K218" s="160"/>
+      <c r="L218" s="304"/>
+    </row>
+    <row r="219" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A219" s="462">
         <v>28</v>
       </c>
-      <c r="B217" s="479" t="s">
+      <c r="B219" s="481" t="s">
         <v>407</v>
       </c>
-      <c r="C217" s="459" t="s">
+      <c r="C219" s="459" t="s">
         <v>408</v>
       </c>
-      <c r="D217" s="461">
+      <c r="D219" s="461">
         <v>42205</v>
       </c>
-      <c r="E217" s="442"/>
-      <c r="F217" s="442">
+      <c r="E219" s="444"/>
+      <c r="F219" s="444">
         <v>282530000</v>
       </c>
-      <c r="G217" s="172">
-        <f t="shared" ref="G217:G225" si="12">IF(I217&gt;0,I217,0)</f>
+      <c r="G219" s="172">
+        <f t="shared" ref="G219:G227" si="12">IF(I219&gt;0,I219,0)</f>
         <v>90000000</v>
       </c>
-      <c r="H217" s="442">
+      <c r="H219" s="444">
         <v>282530000</v>
       </c>
-      <c r="I217" s="151">
+      <c r="I219" s="151">
         <v>90000000</v>
       </c>
-      <c r="J217" s="176">
+      <c r="J219" s="176">
         <v>42212</v>
       </c>
-      <c r="K217" s="174" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A218" s="462"/>
-      <c r="B218" s="479"/>
-      <c r="C218" s="460"/>
-      <c r="D218" s="471"/>
-      <c r="E218" s="443"/>
-      <c r="F218" s="443"/>
-      <c r="G218" s="172">
-        <f t="shared" si="12"/>
-        <v>50000000</v>
-      </c>
-      <c r="H218" s="443"/>
-      <c r="I218" s="151">
-        <v>50000000</v>
-      </c>
-      <c r="J218" s="214">
-        <v>42229</v>
-      </c>
-      <c r="K218" s="215" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A219" s="462"/>
-      <c r="B219" s="479"/>
-      <c r="C219" s="460"/>
-      <c r="D219" s="471"/>
-      <c r="E219" s="443"/>
-      <c r="F219" s="443"/>
-      <c r="G219" s="172">
-        <f t="shared" si="12"/>
-        <v>50000000</v>
-      </c>
-      <c r="H219" s="443"/>
-      <c r="I219" s="151">
-        <v>50000000</v>
-      </c>
-      <c r="J219" s="233">
-        <v>42241</v>
-      </c>
-      <c r="K219" s="232" t="s">
+      <c r="K219" s="174" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="220" spans="1:12" ht="16.5" customHeight="1">
       <c r="A220" s="462"/>
-      <c r="B220" s="479"/>
+      <c r="B220" s="481"/>
       <c r="C220" s="460"/>
-      <c r="D220" s="471"/>
-      <c r="E220" s="443"/>
-      <c r="F220" s="443"/>
+      <c r="D220" s="473"/>
+      <c r="E220" s="445"/>
+      <c r="F220" s="445"/>
       <c r="G220" s="172">
         <f t="shared" si="12"/>
         <v>50000000</v>
       </c>
-      <c r="H220" s="443"/>
+      <c r="H220" s="445"/>
       <c r="I220" s="151">
         <v>50000000</v>
       </c>
-      <c r="J220" s="281">
-        <v>42251</v>
-      </c>
-      <c r="K220" s="280" t="s">
+      <c r="J220" s="214">
+        <v>42229</v>
+      </c>
+      <c r="K220" s="215" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="221" spans="1:12" ht="16.5" customHeight="1">
       <c r="A221" s="462"/>
-      <c r="B221" s="479"/>
+      <c r="B221" s="481"/>
       <c r="C221" s="460"/>
-      <c r="D221" s="471"/>
-      <c r="E221" s="443"/>
-      <c r="F221" s="443"/>
+      <c r="D221" s="473"/>
+      <c r="E221" s="445"/>
+      <c r="F221" s="445"/>
       <c r="G221" s="172">
         <f t="shared" si="12"/>
-        <v>30000000</v>
-      </c>
-      <c r="H221" s="443"/>
+        <v>50000000</v>
+      </c>
+      <c r="H221" s="445"/>
       <c r="I221" s="151">
-        <v>30000000</v>
-      </c>
-      <c r="J221" s="310">
-        <v>42285</v>
-      </c>
-      <c r="K221" s="311" t="s">
+        <v>50000000</v>
+      </c>
+      <c r="J221" s="233">
+        <v>42241</v>
+      </c>
+      <c r="K221" s="232" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="222" spans="1:12" ht="16.5" customHeight="1">
       <c r="A222" s="462"/>
-      <c r="B222" s="479"/>
+      <c r="B222" s="481"/>
       <c r="C222" s="460"/>
-      <c r="D222" s="471"/>
-      <c r="E222" s="443"/>
-      <c r="F222" s="443"/>
-      <c r="G222" s="172"/>
-      <c r="H222" s="443"/>
+      <c r="D222" s="473"/>
+      <c r="E222" s="445"/>
+      <c r="F222" s="445"/>
+      <c r="G222" s="172">
+        <f t="shared" si="12"/>
+        <v>50000000</v>
+      </c>
+      <c r="H222" s="445"/>
       <c r="I222" s="151">
-        <v>10000000</v>
-      </c>
-      <c r="J222" s="310">
-        <v>42306</v>
-      </c>
-      <c r="K222" s="311" t="s">
-        <v>387</v>
+        <v>50000000</v>
+      </c>
+      <c r="J222" s="281">
+        <v>42251</v>
+      </c>
+      <c r="K222" s="280" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="223" spans="1:12" ht="16.5" customHeight="1">
       <c r="A223" s="462"/>
-      <c r="B223" s="479"/>
+      <c r="B223" s="481"/>
       <c r="C223" s="460"/>
-      <c r="D223" s="471"/>
-      <c r="E223" s="443"/>
-      <c r="F223" s="443"/>
+      <c r="D223" s="473"/>
+      <c r="E223" s="445"/>
+      <c r="F223" s="445"/>
       <c r="G223" s="172">
         <f t="shared" si="12"/>
         <v>30000000</v>
       </c>
-      <c r="H223" s="443"/>
+      <c r="H223" s="445"/>
       <c r="I223" s="151">
         <v>30000000</v>
       </c>
-      <c r="J223" s="329">
-        <v>42342</v>
-      </c>
-      <c r="K223" s="381" t="s">
+      <c r="J223" s="310">
+        <v>42285</v>
+      </c>
+      <c r="K223" s="311" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="224" spans="1:12" ht="16.5" customHeight="1">
       <c r="A224" s="462"/>
-      <c r="B224" s="479"/>
+      <c r="B224" s="481"/>
       <c r="C224" s="460"/>
-      <c r="D224" s="471"/>
-      <c r="E224" s="443"/>
-      <c r="F224" s="443"/>
-      <c r="G224" s="172">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H224" s="443"/>
-      <c r="I224" s="151"/>
-      <c r="J224" s="329"/>
-      <c r="K224" s="328"/>
+      <c r="D224" s="473"/>
+      <c r="E224" s="445"/>
+      <c r="F224" s="445"/>
+      <c r="G224" s="172"/>
+      <c r="H224" s="445"/>
+      <c r="I224" s="151">
+        <v>10000000</v>
+      </c>
+      <c r="J224" s="310">
+        <v>42306</v>
+      </c>
+      <c r="K224" s="311" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="225" spans="1:13" ht="16.5" customHeight="1">
       <c r="A225" s="462"/>
-      <c r="B225" s="479"/>
+      <c r="B225" s="481"/>
       <c r="C225" s="460"/>
-      <c r="D225" s="460"/>
-      <c r="E225" s="443"/>
-      <c r="F225" s="443"/>
+      <c r="D225" s="473"/>
+      <c r="E225" s="445"/>
+      <c r="F225" s="445"/>
       <c r="G225" s="172">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H225" s="443"/>
-      <c r="I225" s="151"/>
-      <c r="J225" s="176"/>
-      <c r="K225" s="300"/>
-    </row>
-    <row r="226" spans="1:13" s="161" customFormat="1" ht="18" customHeight="1">
+        <v>30000000</v>
+      </c>
+      <c r="H225" s="445"/>
+      <c r="I225" s="151">
+        <v>30000000</v>
+      </c>
+      <c r="J225" s="329">
+        <v>42342</v>
+      </c>
+      <c r="K225" s="381" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" ht="16.5" customHeight="1">
       <c r="A226" s="462"/>
-      <c r="B226" s="479"/>
-      <c r="C226" s="451" t="s">
+      <c r="B226" s="481"/>
+      <c r="C226" s="460"/>
+      <c r="D226" s="473"/>
+      <c r="E226" s="445"/>
+      <c r="F226" s="445"/>
+      <c r="G226" s="172">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H226" s="445"/>
+      <c r="I226" s="151"/>
+      <c r="J226" s="329"/>
+      <c r="K226" s="328"/>
+    </row>
+    <row r="227" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A227" s="462"/>
+      <c r="B227" s="481"/>
+      <c r="C227" s="460"/>
+      <c r="D227" s="460"/>
+      <c r="E227" s="445"/>
+      <c r="F227" s="445"/>
+      <c r="G227" s="172">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H227" s="445"/>
+      <c r="I227" s="151"/>
+      <c r="J227" s="176"/>
+      <c r="K227" s="300"/>
+    </row>
+    <row r="228" spans="1:13" s="161" customFormat="1" ht="18" customHeight="1">
+      <c r="A228" s="462"/>
+      <c r="B228" s="481"/>
+      <c r="C228" s="451" t="s">
         <v>94</v>
       </c>
-      <c r="D226" s="452"/>
-      <c r="E226" s="158">
-        <f>SUM(E217:E225)</f>
-        <v>0</v>
-      </c>
-      <c r="F226" s="158">
-        <f>SUM(F217:F225)</f>
+      <c r="D228" s="452"/>
+      <c r="E228" s="158">
+        <f>SUM(E219:E227)</f>
+        <v>0</v>
+      </c>
+      <c r="F228" s="158">
+        <f>SUM(F219:F227)</f>
         <v>282530000</v>
       </c>
-      <c r="G226" s="158">
-        <f>SUM(G217:G225)</f>
+      <c r="G228" s="158">
+        <f>SUM(G219:G227)</f>
         <v>300000000</v>
       </c>
-      <c r="H226" s="158">
-        <f>SUM(H217:H225)</f>
+      <c r="H228" s="158">
+        <f>SUM(H219:H227)</f>
         <v>282530000</v>
       </c>
-      <c r="I226" s="158">
-        <f>SUM(I217:I225)</f>
+      <c r="I228" s="158">
+        <f>SUM(I219:I227)</f>
         <v>310000000</v>
       </c>
-      <c r="J226" s="159"/>
-      <c r="K226" s="160" t="s">
+      <c r="J228" s="159"/>
+      <c r="K228" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="L226" s="304"/>
-    </row>
-    <row r="227" spans="1:13" s="161" customFormat="1" ht="18" customHeight="1">
-      <c r="A227" s="462"/>
-      <c r="B227" s="479"/>
-      <c r="C227" s="451" t="s">
+      <c r="L228" s="304"/>
+    </row>
+    <row r="229" spans="1:13" s="161" customFormat="1" ht="18" customHeight="1">
+      <c r="A229" s="462"/>
+      <c r="B229" s="481"/>
+      <c r="C229" s="451" t="s">
         <v>380</v>
       </c>
-      <c r="D227" s="452"/>
-      <c r="E227" s="162"/>
-      <c r="F227" s="162"/>
-      <c r="G227" s="163">
-        <f>E226-G226</f>
+      <c r="D229" s="452"/>
+      <c r="E229" s="162"/>
+      <c r="F229" s="162"/>
+      <c r="G229" s="163">
+        <f>E228-G228</f>
         <v>-300000000</v>
       </c>
-      <c r="H227" s="162"/>
-      <c r="I227" s="163">
-        <f>H226-I226</f>
+      <c r="H229" s="162"/>
+      <c r="I229" s="163">
+        <f>H228-I228</f>
         <v>-27470000</v>
       </c>
-      <c r="J227" s="159"/>
-      <c r="K227" s="160"/>
-      <c r="L227" s="304"/>
-    </row>
-    <row r="228" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A228" s="462">
+      <c r="J229" s="159"/>
+      <c r="K229" s="160"/>
+      <c r="L229" s="304"/>
+    </row>
+    <row r="230" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A230" s="462">
         <v>29</v>
       </c>
-      <c r="B228" s="479" t="s">
+      <c r="B230" s="481" t="s">
         <v>428</v>
       </c>
-      <c r="C228" s="207" t="str">
+      <c r="C230" s="207" t="str">
         <f ca="1">"Chi phí TM (có HĐ) đến "&amp; TEXT(NOW(),"dd/MM/yy")</f>
-        <v>Chi phí TM (có HĐ) đến 09/01/16</v>
-      </c>
-      <c r="D228" s="189"/>
-      <c r="E228" s="212">
-        <f t="array" ref="E228">SUM(IF(KHN&amp;KHC="642"&amp;"1111",TH))</f>
-        <v>103674725</v>
-      </c>
-      <c r="F228" s="223">
-        <f t="array" ref="F228">SUM(IF(KHN&amp;KHC="642"&amp;"1111",TH))</f>
-        <v>103674725</v>
-      </c>
-      <c r="G228" s="212">
-        <f>F228</f>
-        <v>103674725</v>
-      </c>
-      <c r="H228" s="226">
-        <f t="shared" ref="H228:I228" si="13">G228</f>
-        <v>103674725</v>
-      </c>
-      <c r="I228" s="226">
+        <v>Chi phí TM (có HĐ) đến 12/01/16</v>
+      </c>
+      <c r="D230" s="189"/>
+      <c r="E230" s="212">
+        <f t="array" ref="E230">SUM(IF(KHN&amp;KHC="642"&amp;"1111",TH))</f>
+        <v>110993002</v>
+      </c>
+      <c r="F230" s="223">
+        <f t="array" ref="F230">SUM(IF(KHN&amp;KHC="642"&amp;"1111",TH))</f>
+        <v>110993002</v>
+      </c>
+      <c r="G230" s="212">
+        <f>F230</f>
+        <v>110993002</v>
+      </c>
+      <c r="H230" s="226">
+        <f t="shared" ref="H230:I230" si="13">G230</f>
+        <v>110993002</v>
+      </c>
+      <c r="I230" s="226">
         <f t="shared" si="13"/>
-        <v>103674725</v>
-      </c>
-      <c r="J228" s="205" t="str">
-        <f>IF(D228&lt;&gt;"",D228,"")</f>
-        <v/>
-      </c>
-      <c r="K228" s="211" t="s">
+        <v>110993002</v>
+      </c>
+      <c r="J230" s="205" t="str">
+        <f>IF(D230&lt;&gt;"",D230,"")</f>
+        <v/>
+      </c>
+      <c r="K230" s="211" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A229" s="462"/>
-      <c r="B229" s="479"/>
-      <c r="C229" s="211" t="str">
+    <row r="231" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A231" s="462"/>
+      <c r="B231" s="481"/>
+      <c r="C231" s="211" t="str">
         <f ca="1">"CP lãi vay ( 09/2014 - "&amp;MONTH(NOW())&amp;"/"&amp;YEAR(NOW())&amp;" )"</f>
         <v>CP lãi vay ( 09/2014 - 1/2016 )</v>
       </c>
-      <c r="D229" s="173"/>
-      <c r="E229" s="212">
-        <f t="array" ref="E229">SUM(IF(KHN&amp;KHC="635"&amp;"1121",TH))</f>
+      <c r="D231" s="173"/>
+      <c r="E231" s="212">
+        <f t="array" ref="E231">SUM(IF(KHN&amp;KHC="635"&amp;"1121",TH))</f>
         <v>1532829404</v>
       </c>
-      <c r="F229" s="223">
-        <f t="array" ref="F229">SUM(IF(KHN&amp;KHC="635"&amp;"1121",TH))</f>
+      <c r="F231" s="223">
+        <f t="array" ref="F231">SUM(IF(KHN&amp;KHC="635"&amp;"1121",TH))</f>
         <v>1532829404</v>
       </c>
-      <c r="G229" s="226">
-        <f t="shared" ref="G229:I232" si="14">F229</f>
+      <c r="G231" s="226">
+        <f t="shared" ref="G231:I234" si="14">F231</f>
         <v>1532829404</v>
       </c>
-      <c r="H229" s="226">
+      <c r="H231" s="226">
         <f t="shared" si="14"/>
         <v>1532829404</v>
       </c>
-      <c r="I229" s="226">
+      <c r="I231" s="226">
         <f t="shared" si="14"/>
         <v>1532829404</v>
       </c>
-      <c r="J229" s="205" t="str">
-        <f t="shared" ref="J229" si="15">IF(D229&lt;&gt;"",D229,"")</f>
-        <v/>
-      </c>
-      <c r="K229" s="211" t="s">
+      <c r="J231" s="205" t="str">
+        <f t="shared" ref="J231" si="15">IF(D231&lt;&gt;"",D231,"")</f>
+        <v/>
+      </c>
+      <c r="K231" s="211" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A230" s="462"/>
-      <c r="B230" s="479"/>
-      <c r="C230" s="211" t="s">
+    <row r="232" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A232" s="462"/>
+      <c r="B232" s="481"/>
+      <c r="C232" s="211" t="s">
         <v>427</v>
       </c>
-      <c r="D230" s="173">
+      <c r="D232" s="173">
         <v>42130</v>
       </c>
-      <c r="E230" s="226"/>
-      <c r="F230" s="223">
+      <c r="E232" s="226"/>
+      <c r="F232" s="223">
         <v>23000000</v>
       </c>
-      <c r="G230" s="226">
+      <c r="G232" s="226">
         <f t="shared" si="14"/>
         <v>23000000</v>
       </c>
-      <c r="H230" s="226">
+      <c r="H232" s="226">
         <f t="shared" si="14"/>
         <v>23000000</v>
       </c>
-      <c r="I230" s="226">
+      <c r="I232" s="226">
         <f t="shared" si="14"/>
         <v>23000000</v>
       </c>
-      <c r="J230" s="205">
-        <f t="shared" ref="J230:J232" si="16">IF(D230&lt;&gt;"",D230,"")</f>
+      <c r="J232" s="205">
+        <f t="shared" ref="J232:J234" si="16">IF(D232&lt;&gt;"",D232,"")</f>
         <v>42130</v>
       </c>
-      <c r="K230" s="211" t="s">
+      <c r="K232" s="211" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A231" s="462"/>
-      <c r="B231" s="479"/>
-      <c r="C231" s="204" t="s">
+    <row r="233" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A233" s="462"/>
+      <c r="B233" s="481"/>
+      <c r="C233" s="204" t="s">
         <v>429</v>
       </c>
-      <c r="D231" s="205">
+      <c r="D233" s="205">
         <v>42224</v>
       </c>
-      <c r="E231" s="206"/>
-      <c r="F231" s="220">
+      <c r="E233" s="206"/>
+      <c r="F233" s="220">
         <v>3740000</v>
       </c>
-      <c r="G231" s="226">
+      <c r="G233" s="226">
         <f t="shared" si="14"/>
         <v>3740000</v>
       </c>
-      <c r="H231" s="226">
+      <c r="H233" s="226">
         <f t="shared" si="14"/>
         <v>3740000</v>
       </c>
-      <c r="I231" s="226">
+      <c r="I233" s="226">
         <f t="shared" si="14"/>
         <v>3740000</v>
       </c>
-      <c r="J231" s="205">
+      <c r="J233" s="205">
         <f t="shared" si="16"/>
         <v>42224</v>
       </c>
-      <c r="K231" s="211" t="s">
+      <c r="K233" s="211" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A232" s="462"/>
-      <c r="B232" s="479"/>
-      <c r="C232" s="204"/>
-      <c r="D232" s="205"/>
-      <c r="E232" s="206"/>
-      <c r="F232" s="220"/>
-      <c r="G232" s="226">
+    <row r="234" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A234" s="462"/>
+      <c r="B234" s="481"/>
+      <c r="C234" s="204"/>
+      <c r="D234" s="205"/>
+      <c r="E234" s="206"/>
+      <c r="F234" s="220"/>
+      <c r="G234" s="226">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H232" s="226">
+      <c r="H234" s="226">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I232" s="226">
+      <c r="I234" s="226">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J232" s="205" t="str">
+      <c r="J234" s="205" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="K232" s="211"/>
-    </row>
-    <row r="233" spans="1:13" s="161" customFormat="1" ht="18" customHeight="1">
-      <c r="A233" s="462"/>
-      <c r="B233" s="479"/>
-      <c r="C233" s="451" t="s">
+      <c r="K234" s="211"/>
+    </row>
+    <row r="235" spans="1:13" s="161" customFormat="1" ht="18" customHeight="1">
+      <c r="A235" s="462"/>
+      <c r="B235" s="481"/>
+      <c r="C235" s="451" t="s">
         <v>94</v>
       </c>
-      <c r="D233" s="452"/>
-      <c r="E233" s="158">
-        <f>SUM(E228:E232)</f>
-        <v>1636504129</v>
-      </c>
-      <c r="F233" s="158">
-        <f>SUM(F228:F232)</f>
-        <v>1663244129</v>
-      </c>
-      <c r="G233" s="158">
-        <f>SUM(G228:G232)</f>
-        <v>1663244129</v>
-      </c>
-      <c r="H233" s="158">
-        <f>SUM(H228:H232)</f>
-        <v>1663244129</v>
-      </c>
-      <c r="I233" s="158">
-        <f>SUM(I228:I232)</f>
-        <v>1663244129</v>
-      </c>
-      <c r="J233" s="159"/>
-      <c r="K233" s="160" t="s">
+      <c r="D235" s="452"/>
+      <c r="E235" s="158">
+        <f>SUM(E230:E234)</f>
+        <v>1643822406</v>
+      </c>
+      <c r="F235" s="158">
+        <f>SUM(F230:F234)</f>
+        <v>1670562406</v>
+      </c>
+      <c r="G235" s="158">
+        <f>SUM(G230:G234)</f>
+        <v>1670562406</v>
+      </c>
+      <c r="H235" s="158">
+        <f>SUM(H230:H234)</f>
+        <v>1670562406</v>
+      </c>
+      <c r="I235" s="158">
+        <f>SUM(I230:I234)</f>
+        <v>1670562406</v>
+      </c>
+      <c r="J235" s="159"/>
+      <c r="K235" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="L233" s="304"/>
-    </row>
-    <row r="234" spans="1:13" s="161" customFormat="1" ht="18" customHeight="1">
-      <c r="A234" s="462"/>
-      <c r="B234" s="479"/>
-      <c r="C234" s="451" t="s">
+      <c r="L235" s="304"/>
+    </row>
+    <row r="236" spans="1:13" s="161" customFormat="1" ht="18" customHeight="1">
+      <c r="A236" s="462"/>
+      <c r="B236" s="481"/>
+      <c r="C236" s="451" t="s">
         <v>380</v>
       </c>
-      <c r="D234" s="452"/>
-      <c r="E234" s="162"/>
-      <c r="F234" s="162"/>
-      <c r="G234" s="163"/>
-      <c r="H234" s="162"/>
-      <c r="I234" s="163">
-        <f>H233-I233</f>
-        <v>0</v>
-      </c>
-      <c r="J234" s="159"/>
-      <c r="K234" s="160"/>
-      <c r="L234" s="304"/>
-    </row>
-    <row r="235" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A235" s="491" t="s">
+      <c r="D236" s="452"/>
+      <c r="E236" s="162"/>
+      <c r="F236" s="162"/>
+      <c r="G236" s="163"/>
+      <c r="H236" s="162"/>
+      <c r="I236" s="163">
+        <f>H235-I235</f>
+        <v>0</v>
+      </c>
+      <c r="J236" s="159"/>
+      <c r="K236" s="160"/>
+      <c r="L236" s="304"/>
+    </row>
+    <row r="237" spans="1:13" ht="28.5" customHeight="1">
+      <c r="A237" s="493" t="s">
         <v>409</v>
       </c>
-      <c r="B235" s="492"/>
-      <c r="C235" s="492"/>
-      <c r="D235" s="493"/>
-      <c r="E235" s="146">
-        <f>SUMIF(DSTT,"x",$E$7:$E$234)</f>
-        <v>21641333652</v>
-      </c>
-      <c r="F235" s="146">
-        <f>SUMIF(DSTT,"x",$F$7:$F$234)</f>
-        <v>35513786077</v>
-      </c>
-      <c r="G235" s="146">
-        <f>SUMIF(DSTT,"x",$G$7:$G$234)</f>
-        <v>28576735032</v>
-      </c>
-      <c r="H235" s="146">
-        <f>SUMIF(DSTT,"x",$H$7:$H$234)</f>
-        <v>31098415060</v>
-      </c>
-      <c r="I235" s="146">
-        <f>SUMIF(DSTT,"x",$I$7:$I$234)</f>
-        <v>25397540032</v>
-      </c>
-      <c r="J235" s="196"/>
-      <c r="K235" s="196"/>
-      <c r="M235" s="197"/>
-    </row>
-    <row r="236" spans="1:13" ht="17.25" customHeight="1"/>
-    <row r="237" spans="1:13" ht="17.25" customHeight="1"/>
+      <c r="B237" s="494"/>
+      <c r="C237" s="494"/>
+      <c r="D237" s="495"/>
+      <c r="E237" s="146">
+        <f>SUMIF(DSTT,"x",$E$7:$E$236)</f>
+        <v>21648651929</v>
+      </c>
+      <c r="F237" s="146">
+        <f>SUMIF(DSTT,"x",$F$7:$F$236)</f>
+        <v>35521104354</v>
+      </c>
+      <c r="G237" s="146">
+        <f>SUMIF(DSTT,"x",$G$7:$G$236)</f>
+        <v>28584053309</v>
+      </c>
+      <c r="H237" s="146">
+        <f>SUMIF(DSTT,"x",$H$7:$H$236)</f>
+        <v>31100533337</v>
+      </c>
+      <c r="I237" s="146">
+        <f>SUMIF(DSTT,"x",$I$7:$I$236)</f>
+        <v>25249658309</v>
+      </c>
+      <c r="J237" s="196"/>
+      <c r="K237" s="196"/>
+      <c r="M237" s="197"/>
+    </row>
     <row r="238" spans="1:13" ht="17.25" customHeight="1"/>
-    <row r="239" spans="1:13" ht="17.25" customHeight="1">
-      <c r="J239" s="198" t="s">
+    <row r="239" spans="1:13" ht="17.25" customHeight="1"/>
+    <row r="240" spans="1:13" ht="17.25" customHeight="1"/>
+    <row r="241" spans="10:13" ht="17.25" customHeight="1">
+      <c r="J241" s="198" t="s">
         <v>387</v>
       </c>
-      <c r="K239" s="199">
-        <f>SUMIF(DSTT,J239,DSTT1)</f>
-        <v>1973244129</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" ht="17.25" customHeight="1">
-      <c r="J240" s="198" t="s">
+      <c r="K241" s="199">
+        <f>SUMIF(DSTT,J241,DSTT1)</f>
+        <v>1980562406</v>
+      </c>
+    </row>
+    <row r="242" spans="10:13" ht="17.25" customHeight="1">
+      <c r="J242" s="198" t="s">
         <v>373</v>
       </c>
-      <c r="K240" s="199">
-        <f>SUMIF(DSTT,J240,DSTT1)</f>
-        <v>26868610903</v>
-      </c>
-      <c r="L240" s="197">
+      <c r="K242" s="199">
+        <f>SUMIF(DSTT,J242,DSTT1)</f>
+        <v>26713410903</v>
+      </c>
+      <c r="L242" s="197">
         <f>'331'!E41</f>
         <v>27506120790</v>
       </c>
-      <c r="M240" s="200">
-        <f>K240-L240+L241</f>
-        <v>-637182287</v>
-      </c>
-    </row>
-    <row r="241" spans="10:12" ht="17.25" customHeight="1">
-      <c r="J241" s="201" t="s">
+      <c r="M242" s="200">
+        <f>K242-L242+L243</f>
+        <v>-792382287</v>
+      </c>
+    </row>
+    <row r="243" spans="10:13" ht="17.25" customHeight="1">
+      <c r="J243" s="201" t="s">
         <v>391</v>
       </c>
-      <c r="K241" s="199">
-        <f>SUMIF(DSTT,J241,DSTT1)</f>
+      <c r="K243" s="199">
+        <f>SUMIF(DSTT,J243,DSTT1)</f>
         <v>-3489195000</v>
       </c>
-      <c r="L241" s="197">
+      <c r="L243" s="197">
         <f>327600</f>
         <v>327600</v>
       </c>
     </row>
-    <row r="242" spans="10:12" ht="17.25" customHeight="1"/>
-    <row r="243" spans="10:12" ht="17.25" customHeight="1">
-      <c r="K243" s="202"/>
+    <row r="244" spans="10:13" ht="17.25" customHeight="1"/>
+    <row r="245" spans="10:13" ht="17.25" customHeight="1">
+      <c r="K245" s="202"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:M216"/>
+  <autoFilter ref="A4:M218"/>
   <mergeCells count="253">
-    <mergeCell ref="F217:F225"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A217:A227"/>
-    <mergeCell ref="B217:B227"/>
-    <mergeCell ref="C217:C225"/>
-    <mergeCell ref="D217:D225"/>
-    <mergeCell ref="E217:E225"/>
-    <mergeCell ref="A207:A216"/>
-    <mergeCell ref="B207:B216"/>
-    <mergeCell ref="C207:C214"/>
-    <mergeCell ref="D207:D214"/>
-    <mergeCell ref="E207:E214"/>
-    <mergeCell ref="H217:H225"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="C227:D227"/>
-    <mergeCell ref="A228:A234"/>
-    <mergeCell ref="B228:B234"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="F219:F227"/>
+    <mergeCell ref="A237:D237"/>
+    <mergeCell ref="A219:A229"/>
+    <mergeCell ref="B219:B229"/>
+    <mergeCell ref="C219:C227"/>
+    <mergeCell ref="D219:D227"/>
+    <mergeCell ref="E219:E227"/>
+    <mergeCell ref="A209:A218"/>
+    <mergeCell ref="B209:B218"/>
+    <mergeCell ref="C209:C216"/>
+    <mergeCell ref="D209:D216"/>
+    <mergeCell ref="E209:E216"/>
+    <mergeCell ref="H219:H227"/>
+    <mergeCell ref="C228:D228"/>
+    <mergeCell ref="C229:D229"/>
+    <mergeCell ref="A230:A236"/>
+    <mergeCell ref="B230:B236"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="C236:D236"/>
     <mergeCell ref="H54:H55"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C58:D58"/>
@@ -62004,6 +62337,7 @@
     <mergeCell ref="C100:C112"/>
     <mergeCell ref="H91:H93"/>
     <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C72:D72"/>
     <mergeCell ref="H153:H154"/>
     <mergeCell ref="C155:D155"/>
     <mergeCell ref="F153:F154"/>
@@ -62015,35 +62349,35 @@
     <mergeCell ref="E132:E139"/>
     <mergeCell ref="F127:F131"/>
     <mergeCell ref="F132:F139"/>
-    <mergeCell ref="H207:H214"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="F207:F214"/>
-    <mergeCell ref="H187:H192"/>
-    <mergeCell ref="A195:A206"/>
-    <mergeCell ref="B195:B206"/>
-    <mergeCell ref="C195:C204"/>
-    <mergeCell ref="D195:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="F187:F192"/>
-    <mergeCell ref="C187:C192"/>
-    <mergeCell ref="F195:F204"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="E187:E192"/>
-    <mergeCell ref="D187:D192"/>
-    <mergeCell ref="F182:F186"/>
-    <mergeCell ref="E182:E186"/>
-    <mergeCell ref="H182:H186"/>
+    <mergeCell ref="H209:H216"/>
+    <mergeCell ref="C217:D217"/>
+    <mergeCell ref="C218:D218"/>
+    <mergeCell ref="F209:F216"/>
+    <mergeCell ref="H189:H194"/>
+    <mergeCell ref="A197:A208"/>
+    <mergeCell ref="B197:B208"/>
+    <mergeCell ref="C197:C206"/>
+    <mergeCell ref="D197:D206"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="F189:F194"/>
+    <mergeCell ref="C189:C194"/>
+    <mergeCell ref="F197:F206"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="C196:D196"/>
+    <mergeCell ref="E189:E194"/>
+    <mergeCell ref="D189:D194"/>
+    <mergeCell ref="F184:F188"/>
+    <mergeCell ref="E184:E188"/>
+    <mergeCell ref="H184:H188"/>
     <mergeCell ref="A80:A90"/>
     <mergeCell ref="B80:B90"/>
     <mergeCell ref="C80:C82"/>
     <mergeCell ref="D80:D82"/>
-    <mergeCell ref="A182:A194"/>
-    <mergeCell ref="B182:B194"/>
-    <mergeCell ref="C182:C186"/>
-    <mergeCell ref="D182:D186"/>
+    <mergeCell ref="A184:A196"/>
+    <mergeCell ref="B184:B196"/>
+    <mergeCell ref="C184:C188"/>
+    <mergeCell ref="D184:D188"/>
     <mergeCell ref="C125:D125"/>
     <mergeCell ref="C126:D126"/>
     <mergeCell ref="A157:A170"/>
@@ -62052,7 +62386,7 @@
     <mergeCell ref="D157:D168"/>
     <mergeCell ref="C169:D169"/>
     <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="A178:A183"/>
     <mergeCell ref="C156:D156"/>
     <mergeCell ref="C140:D140"/>
     <mergeCell ref="C141:D141"/>
@@ -62062,14 +62396,14 @@
     <mergeCell ref="C176:D176"/>
     <mergeCell ref="C177:D177"/>
     <mergeCell ref="F171:F175"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="E178:E179"/>
-    <mergeCell ref="H178:H179"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="F178:F179"/>
+    <mergeCell ref="B178:B183"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="D178:D181"/>
+    <mergeCell ref="E178:E181"/>
+    <mergeCell ref="H178:H181"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="F178:F181"/>
     <mergeCell ref="A100:A126"/>
     <mergeCell ref="B100:B126"/>
     <mergeCell ref="C74:C77"/>
@@ -62103,6 +62437,15 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="A142:A152"/>
     <mergeCell ref="B142:B152"/>
     <mergeCell ref="C142:C150"/>
@@ -62151,15 +62494,6 @@
     <mergeCell ref="B127:B141"/>
     <mergeCell ref="C127:C131"/>
     <mergeCell ref="D127:D131"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C53:D53"/>
     <mergeCell ref="A66:A73"/>
     <mergeCell ref="B66:B73"/>
     <mergeCell ref="A45:A53"/>
@@ -62173,8 +62507,6 @@
     <mergeCell ref="D36:D42"/>
     <mergeCell ref="A62:A65"/>
     <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C62:C63"/>
     <mergeCell ref="D62:D63"/>
     <mergeCell ref="E62:E63"/>
@@ -62186,6 +62518,7 @@
     <mergeCell ref="E45:E51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="D45:D51"/>
+    <mergeCell ref="C53:D53"/>
     <mergeCell ref="F45:F51"/>
     <mergeCell ref="F54:F55"/>
     <mergeCell ref="F62:F63"/>
@@ -62225,8 +62558,8 @@
   </sheetPr>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showZeros="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="17.25" customHeight="1"/>
@@ -62244,38 +62577,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A1" s="497" t="s">
+      <c r="A1" s="499" t="s">
         <v>425</v>
       </c>
-      <c r="B1" s="497"/>
-      <c r="C1" s="497"/>
-      <c r="D1" s="497"/>
-      <c r="E1" s="497"/>
+      <c r="B1" s="499"/>
+      <c r="C1" s="499"/>
+      <c r="D1" s="499"/>
+      <c r="E1" s="499"/>
     </row>
     <row r="2" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A2" s="498" t="s">
+      <c r="A2" s="500" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="500" t="s">
+      <c r="B2" s="502" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="494" t="s">
+      <c r="C2" s="496" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="495"/>
-      <c r="E2" s="494" t="s">
+      <c r="D2" s="497"/>
+      <c r="E2" s="496" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="495"/>
-      <c r="G2" s="494" t="s">
+      <c r="F2" s="497"/>
+      <c r="G2" s="496" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="495"/>
-      <c r="I2" s="496"/>
+      <c r="H2" s="497"/>
+      <c r="I2" s="498"/>
     </row>
     <row r="3" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A3" s="499"/>
-      <c r="B3" s="501"/>
+      <c r="A3" s="501"/>
+      <c r="B3" s="503"/>
       <c r="C3" s="203" t="s">
         <v>103</v>
       </c>
@@ -62294,7 +62627,7 @@
       <c r="H3" s="203" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="496"/>
+      <c r="I3" s="498"/>
     </row>
     <row r="4" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="6">
@@ -62804,11 +63137,11 @@
       </c>
       <c r="F21" s="8">
         <f t="array" ref="F21">SUM(IF("331"&amp;B21=KHC&amp;KH,TH))</f>
-        <v>0</v>
+        <v>890000000</v>
       </c>
       <c r="G21" s="213">
         <f>ROUND(MAX(C21+E21-D21-F21,0),2)</f>
-        <v>1250000000</v>
+        <v>360000000</v>
       </c>
       <c r="H21" s="213">
         <f>ROUND(MAX(D21+F21-C21-E21,0),2)</f>
@@ -62978,15 +63311,15 @@
       </c>
       <c r="F27" s="8">
         <f t="array" ref="F27">SUM(IF("331"&amp;B27=KHC&amp;KH,TH))</f>
-        <v>0</v>
+        <v>394100000</v>
       </c>
       <c r="G27" s="213">
         <f t="shared" si="3"/>
-        <v>100000000</v>
+        <v>0</v>
       </c>
       <c r="H27" s="213">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>294100000</v>
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="309"/>
@@ -63036,7 +63369,7 @@
       </c>
       <c r="F29" s="8">
         <f t="array" ref="F29">SUM(IF("331"&amp;B29=KHC&amp;KH,TH))</f>
-        <v>399000000</v>
+        <v>570000000</v>
       </c>
       <c r="G29" s="213">
         <f t="shared" si="3"/>
@@ -63044,7 +63377,7 @@
       </c>
       <c r="H29" s="213">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>171000000</v>
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="309"/>
@@ -63286,9 +63619,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B38" s="122" t="s">
-        <v>1113</v>
-      </c>
+      <c r="B38" s="122"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="8">
@@ -63297,7 +63628,7 @@
       </c>
       <c r="F38" s="8">
         <f t="array" ref="F38">SUM(IF("331"&amp;B38=KHC&amp;KH,TH))</f>
-        <v>8137000</v>
+        <v>0</v>
       </c>
       <c r="G38" s="213">
         <f t="shared" si="19"/>
@@ -63305,7 +63636,7 @@
       </c>
       <c r="H38" s="213">
         <f t="shared" si="20"/>
-        <v>8137000</v>
+        <v>0</v>
       </c>
       <c r="I38" s="21"/>
       <c r="J38" s="309"/>
@@ -63368,15 +63699,15 @@
       </c>
       <c r="F41" s="18">
         <f t="shared" si="21"/>
-        <v>22589271026</v>
+        <v>24036234026</v>
       </c>
       <c r="G41" s="18">
         <f t="shared" si="21"/>
-        <v>6838400000</v>
+        <v>5848400000</v>
       </c>
       <c r="H41" s="18">
         <f t="shared" si="21"/>
-        <v>1921550236</v>
+        <v>2378513236</v>
       </c>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
@@ -63388,7 +63719,7 @@
       </c>
       <c r="F43" s="20">
         <f>CDPS!F20</f>
-        <v>22589271026</v>
+        <v>24036234026</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="17.25" customHeight="1">
@@ -63428,7 +63759,7 @@
     <sheetView topLeftCell="A4" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31:H32"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -63447,11 +63778,11 @@
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="502" t="s">
+      <c r="H1" s="504" t="s">
         <v>186</v>
       </c>
-      <c r="I1" s="502"/>
-      <c r="J1" s="502"/>
+      <c r="I1" s="504"/>
+      <c r="J1" s="504"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -63460,34 +63791,34 @@
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="503" t="s">
+      <c r="H2" s="505" t="s">
         <v>187</v>
       </c>
-      <c r="I2" s="503"/>
-      <c r="J2" s="503"/>
+      <c r="I2" s="505"/>
+      <c r="J2" s="505"/>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="503"/>
-      <c r="I3" s="503"/>
-      <c r="J3" s="503"/>
+      <c r="H3" s="505"/>
+      <c r="I3" s="505"/>
+      <c r="J3" s="505"/>
     </row>
     <row r="4" spans="1:10" s="5" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A4" s="511" t="s">
+      <c r="A4" s="513" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="511"/>
-      <c r="C4" s="511"/>
-      <c r="D4" s="511"/>
-      <c r="E4" s="511"/>
-      <c r="F4" s="511"/>
-      <c r="G4" s="511"/>
-      <c r="H4" s="511"/>
-      <c r="I4" s="511"/>
-      <c r="J4" s="511"/>
+      <c r="B4" s="513"/>
+      <c r="C4" s="513"/>
+      <c r="D4" s="513"/>
+      <c r="E4" s="513"/>
+      <c r="F4" s="513"/>
+      <c r="G4" s="513"/>
+      <c r="H4" s="513"/>
+      <c r="I4" s="513"/>
+      <c r="J4" s="513"/>
     </row>
     <row r="5" spans="1:10" s="26" customFormat="1" ht="14.25" customHeight="1">
       <c r="E5" s="27" t="s">
@@ -63503,12 +63834,12 @@
       <c r="D7" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="E7" s="504" t="s">
+      <c r="E7" s="506" t="s">
         <v>190</v>
       </c>
-      <c r="F7" s="504"/>
-      <c r="G7" s="504"/>
-      <c r="H7" s="504"/>
+      <c r="F7" s="506"/>
+      <c r="G7" s="506"/>
+      <c r="H7" s="506"/>
     </row>
     <row r="8" spans="1:10" s="26" customFormat="1" ht="14.25" customHeight="1">
       <c r="E8" s="27" t="s">
@@ -63517,52 +63848,52 @@
     </row>
     <row r="9" spans="1:10" s="26" customFormat="1" ht="6.75" customHeight="1">
       <c r="B9" s="27"/>
-      <c r="C9" s="506"/>
-      <c r="D9" s="506"/>
-      <c r="E9" s="506"/>
-      <c r="F9" s="506"/>
-      <c r="G9" s="506"/>
-      <c r="H9" s="506"/>
-      <c r="I9" s="506"/>
-      <c r="J9" s="506"/>
+      <c r="C9" s="508"/>
+      <c r="D9" s="508"/>
+      <c r="E9" s="508"/>
+      <c r="F9" s="508"/>
+      <c r="G9" s="508"/>
+      <c r="H9" s="508"/>
+      <c r="I9" s="508"/>
+      <c r="J9" s="508"/>
     </row>
     <row r="10" spans="1:10" s="26" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="508" t="s">
+      <c r="A10" s="510" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="507" t="s">
+      <c r="B10" s="509" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="507"/>
-      <c r="D10" s="508" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="508" t="s">
+      <c r="C10" s="509"/>
+      <c r="D10" s="510" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="510" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="508" t="s">
+      <c r="F10" s="510" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="509" t="s">
+      <c r="G10" s="511" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="510"/>
-      <c r="I10" s="509" t="s">
+      <c r="H10" s="512"/>
+      <c r="I10" s="511" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="510"/>
+      <c r="J10" s="512"/>
     </row>
     <row r="11" spans="1:10" s="26" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A11" s="508"/>
+      <c r="A11" s="510"/>
       <c r="B11" s="38" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="508"/>
-      <c r="E11" s="508"/>
-      <c r="F11" s="508"/>
+      <c r="D11" s="510"/>
+      <c r="E11" s="510"/>
+      <c r="F11" s="510"/>
       <c r="G11" s="38" t="s">
         <v>52</v>
       </c>
@@ -65149,46 +65480,46 @@
     <row r="56" spans="1:10" s="26" customFormat="1" ht="14.25" customHeight="1">
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
-      <c r="E56" s="505" t="s">
+      <c r="E56" s="507" t="s">
         <v>77</v>
       </c>
-      <c r="F56" s="505"/>
-      <c r="G56" s="505"/>
-      <c r="H56" s="505"/>
-      <c r="I56" s="505"/>
-      <c r="J56" s="505"/>
+      <c r="F56" s="507"/>
+      <c r="G56" s="507"/>
+      <c r="H56" s="507"/>
+      <c r="I56" s="507"/>
+      <c r="J56" s="507"/>
     </row>
     <row r="57" spans="1:10" s="26" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A57" s="505" t="s">
+      <c r="A57" s="507" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="505"/>
-      <c r="C57" s="505"/>
-      <c r="D57" s="505"/>
-      <c r="E57" s="505" t="s">
+      <c r="B57" s="507"/>
+      <c r="C57" s="507"/>
+      <c r="D57" s="507"/>
+      <c r="E57" s="507" t="s">
         <v>27</v>
       </c>
-      <c r="F57" s="505"/>
-      <c r="G57" s="505"/>
-      <c r="H57" s="505"/>
-      <c r="I57" s="505"/>
-      <c r="J57" s="505"/>
+      <c r="F57" s="507"/>
+      <c r="G57" s="507"/>
+      <c r="H57" s="507"/>
+      <c r="I57" s="507"/>
+      <c r="J57" s="507"/>
     </row>
     <row r="58" spans="1:10" s="26" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A58" s="505" t="s">
+      <c r="A58" s="507" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="505"/>
-      <c r="C58" s="505"/>
-      <c r="D58" s="505"/>
-      <c r="E58" s="505" t="s">
+      <c r="B58" s="507"/>
+      <c r="C58" s="507"/>
+      <c r="D58" s="507"/>
+      <c r="E58" s="507" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="505"/>
-      <c r="G58" s="505"/>
-      <c r="H58" s="505"/>
-      <c r="I58" s="505"/>
-      <c r="J58" s="505"/>
+      <c r="F58" s="507"/>
+      <c r="G58" s="507"/>
+      <c r="H58" s="507"/>
+      <c r="I58" s="507"/>
+      <c r="J58" s="507"/>
     </row>
     <row r="59" spans="1:10" s="37" customFormat="1"/>
   </sheetData>
@@ -65253,57 +65584,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="144" customFormat="1" ht="20.25">
-      <c r="A1" s="472" t="str">
+      <c r="A1" s="474" t="str">
         <f ca="1">"CHI PHÍ XÂY DỰNG TRÀ VINH   " &amp; TEXT(NOW(),"dd/MM/yyyy")</f>
-        <v>CHI PHÍ XÂY DỰNG TRÀ VINH   09/01/2016</v>
-      </c>
-      <c r="B1" s="472"/>
-      <c r="C1" s="472"/>
-      <c r="D1" s="472"/>
-      <c r="E1" s="472"/>
-      <c r="F1" s="472"/>
-      <c r="G1" s="472"/>
-      <c r="H1" s="472"/>
-      <c r="I1" s="472"/>
-      <c r="J1" s="472"/>
-      <c r="K1" s="472"/>
+        <v>CHI PHÍ XÂY DỰNG TRÀ VINH   12/01/2016</v>
+      </c>
+      <c r="B1" s="474"/>
+      <c r="C1" s="474"/>
+      <c r="D1" s="474"/>
+      <c r="E1" s="474"/>
+      <c r="F1" s="474"/>
+      <c r="G1" s="474"/>
+      <c r="H1" s="474"/>
+      <c r="I1" s="474"/>
+      <c r="J1" s="474"/>
+      <c r="K1" s="474"/>
       <c r="L1" s="305"/>
     </row>
     <row r="3" spans="1:12" s="145" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="473" t="s">
+      <c r="A3" s="475" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="473" t="s">
+      <c r="B3" s="475" t="s">
         <v>360</v>
       </c>
-      <c r="C3" s="473" t="s">
+      <c r="C3" s="475" t="s">
         <v>361</v>
       </c>
-      <c r="D3" s="473" t="s">
+      <c r="D3" s="475" t="s">
         <v>362</v>
       </c>
-      <c r="E3" s="474" t="s">
+      <c r="E3" s="476" t="s">
         <v>363</v>
       </c>
-      <c r="F3" s="475"/>
-      <c r="G3" s="476"/>
-      <c r="H3" s="474" t="s">
+      <c r="F3" s="477"/>
+      <c r="G3" s="478"/>
+      <c r="H3" s="476" t="s">
         <v>364</v>
       </c>
-      <c r="I3" s="476"/>
-      <c r="J3" s="477" t="s">
+      <c r="I3" s="478"/>
+      <c r="J3" s="479" t="s">
         <v>365</v>
       </c>
-      <c r="K3" s="473" t="s">
+      <c r="K3" s="475" t="s">
         <v>366</v>
       </c>
       <c r="L3" s="199"/>
     </row>
     <row r="4" spans="1:12" s="148" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="473"/>
-      <c r="B4" s="473"/>
-      <c r="C4" s="473"/>
-      <c r="D4" s="473"/>
+      <c r="A4" s="475"/>
+      <c r="B4" s="475"/>
+      <c r="C4" s="475"/>
+      <c r="D4" s="475"/>
       <c r="E4" s="147" t="s">
         <v>430</v>
       </c>
@@ -65319,8 +65650,8 @@
       <c r="I4" s="147" t="s">
         <v>368</v>
       </c>
-      <c r="J4" s="478"/>
-      <c r="K4" s="473"/>
+      <c r="J4" s="480"/>
+      <c r="K4" s="475"/>
       <c r="L4" s="306"/>
     </row>
     <row r="5" spans="1:12" ht="17.25" customHeight="1">
@@ -65336,10 +65667,10 @@
       <c r="D5" s="461">
         <v>41871</v>
       </c>
-      <c r="E5" s="442">
+      <c r="E5" s="444">
         <v>2200000000</v>
       </c>
-      <c r="F5" s="442">
+      <c r="F5" s="444">
         <f>2508700000</f>
         <v>2508700000</v>
       </c>
@@ -65347,7 +65678,7 @@
         <f>IF(I5&gt;0,I5,0)</f>
         <v>752610000</v>
       </c>
-      <c r="H5" s="442">
+      <c r="H5" s="444">
         <v>1858000000</v>
       </c>
       <c r="I5" s="172">
@@ -65365,13 +65696,13 @@
       <c r="B6" s="462"/>
       <c r="C6" s="460"/>
       <c r="D6" s="460"/>
-      <c r="E6" s="443"/>
-      <c r="F6" s="443"/>
+      <c r="E6" s="445"/>
+      <c r="F6" s="445"/>
       <c r="G6" s="172">
         <f t="shared" ref="G6:G16" si="0">IF(I6&gt;0,I6,0)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="443"/>
+      <c r="H6" s="445"/>
       <c r="I6" s="185">
         <v>-200000000</v>
       </c>
@@ -65388,13 +65719,13 @@
       <c r="B7" s="462"/>
       <c r="C7" s="460"/>
       <c r="D7" s="460"/>
-      <c r="E7" s="443"/>
-      <c r="F7" s="443"/>
+      <c r="E7" s="445"/>
+      <c r="F7" s="445"/>
       <c r="G7" s="172">
         <f t="shared" si="0"/>
         <v>500000000</v>
       </c>
-      <c r="H7" s="443"/>
+      <c r="H7" s="445"/>
       <c r="I7" s="172">
         <v>500000000</v>
       </c>
@@ -65410,13 +65741,13 @@
       <c r="B8" s="462"/>
       <c r="C8" s="460"/>
       <c r="D8" s="460"/>
-      <c r="E8" s="443"/>
-      <c r="F8" s="443"/>
+      <c r="E8" s="445"/>
+      <c r="F8" s="445"/>
       <c r="G8" s="172">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="443"/>
+      <c r="H8" s="445"/>
       <c r="I8" s="185">
         <v>-100000000</v>
       </c>
@@ -65432,13 +65763,13 @@
       <c r="B9" s="462"/>
       <c r="C9" s="460"/>
       <c r="D9" s="460"/>
-      <c r="E9" s="443"/>
-      <c r="F9" s="443"/>
+      <c r="E9" s="445"/>
+      <c r="F9" s="445"/>
       <c r="G9" s="172">
         <f t="shared" si="0"/>
         <v>500000000</v>
       </c>
-      <c r="H9" s="443"/>
+      <c r="H9" s="445"/>
       <c r="I9" s="172">
         <v>500000000</v>
       </c>
@@ -65455,7 +65786,7 @@
       <c r="C10" s="460" t="s">
         <v>395</v>
       </c>
-      <c r="D10" s="471">
+      <c r="D10" s="473">
         <v>42139</v>
       </c>
       <c r="E10" s="489">
@@ -65470,7 +65801,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="443">
+      <c r="H10" s="445">
         <f>139900000+250800000</f>
         <v>390700000</v>
       </c>
@@ -65488,14 +65819,14 @@
       <c r="A11" s="462"/>
       <c r="B11" s="462"/>
       <c r="C11" s="460"/>
-      <c r="D11" s="471"/>
+      <c r="D11" s="473"/>
       <c r="E11" s="489"/>
       <c r="F11" s="489"/>
       <c r="G11" s="172">
         <f t="shared" si="0"/>
         <v>251000000</v>
       </c>
-      <c r="H11" s="443"/>
+      <c r="H11" s="445"/>
       <c r="I11" s="172">
         <v>251000000</v>
       </c>
@@ -65510,14 +65841,14 @@
       <c r="A12" s="462"/>
       <c r="B12" s="462"/>
       <c r="C12" s="460"/>
-      <c r="D12" s="471"/>
+      <c r="D12" s="473"/>
       <c r="E12" s="489"/>
       <c r="F12" s="489"/>
       <c r="G12" s="172">
         <f t="shared" si="0"/>
         <v>200000000</v>
       </c>
-      <c r="H12" s="443"/>
+      <c r="H12" s="445"/>
       <c r="I12" s="172">
         <v>200000000</v>
       </c>
@@ -65532,14 +65863,14 @@
       <c r="A13" s="462"/>
       <c r="B13" s="462"/>
       <c r="C13" s="460"/>
-      <c r="D13" s="471"/>
+      <c r="D13" s="473"/>
       <c r="E13" s="489"/>
       <c r="F13" s="489"/>
       <c r="G13" s="172">
         <f t="shared" si="0"/>
         <v>400000000</v>
       </c>
-      <c r="H13" s="443"/>
+      <c r="H13" s="445"/>
       <c r="I13" s="172">
         <v>400000000</v>
       </c>
@@ -65554,14 +65885,14 @@
       <c r="A14" s="462"/>
       <c r="B14" s="462"/>
       <c r="C14" s="460"/>
-      <c r="D14" s="471"/>
+      <c r="D14" s="473"/>
       <c r="E14" s="489"/>
       <c r="F14" s="489"/>
       <c r="G14" s="172">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="443"/>
+      <c r="H14" s="445"/>
       <c r="I14" s="185">
         <v>-200000000</v>
       </c>
@@ -65576,14 +65907,14 @@
       <c r="A15" s="462"/>
       <c r="B15" s="462"/>
       <c r="C15" s="460"/>
-      <c r="D15" s="471"/>
+      <c r="D15" s="473"/>
       <c r="E15" s="489"/>
       <c r="F15" s="489"/>
       <c r="G15" s="172">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="443"/>
+      <c r="H15" s="445"/>
       <c r="I15" s="151"/>
       <c r="J15" s="173"/>
       <c r="K15" s="327"/>
@@ -65592,14 +65923,14 @@
       <c r="A16" s="462"/>
       <c r="B16" s="462"/>
       <c r="C16" s="460"/>
-      <c r="D16" s="471"/>
+      <c r="D16" s="473"/>
       <c r="E16" s="489"/>
       <c r="F16" s="489"/>
       <c r="G16" s="172">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="443"/>
+      <c r="H16" s="445"/>
       <c r="I16" s="151"/>
       <c r="J16" s="326"/>
       <c r="K16" s="325"/>
@@ -65668,18 +65999,18 @@
       <c r="L18" s="304"/>
     </row>
     <row r="19" spans="1:12" ht="17.25" customHeight="1">
-      <c r="C19" s="512" t="s">
+      <c r="C19" s="514" t="s">
         <v>748</v>
       </c>
-      <c r="D19" s="512"/>
+      <c r="D19" s="514"/>
       <c r="E19" s="158">
         <f>F17-H17</f>
         <v>761400000</v>
       </c>
-      <c r="G19" s="512" t="s">
+      <c r="G19" s="514" t="s">
         <v>749</v>
       </c>
-      <c r="H19" s="512"/>
+      <c r="H19" s="514"/>
       <c r="I19" s="158">
         <f>E19*10%</f>
         <v>76140000</v>
@@ -65688,10 +66019,10 @@
       <c r="K19" s="158"/>
     </row>
     <row r="20" spans="1:12" ht="17.25" customHeight="1">
-      <c r="C20" s="512" t="s">
+      <c r="C20" s="514" t="s">
         <v>749</v>
       </c>
-      <c r="D20" s="512"/>
+      <c r="D20" s="514"/>
       <c r="E20" s="158">
         <f>E19*10%</f>
         <v>76140000</v>
@@ -65773,41 +66104,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" s="330" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A2" s="513" t="s">
+      <c r="A2" s="515" t="s">
         <v>890</v>
       </c>
-      <c r="B2" s="514" t="s">
+      <c r="B2" s="516" t="s">
         <v>891</v>
       </c>
-      <c r="C2" s="514" t="s">
+      <c r="C2" s="516" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="518" t="s">
+      <c r="D2" s="520" t="s">
         <v>892</v>
       </c>
-      <c r="E2" s="518"/>
-      <c r="F2" s="518"/>
-      <c r="G2" s="518" t="s">
+      <c r="E2" s="520"/>
+      <c r="F2" s="520"/>
+      <c r="G2" s="520" t="s">
         <v>893</v>
       </c>
-      <c r="H2" s="518"/>
-      <c r="I2" s="518"/>
-      <c r="J2" s="518" t="s">
+      <c r="H2" s="520"/>
+      <c r="I2" s="520"/>
+      <c r="J2" s="520" t="s">
         <v>894</v>
       </c>
-      <c r="K2" s="518"/>
-      <c r="L2" s="518" t="s">
+      <c r="K2" s="520"/>
+      <c r="L2" s="520" t="s">
         <v>895</v>
       </c>
-      <c r="M2" s="518"/>
-      <c r="N2" s="514" t="s">
+      <c r="M2" s="520"/>
+      <c r="N2" s="516" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="330" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A3" s="513"/>
-      <c r="B3" s="514"/>
-      <c r="C3" s="514"/>
+      <c r="A3" s="515"/>
+      <c r="B3" s="516"/>
+      <c r="C3" s="516"/>
       <c r="D3" s="331" t="s">
         <v>896</v>
       </c>
@@ -65838,14 +66169,14 @@
       <c r="M3" s="332" t="s">
         <v>898</v>
       </c>
-      <c r="N3" s="514"/>
+      <c r="N3" s="516"/>
     </row>
     <row r="4" spans="1:14" s="330" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A4" s="519" t="s">
+      <c r="A4" s="521" t="s">
         <v>899</v>
       </c>
-      <c r="B4" s="519"/>
-      <c r="C4" s="519"/>
+      <c r="B4" s="521"/>
+      <c r="C4" s="521"/>
       <c r="D4" s="333"/>
       <c r="E4" s="334"/>
       <c r="F4" s="335"/>
@@ -67117,11 +67448,11 @@
       <c r="N30" s="358"/>
     </row>
     <row r="31" spans="1:14" s="330" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A31" s="513" t="s">
+      <c r="A31" s="515" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="513"/>
-      <c r="C31" s="513"/>
+      <c r="B31" s="515"/>
+      <c r="C31" s="515"/>
       <c r="D31" s="331"/>
       <c r="E31" s="332"/>
       <c r="F31" s="332">
@@ -67147,11 +67478,11 @@
       <c r="N31" s="363"/>
     </row>
     <row r="32" spans="1:14" s="330" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A32" s="515" t="s">
+      <c r="A32" s="517" t="s">
         <v>937</v>
       </c>
-      <c r="B32" s="516"/>
-      <c r="C32" s="517"/>
+      <c r="B32" s="518"/>
+      <c r="C32" s="519"/>
       <c r="D32" s="364"/>
       <c r="E32" s="365"/>
       <c r="F32" s="365"/>
@@ -69033,11 +69364,11 @@
       <c r="N71" s="354"/>
     </row>
     <row r="72" spans="1:14" s="330" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A72" s="513" t="s">
+      <c r="A72" s="515" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="513"/>
-      <c r="C72" s="513"/>
+      <c r="B72" s="515"/>
+      <c r="C72" s="515"/>
       <c r="D72" s="331"/>
       <c r="E72" s="332"/>
       <c r="F72" s="332">
@@ -69063,11 +69394,11 @@
       <c r="N72" s="363"/>
     </row>
     <row r="73" spans="1:14" ht="32.25" customHeight="1">
-      <c r="A73" s="513" t="s">
+      <c r="A73" s="515" t="s">
         <v>971</v>
       </c>
-      <c r="B73" s="513"/>
-      <c r="C73" s="513"/>
+      <c r="B73" s="515"/>
+      <c r="C73" s="515"/>
       <c r="D73" s="341"/>
       <c r="E73" s="342"/>
       <c r="F73" s="340"/>
@@ -70905,11 +71236,11 @@
       <c r="N111" s="343"/>
     </row>
     <row r="112" spans="1:14" s="330" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A112" s="513" t="s">
+      <c r="A112" s="515" t="s">
         <v>94</v>
       </c>
-      <c r="B112" s="513"/>
-      <c r="C112" s="513"/>
+      <c r="B112" s="515"/>
+      <c r="C112" s="515"/>
       <c r="D112" s="331"/>
       <c r="E112" s="332"/>
       <c r="F112" s="332">
@@ -70935,11 +71266,11 @@
       <c r="N112" s="363"/>
     </row>
     <row r="113" spans="1:14" ht="32.25" customHeight="1">
-      <c r="A113" s="513" t="s">
+      <c r="A113" s="515" t="s">
         <v>996</v>
       </c>
-      <c r="B113" s="513"/>
-      <c r="C113" s="513"/>
+      <c r="B113" s="515"/>
+      <c r="C113" s="515"/>
       <c r="D113" s="341"/>
       <c r="E113" s="342"/>
       <c r="F113" s="340"/>
@@ -72765,11 +73096,11 @@
       <c r="N151" s="343"/>
     </row>
     <row r="152" spans="1:14" s="330" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A152" s="513" t="s">
+      <c r="A152" s="515" t="s">
         <v>94</v>
       </c>
-      <c r="B152" s="513"/>
-      <c r="C152" s="513"/>
+      <c r="B152" s="515"/>
+      <c r="C152" s="515"/>
       <c r="D152" s="331"/>
       <c r="E152" s="332"/>
       <c r="F152" s="332">
@@ -72795,11 +73126,11 @@
       <c r="N152" s="363"/>
     </row>
     <row r="153" spans="1:14" ht="32.25" customHeight="1">
-      <c r="A153" s="513" t="s">
+      <c r="A153" s="515" t="s">
         <v>1008</v>
       </c>
-      <c r="B153" s="513"/>
-      <c r="C153" s="513"/>
+      <c r="B153" s="515"/>
+      <c r="C153" s="515"/>
       <c r="D153" s="341"/>
       <c r="E153" s="342"/>
       <c r="F153" s="340"/>
@@ -74063,11 +74394,11 @@
       <c r="N179" s="354"/>
     </row>
     <row r="180" spans="1:14" s="330" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A180" s="513" t="s">
+      <c r="A180" s="515" t="s">
         <v>94</v>
       </c>
-      <c r="B180" s="513"/>
-      <c r="C180" s="513"/>
+      <c r="B180" s="515"/>
+      <c r="C180" s="515"/>
       <c r="D180" s="331"/>
       <c r="E180" s="332"/>
       <c r="F180" s="332">
@@ -74093,11 +74424,11 @@
       <c r="N180" s="363"/>
     </row>
     <row r="181" spans="1:14" ht="32.25" customHeight="1">
-      <c r="A181" s="513" t="s">
+      <c r="A181" s="515" t="s">
         <v>1024</v>
       </c>
-      <c r="B181" s="513"/>
-      <c r="C181" s="513"/>
+      <c r="B181" s="515"/>
+      <c r="C181" s="515"/>
       <c r="D181" s="341"/>
       <c r="E181" s="342"/>
       <c r="F181" s="340"/>
@@ -74963,11 +75294,11 @@
       <c r="N199" s="354"/>
     </row>
     <row r="200" spans="1:14" s="330" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A200" s="513" t="s">
+      <c r="A200" s="515" t="s">
         <v>94</v>
       </c>
-      <c r="B200" s="513"/>
-      <c r="C200" s="513"/>
+      <c r="B200" s="515"/>
+      <c r="C200" s="515"/>
       <c r="D200" s="331"/>
       <c r="E200" s="332"/>
       <c r="F200" s="332">
@@ -74993,11 +75324,11 @@
       <c r="N200" s="363"/>
     </row>
     <row r="201" spans="1:14" ht="32.25" customHeight="1">
-      <c r="A201" s="513" t="s">
+      <c r="A201" s="515" t="s">
         <v>1034</v>
       </c>
-      <c r="B201" s="513"/>
-      <c r="C201" s="513"/>
+      <c r="B201" s="515"/>
+      <c r="C201" s="515"/>
       <c r="D201" s="341"/>
       <c r="E201" s="342"/>
       <c r="F201" s="340"/>
@@ -75576,11 +75907,11 @@
       <c r="N213" s="354"/>
     </row>
     <row r="214" spans="1:14" s="330" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A214" s="513" t="s">
+      <c r="A214" s="515" t="s">
         <v>94</v>
       </c>
-      <c r="B214" s="513"/>
-      <c r="C214" s="513"/>
+      <c r="B214" s="515"/>
+      <c r="C214" s="515"/>
       <c r="D214" s="331"/>
       <c r="E214" s="332"/>
       <c r="F214" s="332">
@@ -75606,11 +75937,11 @@
       <c r="N214" s="363"/>
     </row>
     <row r="215" spans="1:14" s="330" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A215" s="523" t="s">
+      <c r="A215" s="525" t="s">
         <v>1043</v>
       </c>
-      <c r="B215" s="523"/>
-      <c r="C215" s="523"/>
+      <c r="B215" s="525"/>
+      <c r="C215" s="525"/>
       <c r="D215" s="333"/>
       <c r="E215" s="334"/>
       <c r="F215" s="334"/>
@@ -75638,11 +75969,11 @@
       <c r="N215" s="335"/>
     </row>
     <row r="216" spans="1:14" s="330" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A216" s="524" t="s">
+      <c r="A216" s="526" t="s">
         <v>1044</v>
       </c>
-      <c r="B216" s="524"/>
-      <c r="C216" s="524"/>
+      <c r="B216" s="526"/>
+      <c r="C216" s="526"/>
       <c r="D216" s="370"/>
       <c r="E216" s="371"/>
       <c r="F216" s="371"/>
@@ -75670,11 +76001,11 @@
       <c r="N216" s="372"/>
     </row>
     <row r="217" spans="1:14" s="330" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A217" s="524" t="s">
+      <c r="A217" s="526" t="s">
         <v>1045</v>
       </c>
-      <c r="B217" s="524"/>
-      <c r="C217" s="524"/>
+      <c r="B217" s="526"/>
+      <c r="C217" s="526"/>
       <c r="D217" s="370"/>
       <c r="E217" s="371"/>
       <c r="F217" s="371"/>
@@ -75702,11 +76033,11 @@
       <c r="N217" s="372"/>
     </row>
     <row r="218" spans="1:14" s="330" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A218" s="524" t="s">
+      <c r="A218" s="526" t="s">
         <v>1046</v>
       </c>
-      <c r="B218" s="524"/>
-      <c r="C218" s="524"/>
+      <c r="B218" s="526"/>
+      <c r="C218" s="526"/>
       <c r="D218" s="370"/>
       <c r="E218" s="371"/>
       <c r="F218" s="371"/>
@@ -75734,11 +76065,11 @@
       <c r="N218" s="372"/>
     </row>
     <row r="219" spans="1:14" s="330" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A219" s="524" t="s">
+      <c r="A219" s="526" t="s">
         <v>1047</v>
       </c>
-      <c r="B219" s="524"/>
-      <c r="C219" s="524"/>
+      <c r="B219" s="526"/>
+      <c r="C219" s="526"/>
       <c r="D219" s="370"/>
       <c r="E219" s="371"/>
       <c r="F219" s="371"/>
@@ -75760,11 +76091,11 @@
       <c r="N219" s="372"/>
     </row>
     <row r="220" spans="1:14" s="330" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A220" s="525" t="s">
+      <c r="A220" s="527" t="s">
         <v>1048</v>
       </c>
-      <c r="B220" s="525"/>
-      <c r="C220" s="525"/>
+      <c r="B220" s="527"/>
+      <c r="C220" s="527"/>
       <c r="D220" s="373"/>
       <c r="E220" s="374"/>
       <c r="F220" s="374"/>
@@ -75786,11 +76117,11 @@
       <c r="N220" s="375"/>
     </row>
     <row r="221" spans="1:14" s="330" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A221" s="513" t="s">
+      <c r="A221" s="515" t="s">
         <v>94</v>
       </c>
-      <c r="B221" s="513"/>
-      <c r="C221" s="513"/>
+      <c r="B221" s="515"/>
+      <c r="C221" s="515"/>
       <c r="D221" s="331"/>
       <c r="E221" s="332"/>
       <c r="F221" s="332">
@@ -75816,11 +76147,11 @@
       <c r="N221" s="363"/>
     </row>
     <row r="222" spans="1:14" s="330" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A222" s="520" t="s">
+      <c r="A222" s="522" t="s">
         <v>1049</v>
       </c>
-      <c r="B222" s="521"/>
-      <c r="C222" s="522"/>
+      <c r="B222" s="523"/>
+      <c r="C222" s="524"/>
       <c r="D222" s="331"/>
       <c r="E222" s="332"/>
       <c r="F222" s="332">
